--- a/jpcore-r4/develop/StructureDefinition-jp-procedure.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-procedure.xlsx
@@ -1901,44 +1901,44 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="38.828125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="89.875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="73.0546875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="70.42578125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="70.4296875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="142.5625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="142.56640625" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="105.15625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="105.16015625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/jpcore-r4/develop/StructureDefinition-jp-procedure.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-procedure.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3442" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3441" uniqueCount="487">
   <si>
     <t>Property</t>
   </si>
@@ -54,70 +54,70 @@
     <t>Experimental</t>
   </si>
   <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>2022-03-16</t>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI)</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>No display for ContactDetail</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>このプロファイルはProcedureリソースに対して、患者に対する医療的な処置のデータを送受信するための共通の制約と拡張を定めたものである。</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>FHIR Version</t>
+  </si>
+  <si>
+    <t>4.0.1</t>
+  </si>
+  <si>
+    <t>Kind</t>
+  </si>
+  <si>
+    <t>resource</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Procedure</t>
+  </si>
+  <si>
+    <t>Base Definition</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/Procedure</t>
+  </si>
+  <si>
+    <t>Abstract</t>
+  </si>
+  <si>
     <t>false</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>2022-03-16</t>
-  </si>
-  <si>
-    <t>Publisher</t>
-  </si>
-  <si>
-    <t>FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI)</t>
-  </si>
-  <si>
-    <t>Contact</t>
-  </si>
-  <si>
-    <t>No display for ContactDetail</t>
-  </si>
-  <si>
-    <t>Jurisdiction</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>このプロファイルはProcedureリソースに対して、患者に対する医療的な処置のデータを送受信するための共通の制約と拡張を定めたものである。</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Copyright</t>
-  </si>
-  <si>
-    <t>FHIR Version</t>
-  </si>
-  <si>
-    <t>4.0.1</t>
-  </si>
-  <si>
-    <t>Kind</t>
-  </si>
-  <si>
-    <t>resource</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Procedure</t>
-  </si>
-  <si>
-    <t>Base Definition</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Procedure</t>
-  </si>
-  <si>
-    <t>Abstract</t>
   </si>
   <si>
     <t>Derivation</t>
@@ -1778,102 +1778,100 @@
       <c r="A7" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="B7" t="s" s="2">
-        <v>13</v>
-      </c>
+      <c r="B7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s" s="2">
         <v>14</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s" s="2">
         <v>16</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s" s="2">
         <v>18</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s" s="2">
         <v>20</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s" s="2">
         <v>22</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>26</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s" s="2">
         <v>28</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s" s="2">
         <v>30</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s" s="2">
         <v>32</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>33</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>34</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>13</v>
       </c>
     </row>
     <row r="20">
@@ -2062,7 +2060,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
@@ -2142,7 +2140,7 @@
         <v>76</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AF2" t="s" s="2">
         <v>77</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-procedure.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-procedure.xlsx
@@ -585,7 +585,7 @@
     <t>preparation | in-progress | not-done | on-hold | stopped | completed | entered-in-error | unknown</t>
   </si>
   <si>
-    <t>プロシージャの状態を指定するコードです。一般的には、進行中または完了した状態になります。【JP仕様】http://hl7.org/fhir/us/core/STU3.1/StructureDefinition-us-core-procedure.htmlを参照</t>
+    <t>プロシージャの状態を指定するコードである。一般的には、進行中または完了した状態になる。【JP仕様】http://hl7.org/fhir/us/core/STU3.1/StructureDefinition-us-core-procedure.htmlを参照</t>
   </si>
   <si>
     <t>The "unknown" code is not to be used to convey other statuses.  The "unknown" code should be used when one of the statuses applies, but the authoring system doesn't know the current state of the procedure.
@@ -654,7 +654,7 @@
     <t>検索、ソート、表示のためにProcedureを分類したコード（例：「外科的Procedure」）。</t>
   </si>
   <si>
-    <t>すべての用語の使用がこの一般的なパターンに当てはまるわけではない。場合によっては、モデルはCodeableConceptを使用せず、Codingを直接使用し、テキスト、コーディング、翻訳、要素間の関係や事前・事後の調整を管理するための独自の構造を提供する必要があります。 
+    <t>すべての用語の使用がこの一般的なパターンに当てはまるわけではない。場合によっては、モデルはCodeableConceptを使用せず、Codingを直接使用し、テキスト、コーディング、翻訳、要素間の関係や事前・事後の調整を管理するための独自の構造を提供する必要がある。 
 【JPーCORE】JP_Conditionに合わせて必須。</t>
   </si>
   <si>
@@ -719,7 +719,7 @@
   </si>
   <si>
     <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.
-コードは、列挙型またはコードリストで、SNOMED CTなどの非常に正式な定義まで、非常に柔軟に定義できます。詳細については、HL7v3コア原則を参照。コーディングの順序は定義されておらず、意味を推測するために使用してはならない。
+コードは、列挙型またはコードリストで、SNOMED CTなどの非常に正式な定義まで、非常に柔軟に定義できる。詳細については、HL7v3コア原則を参照。コーディングの順序は定義されておらず、意味を推測するために使用してはならない。
 一般に、コーディング値の多くても1つだけが　UserSelected = true　としてラベル付けされる。</t>
   </si>
   <si>
@@ -750,7 +750,7 @@
   </si>
   <si>
     <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.
-用語のコードは、それらを使用する人間のすべてのニュアンスで常に正しい意味を捉えているとは限らない。または、適切なコードがまったくない場合もあります。このような場合、テキストはソースの完全な意味をキャプチャするために使用される。</t>
+用語のコードは、それらを使用する人間のすべてのニュアンスで常に正しい意味を捉えているとは限らない。または、適切なコードがまったくない場合もある。このような場合、テキストはソースの完全な意味をキャプチャするために使用される。</t>
   </si>
   <si>
     <t>CodeableConcept.text</t>
@@ -1042,7 +1042,7 @@
     <t>プロシジャーが作成または実行されたエンカウンター、またはこの記録の作成が緊密に関連しているエンカウンター。</t>
   </si>
   <si>
-    <t>これは通常、イベントが発生した出会いの中で行われますが、活動によっては、出会いの公式な終了前または終了後に開始されても、出会いの文脈と結びついている場合があります。</t>
+    <t>これは通常、イベントが発生した出会いの中で行われますが、活動によっては、出会いの公式な終了前または終了後に開始されても、出会いの文脈と結びついている場合がある。</t>
   </si>
   <si>
     <t>Event.context</t>
@@ -1178,7 +1178,7 @@
   </si>
   <si>
     <t>Distinguishes the type of involvement of the performer in the procedure. For example, surgeon, anaesthetist, endoscopist.
-プロシジャーへの実施者の関与のタイプを区別します。たとえば、外科医、麻酔科医、内視鏡医。</t>
+プロシジャーへの実施者の関与のタイプを区別する。たとえば、外科医、麻酔科医、内視鏡医。</t>
   </si>
   <si>
     <t>すべての用語の使用がこの一般的なパターンに当てはまるわけではない。場合によっては、モデルはCodeableConceptを使用せず、Codingを直接使用し、テキスト、コーディング、翻訳、要素間の関係や事前・事後の調整を管理するための独自の構造を提供するべきです。
@@ -1324,7 +1324,7 @@
   <si>
     <t>It is possible for a procedure to be a reason (such as C-Section) for another procedure (such as an epidural). Other examples include endoscopy for dilatation and biopsy (a combination of diagnostic and therapeutic use). 
 Use Procedure.reasonCode when a code sufficiently describes the reason.  Use Procedure.reasonReference when referencing a resource, which allows more information to be conveyed, such as onset date. Procedure.reasonCode and Procedure.reasonReference are not meant to be duplicative.  For a single reason, either Procedure.reasonCode or Procedure.reasonReference can be used.  Procedure.reasonCode may be a summary code, or Procedure.reasonReference may be used to reference a very precise definition of the reason using Condition | Observation | Procedure | DiagnosticReport | DocumentReference.  Both Procedure.reasonCode and Procedure.reasonReference can be used if they are describing different reasons for the procedure.
-ある手順が別の手順（硬膜外など）の理由（帝王切開など）になる可能性があります。他の例には、拡張および生検（診断および治療用途の組み合わせ）のための内視鏡検査が含まれます。
+ある手順が別の手順（硬膜外など）の理由（帝王切開など）になる可能性がある。他の例には、拡張および生検（診断および治療用途の組み合わせ）のための内視鏡検査が含まれる。
 コードが理由を十分に説明している場合は、Procedure.reasonCodeを使用する。
 リソースを参照する場合は、Procedure.reasonReferenceを使用する。これにより、開始日など、より多くの情報を伝達できる。
 Procedure.reasonCodeとProcedure.reasonReferenceは、重複することを意図したものではない。単一の理由で、Procedure.reasonCodeまたはProcedure.reasonReferenceのいずれかだけを使用できる。
@@ -1344,7 +1344,7 @@
   </si>
   <si>
     <t>If the use case requires attributes from the BodySite resource (e.g. to identify and track separately) then use the standard extension [procedure-targetbodystructure](extension-procedure-targetbodystructure.html).
-ユースケースでBodySiteリソースの属性が必要な場合（たとえば、個別に識別して追跡するため）、標準の拡張extension　[procedure-targetbodystructure]（extension-procedure-targetbodystructure.html）を使用します。</t>
+ユースケースでBodySiteリソースの属性が必要な場合（たとえば、個別に識別して追跡するため）、標準の拡張extension　[procedure-targetbodystructure]（extension-procedure-targetbodystructure.html）を使用する。</t>
   </si>
   <si>
     <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureBodySite_VS</t>
@@ -1408,7 +1408,7 @@
   </si>
   <si>
     <t>Any complications that occurred during the procedure, or in the immediate post-performance period. These are generally tracked separately from the notes, which will typically describe the procedure itself rather than any 'post procedure' issues.
-プロシジャー中、またはその実施直後の期間に発生した合併症。これらは通常、note要素とは別に記録されます。note要素は通常、「プロシジャー後」の問題ではなく、プロシジャー自体を説明するものである。</t>
+プロシジャー中、またはその実施直後の期間に発生した合併症。これらは通常、note要素とは別に記録される。note要素は通常、「プロシジャー後」の問題ではなく、プロシジャー自体を説明するものである。</t>
   </si>
   <si>
     <t>If complications are only expressed by the narrative text, they can be captured using the CodeableConcept.text.
@@ -1474,7 +1474,7 @@
   </si>
   <si>
     <t>For systems that do not have structured annotations, they can simply communicate a single annotation with no author or time.  This element may need to be included in narrative because of the potential for modifying information.  *Annotations SHOULD NOT* be used to communicate "modifying" information that could be computable. (This is a SHOULD because enforcing user behavior is nearly impossible).
-構造化された注釈（アノテーション）を持たないシステムの場合、作成者や時間なしで単一の注釈を簡単に伝達できる。情報を変更する可能性があるため、この要素をナラティブに含める必要がある場合があります。 
+構造化された注釈（アノテーション）を持たないシステムの場合、作成者や時間なしで単一の注釈を簡単に伝達できる。情報を変更する可能性があるため、この要素をナラティブに含める必要がある場合がある。 
 *注釈は、計算機処理れきる「変更」情報を伝達するために使用されるべきではない*。 （ユーザーの行動を強制することはほとんど不可能であるため、これはSHOULDです）。</t>
   </si>
   <si>

--- a/jpcore-r4/develop/StructureDefinition-jp-procedure.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-procedure.xlsx
@@ -469,7 +469,7 @@
     <t>これは、ビジネスプロセスによって定義され、リソース自体への直接のURL参照が適切でない場合に参照するために使用される、このProcedureに関連する識別子を記録する。</t>
   </si>
   <si>
-    <t>これはビジネス識別子であり、リソース識別子ではありません（議論参照）。識別子は1つのリソースインスタンスにのみ表示されることがベストですが、ビジネス上の慣習により、同じ識別子を持つ複数のリソースインスタンスが存在することがあるかもしれません。例えば、複数のPatientとPersonリソースインスタンスが同じ社会保険番号を共有しているかもしれない。</t>
+    <t>これはビジネス識別子であり、リソース識別子ではない（議論参照）。識別子は1つのリソースインスタンスにのみ表示されることがベストだが、ビジネス上の慣習により、同じ識別子を持つ複数のリソースインスタンスが存在することがあるかもしれない。例えば、複数のPatientとPersonリソースインスタンスが同じ社会保険番号を共有しているかもしれない。</t>
   </si>
   <si>
     <t>Allows identification of the procedure as it is known by various participating systems and in a way that remains consistent across servers.</t>
@@ -746,7 +746,7 @@
   </si>
   <si>
     <t>Very often the text is the same as a displayName of one of the codings.
-多くの場合、テキストはいずれかのコーディングのdisplayNameと同じです。</t>
+多くの場合、テキストはいずれかのコーディングのdisplayNameと同じである。</t>
   </si>
   <si>
     <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.
@@ -1042,7 +1042,7 @@
     <t>プロシジャーが作成または実行されたエンカウンター、またはこの記録の作成が緊密に関連しているエンカウンター。</t>
   </si>
   <si>
-    <t>これは通常、イベントが発生した出会いの中で行われますが、活動によっては、出会いの公式な終了前または終了後に開始されても、出会いの文脈と結びついている場合がある。</t>
+    <t>これは通常、イベントが発生した出会いの中で行われるが、活動によっては、出会いの公式な終了前または終了後に開始されても、出会いの文脈と結びついている場合がある。</t>
   </si>
   <si>
     <t>Event.context</t>
@@ -1103,7 +1103,7 @@
   </si>
   <si>
     <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
-参照は、実際のFHIRリソースへの参照である必要があり、内容に辿り着ける（解決できる）必要があります（アクセス制御、一時的な使用不可などを考慮に入れる）。解決は、URLから取得するか、リソースタイプによって該当する場合は、絶対参照を正規URLとして扱い、ローカルレジストリ/リポジトリで検索することによって行うことができる。</t>
+参照は、実際のFHIRリソースへの参照である必要があり、内容に辿り着ける（解決できる）必要がある（アクセス制御、一時的な使用不可などを考慮に入れる）。解決は、URLから取得するか、リソースタイプによって該当する場合は、絶対参照を正規URLとして扱い、ローカルレジストリ/リポジトリで検索することによって行うことができる。</t>
   </si>
   <si>
     <t>.participation[typeCode=AUT].role</t>
@@ -1181,7 +1181,7 @@
 プロシジャーへの実施者の関与のタイプを区別する。たとえば、外科医、麻酔科医、内視鏡医。</t>
   </si>
   <si>
-    <t>すべての用語の使用がこの一般的なパターンに当てはまるわけではない。場合によっては、モデルはCodeableConceptを使用せず、Codingを直接使用し、テキスト、コーディング、翻訳、要素間の関係や事前・事後の調整を管理するための独自の構造を提供するべきです。
+    <t>すべての用語の使用がこの一般的なパターンに当てはまるわけではない。場合によっては、モデルはCodeableConceptを使用せず、Codingを直接使用し、テキスト、コーディング、翻訳、要素間の関係や事前・事後の調整を管理するための独自の構造を提供するべきである。
  【JP-CORE】
 当面利用しない。</t>
   </si>
@@ -1475,7 +1475,7 @@
   <si>
     <t>For systems that do not have structured annotations, they can simply communicate a single annotation with no author or time.  This element may need to be included in narrative because of the potential for modifying information.  *Annotations SHOULD NOT* be used to communicate "modifying" information that could be computable. (This is a SHOULD because enforcing user behavior is nearly impossible).
 構造化された注釈（アノテーション）を持たないシステムの場合、作成者や時間なしで単一の注釈を簡単に伝達できる。情報を変更する可能性があるため、この要素をナラティブに含める必要がある場合がある。 
-*注釈は、計算機処理れきる「変更」情報を伝達するために使用されるべきではない*。 （ユーザーの行動を強制することはほとんど不可能であるため、これはSHOULDです）。</t>
+*注釈は、計算機処理れきる「変更」情報を伝達するために使用されるべきではない*。 （ユーザーの行動を強制することはほとんど不可能であるため、これはSHOULDとする）。</t>
   </si>
   <si>
     <t>Event.note</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-procedure.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-procedure.xlsx
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>Japan</t>
+    <t>JP</t>
   </si>
   <si>
     <t>Description</t>
@@ -259,8 +259,8 @@
 患者に対して、または患者のために実行されているか実行されたアクション。これは、手術のような身体的介入、または長期サービス、カウンセリング、催眠療法のような低侵襲性である可能性がある。</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+    <t>dom-2:リソースが別のリソースに含まれている場合、ネストされたリソースを含めてはなりません / If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidまたはmeta.lastupdatedを持たないものとします / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -285,10 +285,10 @@
     <t>Logical id of this artifact</t>
   </si>
   <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+    <t>リソースのURLで使用されるリソースの論理ID。割り当てられたら、この値は変更されません。 / The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>リソースにIDがないのは、IDが作成操作を使用してサーバーに送信されている場合です。 / The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
   </si>
   <si>
     <t>Resource.id</t>
@@ -301,16 +301,16 @@
 </t>
   </si>
   <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+    <t>リソースに関するメタデータ / Metadata about the resource</t>
+  </si>
+  <si>
+    <t>リソースに関するメタデータ。これは、インフラストラクチャによって維持されるコンテンツです。コンテンツの変更は、常にリソースのバージョンの変更に関連付けられているとは限りません。 / The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
   </si>
   <si>
     <t>Resource.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+    <t xml:space="preserve">ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
@@ -321,13 +321,13 @@
 </t>
   </si>
   <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+    <t>このコンテンツが作成されたルールのセット / A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>リソースが構築されたときに従った一連のルールへの参照。コンテンツの処理時に理解する必要があります。多くの場合、これは他のプロファイルなどとともに特別なルールを定義する実装ガイドへの参照です。 / A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>このルールセットを主張することは、コンテンツが限られた取引パートナーのセットによってのみ理解されることを制限します。これにより、本質的に長期的にデータの有用性が制限されます。ただし、既存の健康エコシステムは非常に破壊されており、一般的に計算可能な意味でデータを定義、収集、交換する準備ができていません。可能な限り、実装者や仕様ライターはこの要素の使用を避ける必要があります。多くの場合、使用する場合、URLは、これらの特別なルールを他のプロファイル、バリューセットなどとともに叙述(Narative)の一部として定義する実装ガイドへの参照です。 / Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
   </si>
   <si>
     <t>Resource.implicitRules</t>
@@ -340,19 +340,19 @@
 </t>
   </si>
   <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+    <t>リソースコンテンツの言語 / Language of the resource content</t>
+  </si>
+  <si>
+    <t>リソースが書かれている基本言語。 / The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>言語は、インデックス作成とアクセシビリティをサポートするために提供されます（通常、テキストから音声までのサービスなどのサービスが言語タグを使用します）。叙述(Narative)のHTML言語タグは、叙述(Narative)に適用されます。リソース上の言語タグを使用して、リソース内のデータから生成された他のプレゼンテーションの言語を指定できます。すべてのコンテンツが基本言語である必要はありません。リソース。言語は、叙述(Narative)に自動的に適用されると想定されるべきではありません。言語が指定されている場合、HTMLのDIV要素にも指定されている場合（XML：LangとHTML Lang属性の関係については、HTML5のルールを参照してください）。 / Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
   </si>
   <si>
     <t>preferred</t>
   </si>
   <si>
-    <t>A human language.</t>
+    <t>人間の言語。 / A human language.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/languages</t>
@@ -372,13 +372,13 @@
 </t>
   </si>
   <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+    <t>人間の解釈のためのリソースのテキスト概要 / Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>リソースの概要を含み、人間へのリソースの内容を表すために使用できる人間の読み取り可能な叙述(Narative)。叙述(Narative)はすべての構造化されたデータをエンコードする必要はありませんが、人間が叙述(Narative)を読むだけで「臨床的に安全」にするために十分な詳細を含める必要があります。リソースの定義は、臨床的安全を確保するために、叙述(Narative)で表現するコンテンツを定義する場合があります。 / A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>含まれるリソースには叙述(Narative)がありません。含まれていないリソースには叙述(Narative)が必要です。場合によっては、リソースには、追加の個別のデータがほとんどまたはまったくないテキストのみがあります（すべてのMinoccur = 1要素が満たされている限り）。これは、情報がtext blob (バイナリー ラージ オブジェクト)としてキャプチャされるレガシーシステムからのデータ、またはテキストが生またはナレーションされ、エンコードされた情報が後で追加される場合に必要になる場合があります。 / Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
   </si>
   <si>
     <t>DomainResource.text</t>
@@ -401,10 +401,10 @@
     <t>Contained, inline Resources</t>
   </si>
   <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+    <t>これらのリソースには、それらを含むリソースを除いて独立した存在はありません - 独立して特定することはできず、独自の独立したトランザクションスコープを持つこともできません。 / These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>識別が失われると、コンテンツを適切に識別できる場合は、これを行うべきではありません。含まれるリソースには、メタ要素にプロファイルとタグがある場合がありますが、セキュリティラベルはありません。 / This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
@@ -424,33 +424,34 @@
 </t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+    <t>実装で定義された追加のコンテンツ / Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>リソースの基本的な定義の一部ではない追加情報を表すために使用できます。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。 / May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>拡張機能を使用または定義する機関や管轄権に関係なく、アプリケーション、プロジェクト、または標準による拡張機能の使用に関連するスティグマはありません。拡張機能の使用は、FHIR仕様がすべての人にコアレベルのシンプルさを保持できるようにするものです。 / There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>DomainResource.extension</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:両方ではなく、拡張または値[x]が必要です / Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Procedure.modifierExtension</t>
   </si>
   <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+    <t>無視できない拡張機能 / Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>リソースの基本的な定義の一部ではなく、それを含む要素の理解および/または含有要素の子孫の理解を変更するために使用される場合があります。通常、修飾子要素は否定または資格を提供します。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義することが許可されていますが、拡張機能の定義の一部として満たされる一連の要件があります。アプリケーションの処理リソースは、修飾子拡張機能をチェックする必要があります。
+モディファイア拡張は、リソースまたはdomainResource上の要素の意味を変更してはなりません（修飾軸自体の意味を変更することはできません）。 / May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+    <t>修飾子拡張機能により、安全に無視できる大部分の拡張機能と明確に区別できるように、安全に無視できない拡張機能が可能になります。これにより、実装者が拡張の存在を禁止する必要性を排除することにより、相互運用性が促進されます。詳細については、[修飾子拡張の定義]（拡張性.html＃modifierextension）を参照してください。 / Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -463,7 +464,7 @@
 </t>
   </si>
   <si>
-    <t>External Identifiers for this procedure</t>
+    <t>この手順の外部識別子 / External Identifiers for this procedure</t>
   </si>
   <si>
     <t>これは、ビジネスプロセスによって定義され、リソース自体への直接のURL参照が適切でない場合に参照するために使用される、このProcedureに関連する識別子を記録する。</t>
@@ -472,7 +473,7 @@
     <t>これはビジネス識別子であり、リソース識別子ではない（議論参照）。識別子は1つのリソースインスタンスにのみ表示されることがベストだが、ビジネス上の慣習により、同じ識別子を持つ複数のリソースインスタンスが存在することがあるかもしれない。例えば、複数のPatientとPersonリソースインスタンスが同じ社会保険番号を共有しているかもしれない。</t>
   </si>
   <si>
-    <t>Allows identification of the procedure as it is known by various participating systems and in a way that remains consistent across servers.</t>
+    <t>さまざまな参加システムで知られており、サーバー全体で一貫性のある方法で知られている手順を識別できます。 / Allows identification of the procedure as it is known by various participating systems and in a way that remains consistent across servers.</t>
   </si>
   <si>
     <t>Event.identifier</t>
@@ -494,7 +495,7 @@
 </t>
   </si>
   <si>
-    <t>Instantiates FHIR protocol or definition</t>
+    <t>FHIRプロトコルまたは定義をインスタンス化します / Instantiates FHIR protocol or definition</t>
   </si>
   <si>
     <t>本Procedureの全部または一部を遵守するFHIR定義のプロトコル、ガイドライン、オーダーセット、その他の定義を指すURL.</t>
@@ -509,13 +510,13 @@
     <t>Procedure.instantiatesUri</t>
   </si>
   <si>
-    <t>Instantiates external protocol or definition</t>
+    <t>外部プロトコルまたは定義をインスタンス化します / Instantiates external protocol or definition</t>
   </si>
   <si>
     <t>本Procedrure全体または一部を遵守する、外部で管理されているプロトコル、ガイドライン、オーダーセット、またはその他の定義を指すURL。</t>
   </si>
   <si>
-    <t>This might be an HTML page, PDF, etc. or could just be a non-resolvable URI identifier.</t>
+    <t>これは、HTMLページ、PDFなどである可能性があるか、単に解決できないURI識別子である可能性があります。 / This might be an HTML page, PDF, etc. or could just be a non-resolvable URI identifier.</t>
   </si>
   <si>
     <t>Event.instantiatesUri</t>
@@ -560,7 +561,7 @@
 </t>
   </si>
   <si>
-    <t>Part of referenced event</t>
+    <t>参照イベントの一部 / Part of referenced event</t>
   </si>
   <si>
     <t>A larger event of which this particular procedure is a component or step.【JP仕様】https://www.hl7.org/fhir/procedure.htmlを参照</t>
@@ -582,7 +583,7 @@
     <t>Procedure.status</t>
   </si>
   <si>
-    <t>preparation | in-progress | not-done | on-hold | stopped | completed | entered-in-error | unknown</t>
+    <t>準備|進行中|not-done |オンホールド|停止|完了|エラーに入った|わからない / preparation | in-progress | not-done | on-hold | stopped | completed | entered-in-error | unknown</t>
   </si>
   <si>
     <t>プロシージャの状態を指定するコードである。一般的には、進行中または完了した状態になる。【JP仕様】http://hl7.org/fhir/us/core/STU3.1/StructureDefinition-us-core-procedure.htmlを参照</t>
@@ -597,7 +598,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>A code specifying the state of the procedure.</t>
+    <t>手順の状態を指定するコード。 / A code specifying the state of the procedure.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/event-status|4.0.1</t>
@@ -623,7 +624,7 @@
 </t>
   </si>
   <si>
-    <t>Reason for current status</t>
+    <t>現在のステータスの理由 / Reason for current status</t>
   </si>
   <si>
     <t>プロシージャの現在の状態の理由を設定する。</t>
@@ -648,7 +649,7 @@
     <t>Procedure.category</t>
   </si>
   <si>
-    <t>Classification of the procedure</t>
+    <t>手順の分類 / Classification of the procedure</t>
   </si>
   <si>
     <t>検索、ソート、表示のためにProcedureを分類したコード（例：「外科的Procedure」）。</t>
@@ -658,7 +659,7 @@
 【JPーCORE】JP_Conditionに合わせて必須。</t>
   </si>
   <si>
-    <t>A code that classifies a procedure for searching, sorting and display purposes.</t>
+    <t>検索、並べ替え、表示の手順を分類するコード。 / A code that classifies a procedure for searching, sorting and display purposes.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/procedure-category</t>
@@ -673,10 +674,10 @@
     <t>Procedure.category.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+    <t>要素間参照のための一意のID / Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>リソース内の要素の一意のID（内部参照用）。これは、スペースを含まない文字列値である場合があります。 / Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
   </si>
   <si>
     <t>Element.id</t>
@@ -688,7 +689,7 @@
     <t>Procedure.category.extension</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>要素の基本的な定義の一部ではない追加情報を表すために使用できます。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。 / May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
@@ -723,7 +724,7 @@
 一般に、コーディング値の多くても1つだけが　UserSelected = true　としてラベル付けされる。</t>
   </si>
   <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+    <t>コードシステム内の代替エンコーディング、および他のコードシステムへの翻訳が可能になります。 / Allows for alternative encodings within a code system, and translations to other code systems.</t>
   </si>
   <si>
     <t>CodeableConcept.coding</t>
@@ -778,7 +779,7 @@
     <t>すべての用語の使用がこの一般的なパターンに当てはまるわけではない。場合によっては、モデルはCodeableConceptを使用せず、Codingを直接使用し、テキスト、コーディング、翻訳、要素間の関係や事前・事後の調整を管理するための独自の構造を提供すべきである。</t>
   </si>
   <si>
-    <t>0..1 to account for primarily narrative only resources.</t>
+    <t>0..1主に叙述(Narative)のみのリソースを説明する。 / 0..1 to account for primarily narrative only resources.</t>
   </si>
   <si>
     <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureCodesMedical_VS</t>
@@ -805,13 +806,13 @@
     <t>Procedure.code.coding</t>
   </si>
   <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+    <t>用語システムによって定義されたコード / Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>用語システムによって定義されたコードへの参照。 / A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>コードは、列挙されたCTなどの非常に正式な定義まで、列挙またはコードリストで非常にさりげなく定義される場合があります。詳細については、HL7 V3コアプリンシップを参照してください。コーディングの順序付けは未定義であり、意味を推測するために使用されません。一般に、せいぜい、コーディング値の1つのみがuserselected = trueとしてラベル付けされます。 / Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
   </si>
   <si>
     <t xml:space="preserve">value:system}
@@ -830,16 +831,16 @@
     <t>Procedure.code.coding.system</t>
   </si>
   <si>
-    <t>Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+    <t>用語システムのアイデンティティ / Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>コード内のシンボルの意味を定義するコードシステムの識別。 / The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>uriは、oid（urn：oid：...）またはuuid（urn：uuid：...）である場合があります。OIDとUUIDは、HL7 OIDレジストリへの参照となります。それ以外の場合、URIは、FHIRの特別なURIを定義したHL7のリストから来るか、システムを明確かつ明確に確立する定義を参照する必要があります。 / The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>シンボルの定義のソースについて明確である必要があります。 / Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
     <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_ProcedureCodesMedical_CS</t>
@@ -857,13 +858,13 @@
     <t>Procedure.code.coding.version</t>
   </si>
   <si>
-    <t>Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+    <t>システムのバージョン - 関連する場合 / Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>このコードを選択するときに使用されたコードシステムのバージョン。コードの意味がバージョン全体で一貫しているため、適切にメンテナンスしたコードシステムでは報告されたバージョンを必要としないことに注意してください。ただし、これは一貫して保証することはできず、意味が一貫していることが保証されていない場合、バージョンを交換する必要があります。 / The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>用語がコードシステムバージョンを識別するために使用する文字列を明確に定義していない場合、推奨は、そのバージョンがバージョンの日付として公式に公開された日付（FHIR日付形式で表現）を使用することです。 / Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
   </si>
   <si>
     <t>Coding.version</t>
@@ -878,13 +879,13 @@
     <t>Procedure.code.coding.code</t>
   </si>
   <si>
-    <t>Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>Need to refer to a particular code in the system.</t>
+    <t>システムによって定義された構文のシンボル / Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>システムによって定義された構文のシンボル。シンボルは、定義されたコードまたはコーディングシステムによって定義された構文の式（例：調整後）である場合があります。 / A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>システム内の特定のコードを参照する必要があります。 / Need to refer to a particular code in the system.</t>
   </si>
   <si>
     <t>Coding.code</t>
@@ -899,13 +900,13 @@
     <t>Procedure.code.coding.display</t>
   </si>
   <si>
-    <t>Representation defined by the system</t>
-  </si>
-  <si>
-    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+    <t>システムによって定義された表現 / Representation defined by the system</t>
+  </si>
+  <si>
+    <t>システムのルールに従って、システム内のコードの意味の表現。 / A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>システムを知らない読者のために、コードの人間の読み取り可能な意味を持ち込むことができる必要があります。 / Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
   </si>
   <si>
     <t>Coding.display</t>
@@ -924,16 +925,16 @@
 </t>
   </si>
   <si>
-    <t>If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+    <t>このコーディングがユーザーによって直接選択された場合 / If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>このコーディングがユーザーによって直接選択されたことを示します。利用可能なアイテムのピックリスト（コードまたはディスプレイ）。 / Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>一連の代替案の中で、直接選択されたコードが新しい翻訳の最も適切な出発点です。この要素の使用とその結果をより完全に明確にするためには、「直接選択された」ことについては曖昧さがあり、取引パートナー契約が必要になる場合があります。 / Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>これは、臨床安全基準として特定されています - この正確なシステム/コードペアは、いくつかのルールまたは言語処理に基づいてシステムによって推測されるのではなく、明示的に選択されたことです。 / This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
   </si>
   <si>
     <t>Coding.userSelected</t>
@@ -984,16 +985,16 @@
     <t>Procedure.code.text</t>
   </si>
   <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+    <t>コンセプトの単純なテキスト表現 / Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>データを入力したユーザー、および/またはユーザーの意図された意味を表すユーザーによって見られる/選択/発言された概念の人間の言語表現。 / A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>多くの場合、テキストはコーディングの1つの表示名と同じです。 / Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>用語からのコードは、それらを使用する人間のすべてのニュアンスを使用して、常に正しい意味をキャプチャするとは限りません。または、適切なコードがまったくない場合があります。これらの場合、テキストはソースの完全な意味をキャプチャするために使用されます。 / The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
   </si>
   <si>
     <t>Procedure.subject</t>
@@ -1161,10 +1162,11 @@
 user contentmodifiers</t>
   </si>
   <si>
-    <t>Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+    <t>認識されていなくても無視できない拡張機能 / Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>要素の基本的な定義の一部ではなく、それが含まれている要素の理解、および/または含まれる要素の子孫の理解を変更するために使用される場合があります。通常、修飾子要素は否定または資格を提供します。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。アプリケーションの処理リソースは、修飾子拡張機能をチェックする必要があります。
+モディファイア拡張は、リソースまたはdomainResource上の要素の意味を変更してはなりません（修飾軸自体の意味を変更することはできません）。 / May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
@@ -1174,7 +1176,7 @@
     <t>Procedure.performer.function</t>
   </si>
   <si>
-    <t>Type of performance</t>
+    <t>パフォーマンスの種類 / Type of performance</t>
   </si>
   <si>
     <t>Distinguishes the type of involvement of the performer in the procedure. For example, surgeon, anaesthetist, endoscopist.
@@ -1186,7 +1188,7 @@
 当面利用しない。</t>
   </si>
   <si>
-    <t>Allows disambiguation of the types of involvement of different performers.</t>
+    <t>さまざまなパフォーマーの関与の種類の曖昧性を乱すことができます。 / Allows disambiguation of the types of involvement of different performers.</t>
   </si>
   <si>
     <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedurePerformerRoleCodes_VS</t>
@@ -1218,7 +1220,7 @@
     <t>参照は、実際のFHIRリソースへの参照であり、解決可能でなければならない（アクセス制御、一時的な利用不可などを可能にする）。解決には、URLからの検索、またはリソースタイプによって適用可能な場合は、絶対参照を正規のURLとして扱い、ローカルレジストリ/リポジトリで検索することができる。</t>
   </si>
   <si>
-    <t>A reference to Device supports use cases, such as pacemakers.</t>
+    <t>デバイスへの参照は、ペースメーカーなどのユースケースをサポートします。 / A reference to Device supports use cases, such as pacemakers.</t>
   </si>
   <si>
     <t>Event.performer.actor</t>
@@ -1250,7 +1252,7 @@
     <t>参照は、実際のFHIRリソースへの参照であり、解決可能でなければならない（アクセス制御、一時的な利用不能などを可能にする）。解決には、URLからの検索によるものと、リソースタイプによって該当する場合は、絶対参照を正規のURLとして扱い、ローカルレジストリ/リポジトリで検索するものがある。</t>
   </si>
   <si>
-    <t>Practitioners and Devices can be associated with multiple organizations.  This element indicates which organization they were acting on behalf of when performing the action.</t>
+    <t>開業医とデバイスは、複数の組織に関連付けられています。この要素は、アクションを実行する際にどの組織が行動していたかを示します。 / Practitioners and Devices can be associated with multiple organizations.  This element indicates which organization they were acting on behalf of when performing the action.</t>
   </si>
   <si>
     <t>.scoper</t>
@@ -1270,7 +1272,7 @@
 例：自宅での出生、レストランで気管切開など。</t>
   </si>
   <si>
-    <t>Ties a procedure to where the records are likely kept.</t>
+    <t>記録が保持される可能性が高い場所に手順を結びます。 / Ties a procedure to where the records are likely kept.</t>
   </si>
   <si>
     <t>.participation[typeCode=LOC].role[classCode=SDLOC]</t>
@@ -1370,7 +1372,7 @@
 結果に叙述的記述トのみが含まれている場合は、CodeableConcept.textを使用してその情報を格納できる。</t>
   </si>
   <si>
-    <t>An outcome of a procedure - whether it was resolved or otherwise.</t>
+    <t>手順の結果 - それが解決されたのかどうか。 / An outcome of a procedure - whether it was resolved or otherwise.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/procedure-outcome</t>
@@ -1512,7 +1514,7 @@
     <t>Procedure.focalDevice.action</t>
   </si>
   <si>
-    <t>Kind of change to device</t>
+    <t>デバイスへの変更の種類 / Kind of change to device</t>
   </si>
   <si>
     <t>Procedure中にデバイスに起こった変化の種類。【JP仕様】https://www.hl7.org/fhir/procedure.htmlを参照</t>
@@ -1531,7 +1533,7 @@
 </t>
   </si>
   <si>
-    <t>Device that was changed</t>
+    <t>変更されたデバイス / Device that was changed</t>
   </si>
   <si>
     <t>Procedure中に操作（変更）されたデバイス。【JP仕様】https://www.hl7.org/fhir/procedure.htmlを参照</t>
@@ -1558,7 +1560,7 @@
 実際に埋め込まれた、または取り外されたデバイスについては、Procedure.deviceを使用すること。</t>
   </si>
   <si>
-    <t>Used for tracking contamination, etc.</t>
+    <t>汚染などの追跡に使用されます。 / Used for tracking contamination, etc.</t>
   </si>
   <si>
     <t>.participation[typeCode=DEV].role[classCode=MANU] or
@@ -1908,7 +1910,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="89.875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="134.51171875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1921,7 +1923,7 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="73.0546875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="99.04296875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="70.4296875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/develop/StructureDefinition-jp-procedure.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-procedure.xlsx
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>JP</t>
+    <t>Japan</t>
   </si>
   <si>
     <t>Description</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-procedure.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-procedure.xlsx
@@ -259,8 +259,8 @@
 患者に対して、または患者のために実行されているか実行されたアクション。これは、手術のような身体的介入、または長期サービス、カウンセリング、催眠療法のような低侵襲性である可能性がある。</t>
   </si>
   <si>
-    <t>dom-2:リソースが別のリソースに含まれている場合、ネストされたリソースを含めてはなりません / If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidまたはmeta.lastupdatedを持たないものとします / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}</t>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -285,10 +285,10 @@
     <t>Logical id of this artifact</t>
   </si>
   <si>
-    <t>リソースのURLで使用されるリソースの論理ID。割り当てられたら、この値は変更されません。 / The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>リソースにIDがないのは、IDが作成操作を使用してサーバーに送信されている場合です。 / The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
   </si>
   <si>
     <t>Resource.id</t>
@@ -301,16 +301,16 @@
 </t>
   </si>
   <si>
-    <t>リソースに関するメタデータ / Metadata about the resource</t>
-  </si>
-  <si>
-    <t>リソースに関するメタデータ。これは、インフラストラクチャによって維持されるコンテンツです。コンテンツの変更は、常にリソースのバージョンの変更に関連付けられているとは限りません。 / The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
   </si>
   <si>
     <t>Resource.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
@@ -321,13 +321,13 @@
 </t>
   </si>
   <si>
-    <t>このコンテンツが作成されたルールのセット / A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>リソースが構築されたときに従った一連のルールへの参照。コンテンツの処理時に理解する必要があります。多くの場合、これは他のプロファイルなどとともに特別なルールを定義する実装ガイドへの参照です。 / A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>このルールセットを主張することは、コンテンツが限られた取引パートナーのセットによってのみ理解されることを制限します。これにより、本質的に長期的にデータの有用性が制限されます。ただし、既存の健康エコシステムは非常に破壊されており、一般的に計算可能な意味でデータを定義、収集、交換する準備ができていません。可能な限り、実装者や仕様ライターはこの要素の使用を避ける必要があります。多くの場合、使用する場合、URLは、これらの特別なルールを他のプロファイル、バリューセットなどとともに叙述(Narative)の一部として定義する実装ガイドへの参照です。 / Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
   </si>
   <si>
     <t>Resource.implicitRules</t>
@@ -340,19 +340,19 @@
 </t>
   </si>
   <si>
-    <t>リソースコンテンツの言語 / Language of the resource content</t>
-  </si>
-  <si>
-    <t>リソースが書かれている基本言語。 / The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>言語は、インデックス作成とアクセシビリティをサポートするために提供されます（通常、テキストから音声までのサービスなどのサービスが言語タグを使用します）。叙述(Narative)のHTML言語タグは、叙述(Narative)に適用されます。リソース上の言語タグを使用して、リソース内のデータから生成された他のプレゼンテーションの言語を指定できます。すべてのコンテンツが基本言語である必要はありません。リソース。言語は、叙述(Narative)に自動的に適用されると想定されるべきではありません。言語が指定されている場合、HTMLのDIV要素にも指定されている場合（XML：LangとHTML Lang属性の関係については、HTML5のルールを参照してください）。 / Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
   </si>
   <si>
     <t>preferred</t>
   </si>
   <si>
-    <t>人間の言語。 / A human language.</t>
+    <t>A human language.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/languages</t>
@@ -372,13 +372,13 @@
 </t>
   </si>
   <si>
-    <t>人間の解釈のためのリソースのテキスト概要 / Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>リソースの概要を含み、人間へのリソースの内容を表すために使用できる人間の読み取り可能な叙述(Narative)。叙述(Narative)はすべての構造化されたデータをエンコードする必要はありませんが、人間が叙述(Narative)を読むだけで「臨床的に安全」にするために十分な詳細を含める必要があります。リソースの定義は、臨床的安全を確保するために、叙述(Narative)で表現するコンテンツを定義する場合があります。 / A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>含まれるリソースには叙述(Narative)がありません。含まれていないリソースには叙述(Narative)が必要です。場合によっては、リソースには、追加の個別のデータがほとんどまたはまったくないテキストのみがあります（すべてのMinoccur = 1要素が満たされている限り）。これは、情報がtext blob (バイナリー ラージ オブジェクト)としてキャプチャされるレガシーシステムからのデータ、またはテキストが生またはナレーションされ、エンコードされた情報が後で追加される場合に必要になる場合があります。 / Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
   </si>
   <si>
     <t>DomainResource.text</t>
@@ -401,10 +401,10 @@
     <t>Contained, inline Resources</t>
   </si>
   <si>
-    <t>これらのリソースには、それらを含むリソースを除いて独立した存在はありません - 独立して特定することはできず、独自の独立したトランザクションスコープを持つこともできません。 / These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>識別が失われると、コンテンツを適切に識別できる場合は、これを行うべきではありません。含まれるリソースには、メタ要素にプロファイルとタグがある場合がありますが、セキュリティラベルはありません。 / This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
@@ -424,34 +424,33 @@
 </t>
   </si>
   <si>
-    <t>実装で定義された追加のコンテンツ / Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>リソースの基本的な定義の一部ではない追加情報を表すために使用できます。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。 / May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>拡張機能を使用または定義する機関や管轄権に関係なく、アプリケーション、プロジェクト、または標準による拡張機能の使用に関連するスティグマはありません。拡張機能の使用は、FHIR仕様がすべての人にコアレベルのシンプルさを保持できるようにするものです。 / There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>DomainResource.extension</t>
   </si>
   <si>
-    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:両方ではなく、拡張または値[x]が必要です / Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Procedure.modifierExtension</t>
   </si>
   <si>
-    <t>無視できない拡張機能 / Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>リソースの基本的な定義の一部ではなく、それを含む要素の理解および/または含有要素の子孫の理解を変更するために使用される場合があります。通常、修飾子要素は否定または資格を提供します。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義することが許可されていますが、拡張機能の定義の一部として満たされる一連の要件があります。アプリケーションの処理リソースは、修飾子拡張機能をチェックする必要があります。
-モディファイア拡張は、リソースまたはdomainResource上の要素の意味を変更してはなりません（修飾軸自体の意味を変更することはできません）。 / May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>修飾子拡張機能により、安全に無視できる大部分の拡張機能と明確に区別できるように、安全に無視できない拡張機能が可能になります。これにより、実装者が拡張の存在を禁止する必要性を排除することにより、相互運用性が促進されます。詳細については、[修飾子拡張の定義]（拡張性.html＃modifierextension）を参照してください。 / Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -464,7 +463,7 @@
 </t>
   </si>
   <si>
-    <t>この手順の外部識別子 / External Identifiers for this procedure</t>
+    <t>External Identifiers for this procedure</t>
   </si>
   <si>
     <t>これは、ビジネスプロセスによって定義され、リソース自体への直接のURL参照が適切でない場合に参照するために使用される、このProcedureに関連する識別子を記録する。</t>
@@ -473,7 +472,7 @@
     <t>これはビジネス識別子であり、リソース識別子ではない（議論参照）。識別子は1つのリソースインスタンスにのみ表示されることがベストだが、ビジネス上の慣習により、同じ識別子を持つ複数のリソースインスタンスが存在することがあるかもしれない。例えば、複数のPatientとPersonリソースインスタンスが同じ社会保険番号を共有しているかもしれない。</t>
   </si>
   <si>
-    <t>さまざまな参加システムで知られており、サーバー全体で一貫性のある方法で知られている手順を識別できます。 / Allows identification of the procedure as it is known by various participating systems and in a way that remains consistent across servers.</t>
+    <t>Allows identification of the procedure as it is known by various participating systems and in a way that remains consistent across servers.</t>
   </si>
   <si>
     <t>Event.identifier</t>
@@ -495,7 +494,7 @@
 </t>
   </si>
   <si>
-    <t>FHIRプロトコルまたは定義をインスタンス化します / Instantiates FHIR protocol or definition</t>
+    <t>Instantiates FHIR protocol or definition</t>
   </si>
   <si>
     <t>本Procedureの全部または一部を遵守するFHIR定義のプロトコル、ガイドライン、オーダーセット、その他の定義を指すURL.</t>
@@ -510,13 +509,13 @@
     <t>Procedure.instantiatesUri</t>
   </si>
   <si>
-    <t>外部プロトコルまたは定義をインスタンス化します / Instantiates external protocol or definition</t>
+    <t>Instantiates external protocol or definition</t>
   </si>
   <si>
     <t>本Procedrure全体または一部を遵守する、外部で管理されているプロトコル、ガイドライン、オーダーセット、またはその他の定義を指すURL。</t>
   </si>
   <si>
-    <t>これは、HTMLページ、PDFなどである可能性があるか、単に解決できないURI識別子である可能性があります。 / This might be an HTML page, PDF, etc. or could just be a non-resolvable URI identifier.</t>
+    <t>This might be an HTML page, PDF, etc. or could just be a non-resolvable URI identifier.</t>
   </si>
   <si>
     <t>Event.instantiatesUri</t>
@@ -561,7 +560,7 @@
 </t>
   </si>
   <si>
-    <t>参照イベントの一部 / Part of referenced event</t>
+    <t>Part of referenced event</t>
   </si>
   <si>
     <t>A larger event of which this particular procedure is a component or step.【JP仕様】https://www.hl7.org/fhir/procedure.htmlを参照</t>
@@ -583,7 +582,7 @@
     <t>Procedure.status</t>
   </si>
   <si>
-    <t>準備|進行中|not-done |オンホールド|停止|完了|エラーに入った|わからない / preparation | in-progress | not-done | on-hold | stopped | completed | entered-in-error | unknown</t>
+    <t>preparation | in-progress | not-done | on-hold | stopped | completed | entered-in-error | unknown</t>
   </si>
   <si>
     <t>プロシージャの状態を指定するコードである。一般的には、進行中または完了した状態になる。【JP仕様】http://hl7.org/fhir/us/core/STU3.1/StructureDefinition-us-core-procedure.htmlを参照</t>
@@ -598,7 +597,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>手順の状態を指定するコード。 / A code specifying the state of the procedure.</t>
+    <t>A code specifying the state of the procedure.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/event-status|4.0.1</t>
@@ -624,7 +623,7 @@
 </t>
   </si>
   <si>
-    <t>現在のステータスの理由 / Reason for current status</t>
+    <t>Reason for current status</t>
   </si>
   <si>
     <t>プロシージャの現在の状態の理由を設定する。</t>
@@ -649,7 +648,7 @@
     <t>Procedure.category</t>
   </si>
   <si>
-    <t>手順の分類 / Classification of the procedure</t>
+    <t>Classification of the procedure</t>
   </si>
   <si>
     <t>検索、ソート、表示のためにProcedureを分類したコード（例：「外科的Procedure」）。</t>
@@ -659,7 +658,7 @@
 【JPーCORE】JP_Conditionに合わせて必須。</t>
   </si>
   <si>
-    <t>検索、並べ替え、表示の手順を分類するコード。 / A code that classifies a procedure for searching, sorting and display purposes.</t>
+    <t>A code that classifies a procedure for searching, sorting and display purposes.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/procedure-category</t>
@@ -674,10 +673,10 @@
     <t>Procedure.category.id</t>
   </si>
   <si>
-    <t>要素間参照のための一意のID / Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>リソース内の要素の一意のID（内部参照用）。これは、スペースを含まない文字列値である場合があります。 / Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
   </si>
   <si>
     <t>Element.id</t>
@@ -689,7 +688,7 @@
     <t>Procedure.category.extension</t>
   </si>
   <si>
-    <t>要素の基本的な定義の一部ではない追加情報を表すために使用できます。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。 / May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
@@ -724,7 +723,7 @@
 一般に、コーディング値の多くても1つだけが　UserSelected = true　としてラベル付けされる。</t>
   </si>
   <si>
-    <t>コードシステム内の代替エンコーディング、および他のコードシステムへの翻訳が可能になります。 / Allows for alternative encodings within a code system, and translations to other code systems.</t>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
   </si>
   <si>
     <t>CodeableConcept.coding</t>
@@ -779,7 +778,7 @@
     <t>すべての用語の使用がこの一般的なパターンに当てはまるわけではない。場合によっては、モデルはCodeableConceptを使用せず、Codingを直接使用し、テキスト、コーディング、翻訳、要素間の関係や事前・事後の調整を管理するための独自の構造を提供すべきである。</t>
   </si>
   <si>
-    <t>0..1主に叙述(Narative)のみのリソースを説明する。 / 0..1 to account for primarily narrative only resources.</t>
+    <t>0..1 to account for primarily narrative only resources.</t>
   </si>
   <si>
     <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureCodesMedical_VS</t>
@@ -806,13 +805,13 @@
     <t>Procedure.code.coding</t>
   </si>
   <si>
-    <t>用語システムによって定義されたコード / Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>用語システムによって定義されたコードへの参照。 / A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>コードは、列挙されたCTなどの非常に正式な定義まで、列挙またはコードリストで非常にさりげなく定義される場合があります。詳細については、HL7 V3コアプリンシップを参照してください。コーディングの順序付けは未定義であり、意味を推測するために使用されません。一般に、せいぜい、コーディング値の1つのみがuserselected = trueとしてラベル付けされます。 / Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
   </si>
   <si>
     <t xml:space="preserve">value:system}
@@ -831,16 +830,16 @@
     <t>Procedure.code.coding.system</t>
   </si>
   <si>
-    <t>用語システムのアイデンティティ / Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>コード内のシンボルの意味を定義するコードシステムの識別。 / The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>uriは、oid（urn：oid：...）またはuuid（urn：uuid：...）である場合があります。OIDとUUIDは、HL7 OIDレジストリへの参照となります。それ以外の場合、URIは、FHIRの特別なURIを定義したHL7のリストから来るか、システムを明確かつ明確に確立する定義を参照する必要があります。 / The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>シンボルの定義のソースについて明確である必要があります。 / Need to be unambiguous about the source of the definition of the symbol.</t>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
     <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_ProcedureCodesMedical_CS</t>
@@ -858,13 +857,13 @@
     <t>Procedure.code.coding.version</t>
   </si>
   <si>
-    <t>システムのバージョン - 関連する場合 / Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>このコードを選択するときに使用されたコードシステムのバージョン。コードの意味がバージョン全体で一貫しているため、適切にメンテナンスしたコードシステムでは報告されたバージョンを必要としないことに注意してください。ただし、これは一貫して保証することはできず、意味が一貫していることが保証されていない場合、バージョンを交換する必要があります。 / The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>用語がコードシステムバージョンを識別するために使用する文字列を明確に定義していない場合、推奨は、そのバージョンがバージョンの日付として公式に公開された日付（FHIR日付形式で表現）を使用することです。 / Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
   </si>
   <si>
     <t>Coding.version</t>
@@ -879,13 +878,13 @@
     <t>Procedure.code.coding.code</t>
   </si>
   <si>
-    <t>システムによって定義された構文のシンボル / Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>システムによって定義された構文のシンボル。シンボルは、定義されたコードまたはコーディングシステムによって定義された構文の式（例：調整後）である場合があります。 / A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>システム内の特定のコードを参照する必要があります。 / Need to refer to a particular code in the system.</t>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
   </si>
   <si>
     <t>Coding.code</t>
@@ -900,13 +899,13 @@
     <t>Procedure.code.coding.display</t>
   </si>
   <si>
-    <t>システムによって定義された表現 / Representation defined by the system</t>
-  </si>
-  <si>
-    <t>システムのルールに従って、システム内のコードの意味の表現。 / A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>システムを知らない読者のために、コードの人間の読み取り可能な意味を持ち込むことができる必要があります。 / Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
   </si>
   <si>
     <t>Coding.display</t>
@@ -925,16 +924,16 @@
 </t>
   </si>
   <si>
-    <t>このコーディングがユーザーによって直接選択された場合 / If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>このコーディングがユーザーによって直接選択されたことを示します。利用可能なアイテムのピックリスト（コードまたはディスプレイ）。 / Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>一連の代替案の中で、直接選択されたコードが新しい翻訳の最も適切な出発点です。この要素の使用とその結果をより完全に明確にするためには、「直接選択された」ことについては曖昧さがあり、取引パートナー契約が必要になる場合があります。 / Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>これは、臨床安全基準として特定されています - この正確なシステム/コードペアは、いくつかのルールまたは言語処理に基づいてシステムによって推測されるのではなく、明示的に選択されたことです。 / This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
   </si>
   <si>
     <t>Coding.userSelected</t>
@@ -985,16 +984,16 @@
     <t>Procedure.code.text</t>
   </si>
   <si>
-    <t>コンセプトの単純なテキスト表現 / Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>データを入力したユーザー、および/またはユーザーの意図された意味を表すユーザーによって見られる/選択/発言された概念の人間の言語表現。 / A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>多くの場合、テキストはコーディングの1つの表示名と同じです。 / Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>用語からのコードは、それらを使用する人間のすべてのニュアンスを使用して、常に正しい意味をキャプチャするとは限りません。または、適切なコードがまったくない場合があります。これらの場合、テキストはソースの完全な意味をキャプチャするために使用されます。 / The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
   </si>
   <si>
     <t>Procedure.subject</t>
@@ -1162,11 +1161,10 @@
 user contentmodifiers</t>
   </si>
   <si>
-    <t>認識されていなくても無視できない拡張機能 / Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>要素の基本的な定義の一部ではなく、それが含まれている要素の理解、および/または含まれる要素の子孫の理解を変更するために使用される場合があります。通常、修飾子要素は否定または資格を提供します。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。アプリケーションの処理リソースは、修飾子拡張機能をチェックする必要があります。
-モディファイア拡張は、リソースまたはdomainResource上の要素の意味を変更してはなりません（修飾軸自体の意味を変更することはできません）。 / May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+    <t>Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
@@ -1176,7 +1174,7 @@
     <t>Procedure.performer.function</t>
   </si>
   <si>
-    <t>パフォーマンスの種類 / Type of performance</t>
+    <t>Type of performance</t>
   </si>
   <si>
     <t>Distinguishes the type of involvement of the performer in the procedure. For example, surgeon, anaesthetist, endoscopist.
@@ -1188,7 +1186,7 @@
 当面利用しない。</t>
   </si>
   <si>
-    <t>さまざまなパフォーマーの関与の種類の曖昧性を乱すことができます。 / Allows disambiguation of the types of involvement of different performers.</t>
+    <t>Allows disambiguation of the types of involvement of different performers.</t>
   </si>
   <si>
     <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedurePerformerRoleCodes_VS</t>
@@ -1220,7 +1218,7 @@
     <t>参照は、実際のFHIRリソースへの参照であり、解決可能でなければならない（アクセス制御、一時的な利用不可などを可能にする）。解決には、URLからの検索、またはリソースタイプによって適用可能な場合は、絶対参照を正規のURLとして扱い、ローカルレジストリ/リポジトリで検索することができる。</t>
   </si>
   <si>
-    <t>デバイスへの参照は、ペースメーカーなどのユースケースをサポートします。 / A reference to Device supports use cases, such as pacemakers.</t>
+    <t>A reference to Device supports use cases, such as pacemakers.</t>
   </si>
   <si>
     <t>Event.performer.actor</t>
@@ -1252,7 +1250,7 @@
     <t>参照は、実際のFHIRリソースへの参照であり、解決可能でなければならない（アクセス制御、一時的な利用不能などを可能にする）。解決には、URLからの検索によるものと、リソースタイプによって該当する場合は、絶対参照を正規のURLとして扱い、ローカルレジストリ/リポジトリで検索するものがある。</t>
   </si>
   <si>
-    <t>開業医とデバイスは、複数の組織に関連付けられています。この要素は、アクションを実行する際にどの組織が行動していたかを示します。 / Practitioners and Devices can be associated with multiple organizations.  This element indicates which organization they were acting on behalf of when performing the action.</t>
+    <t>Practitioners and Devices can be associated with multiple organizations.  This element indicates which organization they were acting on behalf of when performing the action.</t>
   </si>
   <si>
     <t>.scoper</t>
@@ -1272,7 +1270,7 @@
 例：自宅での出生、レストランで気管切開など。</t>
   </si>
   <si>
-    <t>記録が保持される可能性が高い場所に手順を結びます。 / Ties a procedure to where the records are likely kept.</t>
+    <t>Ties a procedure to where the records are likely kept.</t>
   </si>
   <si>
     <t>.participation[typeCode=LOC].role[classCode=SDLOC]</t>
@@ -1372,7 +1370,7 @@
 結果に叙述的記述トのみが含まれている場合は、CodeableConcept.textを使用してその情報を格納できる。</t>
   </si>
   <si>
-    <t>手順の結果 - それが解決されたのかどうか。 / An outcome of a procedure - whether it was resolved or otherwise.</t>
+    <t>An outcome of a procedure - whether it was resolved or otherwise.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/procedure-outcome</t>
@@ -1514,7 +1512,7 @@
     <t>Procedure.focalDevice.action</t>
   </si>
   <si>
-    <t>デバイスへの変更の種類 / Kind of change to device</t>
+    <t>Kind of change to device</t>
   </si>
   <si>
     <t>Procedure中にデバイスに起こった変化の種類。【JP仕様】https://www.hl7.org/fhir/procedure.htmlを参照</t>
@@ -1533,7 +1531,7 @@
 </t>
   </si>
   <si>
-    <t>変更されたデバイス / Device that was changed</t>
+    <t>Device that was changed</t>
   </si>
   <si>
     <t>Procedure中に操作（変更）されたデバイス。【JP仕様】https://www.hl7.org/fhir/procedure.htmlを参照</t>
@@ -1560,7 +1558,7 @@
 実際に埋め込まれた、または取り外されたデバイスについては、Procedure.deviceを使用すること。</t>
   </si>
   <si>
-    <t>汚染などの追跡に使用されます。 / Used for tracking contamination, etc.</t>
+    <t>Used for tracking contamination, etc.</t>
   </si>
   <si>
     <t>.participation[typeCode=DEV].role[classCode=MANU] or
@@ -1910,7 +1908,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="134.51171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="89.875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1923,7 +1921,7 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="99.04296875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="73.0546875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="70.4296875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/develop/StructureDefinition-jp-procedure.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-procedure.xlsx
@@ -1061,7 +1061,7 @@
   </si>
   <si>
     <t>dateTime
-Period</t>
+PeriodstringAgeRange</t>
   </si>
   <si>
     <t>When the procedure was performed　プロシジャーが実施された時期</t>
@@ -9634,7 +9634,7 @@
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F70" t="s" s="2">
         <v>85</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-procedure.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-procedure.xlsx
@@ -497,7 +497,7 @@
     <t>Instantiates FHIR protocol or definition</t>
   </si>
   <si>
-    <t>本Procedureの全部または一部を遵守するFHIR定義のプロトコル、ガイドライン、オーダーセット、その他の定義を指すURL.</t>
+    <t>本Procedureの全部または一部を遵守するFHIR定義のプロトコル、ガイドライン、オーダーセット、その他の定義を指すURL。</t>
   </si>
   <si>
     <t>Event.instantiatesCanonical</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-procedure.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-procedure.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3441" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3298" uniqueCount="474">
   <si>
     <t>Property</t>
   </si>
@@ -532,7 +532,7 @@
 </t>
   </si>
   <si>
-    <t>A request for this procedure　このプロシージャの依頼情報</t>
+    <t>A request for this procedure このプロシージャの依頼情報</t>
   </si>
   <si>
     <t>このプロシージャの依頼情報の詳細を含むリソースへの参照。</t>
@@ -651,17 +651,10 @@
     <t>Classification of the procedure</t>
   </si>
   <si>
-    <t>検索、ソート、表示のためにProcedureを分類したコード（例：「外科的Procedure」）。</t>
-  </si>
-  <si>
-    <t>すべての用語の使用がこの一般的なパターンに当てはまるわけではない。場合によっては、モデルはCodeableConceptを使用せず、Codingを直接使用し、テキスト、コーディング、翻訳、要素間の関係や事前・事後の調整を管理するための独自の構造を提供する必要がある。 
-【JPーCORE】JP_Conditionに合わせて必須。</t>
-  </si>
-  <si>
-    <t>A code that classifies a procedure for searching, sorting and display purposes.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/procedure-category</t>
+    <t>A code that classifies the procedure for searching, sorting and display purposes (e.g. "Surgical Procedure").</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_ProcedureCategoryCodes_VS</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
@@ -670,7 +663,41 @@
     <t>FiveWs.class</t>
   </si>
   <si>
-    <t>Procedure.category.id</t>
+    <t>Procedure.code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type
+</t>
+  </si>
+  <si>
+    <t>Identification of the procedure プロシジャーの識別子</t>
+  </si>
+  <si>
+    <t>行われた具体的な手順。手技の正確な性質がコード化できない場合はテキストを使用する（例：「腹腔鏡下虫垂切除術」）</t>
+  </si>
+  <si>
+    <t>すべての用語の使用がこの一般的なパターンに当てはまるわけではない。場合によっては、モデルはCodeableConceptを使用せず、Codingを直接使用し、テキスト、コーディング、翻訳、要素間の関係や事前・事後の調整を管理するための独自の構造を提供すべきである。</t>
+  </si>
+  <si>
+    <t>0..1 to account for primarily narrative only resources.</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureCodesMedical_VS</t>
+  </si>
+  <si>
+    <t>Event.code</t>
+  </si>
+  <si>
+    <t>.code</t>
+  </si>
+  <si>
+    <t>FiveWs.what[x]</t>
+  </si>
+  <si>
+    <t>OBR-44/OBR-45</t>
+  </si>
+  <si>
+    <t>Procedure.code.id</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -685,7 +712,7 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>Procedure.category.extension</t>
+    <t>Procedure.code.extension</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
@@ -704,120 +731,38 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>Procedure.category.coding</t>
+    <t>Procedure.code.coding</t>
   </si>
   <si>
     <t xml:space="preserve">Coding
 </t>
   </si>
   <si>
-    <t>Code defined by a terminology system　ターミノロジーによって定義されたコード</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.
-ターミノロジーによって定義されたコードへの参照。</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.
-コードは、列挙型またはコードリストで、SNOMED CTなどの非常に正式な定義まで、非常に柔軟に定義できる。詳細については、HL7v3コア原則を参照。コーディングの順序は定義されておらず、意味を推測するために使用してはならない。
-一般に、コーディング値の多くても1つだけが　UserSelected = true　としてラベル付けされる。</t>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
   </si>
   <si>
     <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>Procedure.category.text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept　この概念のシンプルなテキスト記述</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.
-データを入力したユーザーによって見られた/選択された/発声された、および/またはユーザーの意図された意味を表す概念の人間の言語表現。</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.
-多くの場合、テキストはいずれかのコーディングのdisplayNameと同じである。</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.
-用語のコードは、それらを使用する人間のすべてのニュアンスで常に正しい意味を捉えているとは限らない。または、適切なコードがまったくない場合もある。このような場合、テキストはソースの完全な意味をキャプチャするために使用される。</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
-  </si>
-  <si>
-    <t>Procedure.code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type
-</t>
-  </si>
-  <si>
-    <t>Identification of the procedure　プロシジャーの識別子</t>
-  </si>
-  <si>
-    <t>行われた具体的な手順。手技の正確な性質がコード化できない場合はテキストを使用する（例：「腹腔鏡下虫垂切除術」）</t>
-  </si>
-  <si>
-    <t>すべての用語の使用がこの一般的なパターンに当てはまるわけではない。場合によっては、モデルはCodeableConceptを使用せず、Codingを直接使用し、テキスト、コーディング、翻訳、要素間の関係や事前・事後の調整を管理するための独自の構造を提供すべきである。</t>
-  </si>
-  <si>
-    <t>0..1 to account for primarily narrative only resources.</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureCodesMedical_VS</t>
-  </si>
-  <si>
-    <t>Event.code</t>
-  </si>
-  <si>
-    <t>.code</t>
-  </si>
-  <si>
-    <t>FiveWs.what[x]</t>
-  </si>
-  <si>
-    <t>OBR-44/OBR-45</t>
-  </si>
-  <si>
-    <t>Procedure.code.id</t>
-  </si>
-  <si>
-    <t>Procedure.code.extension</t>
-  </si>
-  <si>
-    <t>Procedure.code.coding</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
   </si>
   <si>
     <t xml:space="preserve">value:system}
 </t>
   </si>
   <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
     <t>medical</t>
   </si>
   <si>
@@ -996,6 +941,15 @@
     <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
   </si>
   <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
     <t>Procedure.subject</t>
   </si>
   <si>
@@ -1007,7 +961,7 @@
 </t>
   </si>
   <si>
-    <t>Who the procedure was performed on　プロシジャーが実施された対象人</t>
+    <t>Who the procedure was performed on プロシジャーが実施された対象人</t>
   </si>
   <si>
     <t>The person, animal or group on which the procedure was performed.
@@ -1036,7 +990,7 @@
 </t>
   </si>
   <si>
-    <t>Encounter created as part of　一部として作成されたエンカウンター</t>
+    <t>Encounter created as part of 一部として作成されたエンカウンター</t>
   </si>
   <si>
     <t>プロシジャーが作成または実行されたエンカウンター、またはこの記録の作成が緊密に関連しているエンカウンター。</t>
@@ -1064,7 +1018,7 @@
 PeriodstringAgeRange</t>
   </si>
   <si>
-    <t>When the procedure was performed　プロシジャーが実施された時期</t>
+    <t>When the procedure was performed プロシジャーが実施された時期</t>
   </si>
   <si>
     <t>Procedureが行われた推定または実際の日付、日時、期間、または年齢。複数の日付にまたがる複雑なProcdedureをサポートするために期間を許可し、Procdedureの長さを把握することも可能。</t>
@@ -1095,7 +1049,7 @@
 </t>
   </si>
   <si>
-    <t>Who recorded the procedure　プロシジャーを記録した人</t>
+    <t>Who recorded the procedure プロシジャーを記録した人</t>
   </si>
   <si>
     <t>Individual who recorded the record and takes responsibility for its content.
@@ -1115,7 +1069,7 @@
     <t>Procedure.asserter</t>
   </si>
   <si>
-    <t>Person who asserts this procedure　プロシジャーを実施したと報告する人</t>
+    <t>Person who asserts this procedure プロシジャーを実施したと報告する人</t>
   </si>
   <si>
     <t>Individual who is making the procedure statement.
@@ -1135,7 +1089,7 @@
 </t>
   </si>
   <si>
-    <t>The people who performed the procedure　プロシジャーを実施した人々</t>
+    <t>The people who performed the procedure プロシジャーを実施した人々</t>
   </si>
   <si>
     <t>Limited to "real" people rather than equipment.
@@ -1208,7 +1162,7 @@
 </t>
   </si>
   <si>
-    <t>The reference to the practitioner　医療従事者への参照</t>
+    <t>The reference to the practitioner 医療従事者への参照</t>
   </si>
   <si>
     <t>The practitioner who was involved in the procedure.
@@ -1240,7 +1194,7 @@
 </t>
   </si>
   <si>
-    <t>Organization the device or practitioner was acting for　従事した組織</t>
+    <t>Organization the device or practitioner was acting for 従事した組織</t>
   </si>
   <si>
     <t>The organization the device or practitioner was acting on behalf of.
@@ -1263,11 +1217,11 @@
 </t>
   </si>
   <si>
-    <t>Where the procedure happened　　プロシジャーが実施された場所</t>
+    <t>Where the procedure happened  プロシジャーが実施された場所</t>
   </si>
   <si>
     <t>プロシジャーが実施された場所。
-例：自宅での出生、レストランで気管切開など。</t>
+例:自宅での出生、レストランで気管切開など。</t>
   </si>
   <si>
     <t>Ties a procedure to where the records are likely kept.</t>
@@ -1282,7 +1236,7 @@
     <t>Procedure.reasonCode</t>
   </si>
   <si>
-    <t>Coded reason procedure performed　プロシジャーが実施された理由コード</t>
+    <t>Coded reason procedure performed プロシジャーが実施された理由コード</t>
   </si>
   <si>
     <t>処置が行われたコード化された理由。
@@ -1293,7 +1247,7 @@
 ひとつのコードが理由を十分に説明している場合は、Procedure.reasonCodeを使用する。
 リソースを参照する場合は、Procedure.reasonReferenceを使用する。これにより、開始日など、より多くの情報を伝達できる。
 Procedure.reasonCodeとProcedure.reasonReferenceは、重複することを意図したものではない。単一の理由で、Procedure.reasonCodeまたはProcedure.reasonReferenceのいずれかだけを使用できる。
- Procedure.reasonCodeは要約コードの場合もあれば、Procedure.reasonReferenceを使用して、Condition | Observation | Procedure | DiagnosticReport | DocumentReference　のいずれかにより、非常に精緻な理由の定義を参照することもできる。
+ Procedure.reasonCodeは要約コードの場合もあれば、Procedure.reasonReferenceを使用して、Condition | Observation | Procedure | DiagnosticReport | DocumentReference のいずれかにより、非常に精緻な理由の定義を参照することもできる。
 もしプロシージャの異なる理由を説明しているのであれば、Procedure.reasonCodeとProcedure.reasonReferenceの両方を使用できる。</t>
   </si>
   <si>
@@ -1316,7 +1270,7 @@
 </t>
   </si>
   <si>
-    <t>The justification that the procedure was performed　プロシジャーが実施された正当性</t>
+    <t>The justification that the procedure was performed プロシジャーが実施された正当性</t>
   </si>
   <si>
     <t>なぜそのようなPlocedureを行ったのか、その正当性を示す。</t>
@@ -1337,14 +1291,14 @@
     <t>Procedure.bodySite</t>
   </si>
   <si>
-    <t>Target body sites　対象の人体部位</t>
+    <t>Target body sites 対象の人体部位</t>
   </si>
   <si>
     <t>詳細かつ構造化された解剖学的な位置情報。複数の場所を指定することができる。例えば、1つの病変に対して複数のパンチングバイオプシーを行うことができる。</t>
   </si>
   <si>
     <t>If the use case requires attributes from the BodySite resource (e.g. to identify and track separately) then use the standard extension [procedure-targetbodystructure](extension-procedure-targetbodystructure.html).
-ユースケースでBodySiteリソースの属性が必要な場合（たとえば、個別に識別して追跡するため）、標準の拡張extension　[procedure-targetbodystructure]（extension-procedure-targetbodystructure.html）を使用する。</t>
+ユースケースでBodySiteリソースの属性が必要な場合（たとえば、個別に識別して追跡するため）、標準の拡張extension [procedure-targetbodystructure]（extension-procedure-targetbodystructure.html）を使用する。</t>
   </si>
   <si>
     <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureBodySite_VS</t>
@@ -1359,7 +1313,7 @@
     <t>Procedure.outcome</t>
   </si>
   <si>
-    <t>The result of procedure　プロシジャーの結果</t>
+    <t>The result of procedure プロシジャーの結果</t>
   </si>
   <si>
     <t>The outcome of the procedure - did it resolve the reasons for the procedure being performed?
@@ -1386,7 +1340,7 @@
 </t>
   </si>
   <si>
-    <t>Any report resulting from the procedure　プロシジャーからのなんらかの結果報告</t>
+    <t>Any report resulting from the procedure プロシジャーからのなんらかの結果報告</t>
   </si>
   <si>
     <t>This could be a histology result, pathology report, surgical report, etc.
@@ -1404,7 +1358,7 @@
     <t>Procedure.complication</t>
   </si>
   <si>
-    <t>Complication following the procedure　プロシジャーに起こった合併症</t>
+    <t>Complication following the procedure プロシジャーに起こった合併症</t>
   </si>
   <si>
     <t>Any complications that occurred during the procedure, or in the immediate post-performance period. These are generally tracked separately from the notes, which will typically describe the procedure itself rather than any 'post procedure' issues.
@@ -1428,7 +1382,7 @@
 </t>
   </si>
   <si>
-    <t>A condition that is a result of the procedure　プロシジャーの結果であるような患者状態</t>
+    <t>A condition that is a result of the procedure プロシジャーの結果であるような患者状態</t>
   </si>
   <si>
     <t>Any complications that occurred during the procedure, or in the immediate post-performance period.
@@ -1442,7 +1396,7 @@
     <t>Procedure.followUp</t>
   </si>
   <si>
-    <t>Instructions for follow up　フォローアップの指示</t>
+    <t>Instructions for follow up フォローアップの指示</t>
   </si>
   <si>
     <t>If the procedure required specific follow up - e.g. removal of sutures. The follow up may be represented as a simple note or could potentially be more complex, in which case the CarePlan resource can be used.
@@ -1466,7 +1420,7 @@
 </t>
   </si>
   <si>
-    <t>Additional information about the procedure　プロシジャーの関する追加情報</t>
+    <t>Additional information about the procedure プロシジャーの関する追加情報</t>
   </si>
   <si>
     <t>Any other notes and comments about the procedure.
@@ -1490,7 +1444,7 @@
     <t>Procedure.focalDevice</t>
   </si>
   <si>
-    <t>Manipulated, implanted, or removed device　操作、埋め込み、または削除されたデバイス</t>
+    <t>Manipulated, implanted, or removed device 操作、埋め込み、または削除されたデバイス</t>
   </si>
   <si>
     <t>A device that is implanted, removed or otherwise manipulated (calibration, battery replacement, fitting a prosthesis, attaching a wound-vac, etc.) as a focal portion of the Procedure.
@@ -1547,7 +1501,7 @@
 </t>
   </si>
   <si>
-    <t>Items used during procedure　プロシジャー中に使用されるアイテム</t>
+    <t>Items used during procedure プロシジャー中に使用されるアイテム</t>
   </si>
   <si>
     <t>Identifies medications, devices and any other substance used as part of the procedure.
@@ -1568,7 +1522,7 @@
     <t>Procedure.usedCode</t>
   </si>
   <si>
-    <t>Coded items used during the procedure　プロシジャー中に使用したアイテムのコード</t>
+    <t>Coded items used during the procedure プロシジャー中に使用したアイテムのコード</t>
   </si>
   <si>
     <t>Identifies coded items that were used as part of the procedure.
@@ -1889,7 +1843,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM97"/>
+  <dimension ref="A1:AM93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1921,7 +1875,7 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="73.0546875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="62.48828125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="70.4296875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
@@ -3840,7 +3794,7 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>85</v>
@@ -3863,9 +3817,7 @@
       <c r="L18" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="M18" t="s" s="2">
-        <v>202</v>
-      </c>
+      <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>76</v>
@@ -3892,11 +3844,9 @@
       <c r="W18" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="X18" t="s" s="2">
-        <v>203</v>
-      </c>
+      <c r="X18" s="2"/>
       <c r="Y18" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>76</v>
@@ -3932,10 +3882,10 @@
         <v>76</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>76</v>
@@ -3943,11 +3893,11 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>76</v>
+        <v>206</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -3963,19 +3913,23 @@
         <v>76</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>87</v>
+        <v>191</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
+      <c r="N19" t="s" s="2">
+        <v>210</v>
+      </c>
       <c r="O19" t="s" s="2">
         <v>76</v>
       </c>
@@ -3999,13 +3953,11 @@
         <v>76</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X19" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="X19" s="2"/>
       <c r="Y19" t="s" s="2">
-        <v>76</v>
+        <v>211</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>76</v>
@@ -4023,7 +3975,7 @@
         <v>76</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>77</v>
@@ -4035,35 +3987,35 @@
         <v>76</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>76</v>
+        <v>212</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>76</v>
+        <v>214</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>76</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>76</v>
@@ -4075,17 +4027,15 @@
         <v>76</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>132</v>
+        <v>217</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>76</v>
@@ -4122,37 +4072,37 @@
         <v>76</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>214</v>
+        <v>76</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>215</v>
+        <v>76</v>
       </c>
       <c r="AC20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>216</v>
+        <v>76</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>136</v>
+        <v>76</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>76</v>
@@ -4163,11 +4113,11 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -4183,23 +4133,21 @@
         <v>76</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>219</v>
+        <v>131</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>220</v>
+        <v>132</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>223</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>76</v>
       </c>
@@ -4235,19 +4183,19 @@
         <v>76</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>76</v>
+        <v>223</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>76</v>
+        <v>224</v>
       </c>
       <c r="AC21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>76</v>
+        <v>225</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
@@ -4259,19 +4207,19 @@
         <v>76</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>226</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22">
@@ -4287,7 +4235,7 @@
         <v>77</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>76</v>
@@ -4299,19 +4247,19 @@
         <v>86</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>87</v>
+        <v>228</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>76</v>
@@ -4348,25 +4296,23 @@
         <v>76</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="AB22" s="2"/>
       <c r="AC22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>76</v>
+        <v>225</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>76</v>
@@ -4378,26 +4324,28 @@
         <v>76</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="B23" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>237</v>
+      </c>
       <c r="C23" t="s" s="2">
-        <v>236</v>
+        <v>76</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>85</v>
@@ -4412,19 +4360,19 @@
         <v>86</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>191</v>
+        <v>228</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>76</v>
@@ -4449,11 +4397,11 @@
         <v>76</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="X23" s="2"/>
       <c r="Y23" t="s" s="2">
-        <v>241</v>
+        <v>211</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>76</v>
@@ -4471,13 +4419,13 @@
         <v>76</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>76</v>
@@ -4486,21 +4434,21 @@
         <v>97</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>242</v>
+        <v>76</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>244</v>
+        <v>76</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>245</v>
+        <v>236</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4526,10 +4474,10 @@
         <v>87</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4580,7 +4528,7 @@
         <v>76</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -4598,7 +4546,7 @@
         <v>76</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>76</v>
@@ -4609,7 +4557,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4638,7 +4586,7 @@
         <v>132</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="M25" t="s" s="2">
         <v>134</v>
@@ -4679,19 +4627,19 @@
         <v>76</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="AC25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -4709,7 +4657,7 @@
         <v>76</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>76</v>
@@ -4720,7 +4668,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4728,10 +4676,10 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>76</v>
@@ -4743,26 +4691,26 @@
         <v>86</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>219</v>
+        <v>99</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>76</v>
+        <v>245</v>
       </c>
       <c r="R26" t="s" s="2">
         <v>76</v>
@@ -4792,23 +4740,25 @@
         <v>76</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="AB26" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AC26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>216</v>
+        <v>76</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>76</v>
@@ -4820,22 +4770,20 @@
         <v>76</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>226</v>
+        <v>248</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>253</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
         <v>76</v>
       </c>
@@ -4856,20 +4804,18 @@
         <v>86</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>219</v>
+        <v>87</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>223</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>76</v>
       </c>
@@ -4893,11 +4839,13 @@
         <v>76</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="X27" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Y27" t="s" s="2">
-        <v>241</v>
+        <v>76</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>76</v>
@@ -4915,13 +4863,13 @@
         <v>76</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>224</v>
+        <v>253</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>76</v>
@@ -4933,18 +4881,18 @@
         <v>76</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>226</v>
+        <v>255</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4964,19 +4912,21 @@
         <v>76</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>208</v>
+        <v>257</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>209</v>
+        <v>258</v>
       </c>
       <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
+      <c r="N28" t="s" s="2">
+        <v>259</v>
+      </c>
       <c r="O28" t="s" s="2">
         <v>76</v>
       </c>
@@ -5024,7 +4974,7 @@
         <v>76</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -5036,35 +4986,35 @@
         <v>76</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>211</v>
+        <v>261</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>76</v>
+        <v>262</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>76</v>
@@ -5073,21 +5023,21 @@
         <v>76</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>132</v>
+        <v>264</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>265</v>
+      </c>
+      <c r="M29" s="2"/>
+      <c r="N29" t="s" s="2">
+        <v>266</v>
+      </c>
       <c r="O29" t="s" s="2">
         <v>76</v>
       </c>
@@ -5123,48 +5073,48 @@
         <v>76</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>214</v>
+        <v>76</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>215</v>
+        <v>76</v>
       </c>
       <c r="AC29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>216</v>
+        <v>76</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>217</v>
+        <v>267</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>211</v>
+        <v>268</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>76</v>
+        <v>269</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5172,7 +5122,7 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>85</v>
@@ -5187,26 +5137,26 @@
         <v>86</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>99</v>
+        <v>271</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>261</v>
+        <v>76</v>
       </c>
       <c r="R30" t="s" s="2">
         <v>76</v>
@@ -5248,7 +5198,7 @@
         <v>76</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -5266,20 +5216,22 @@
         <v>76</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>264</v>
+        <v>278</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="B31" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>279</v>
+      </c>
       <c r="C31" t="s" s="2">
         <v>76</v>
       </c>
@@ -5300,18 +5252,20 @@
         <v>86</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>87</v>
+        <v>228</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>266</v>
+        <v>229</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>267</v>
+        <v>230</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="O31" t="s" s="2">
         <v>76</v>
       </c>
@@ -5335,13 +5289,11 @@
         <v>76</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X31" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="X31" s="2"/>
       <c r="Y31" t="s" s="2">
-        <v>76</v>
+        <v>280</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>76</v>
@@ -5359,13 +5311,13 @@
         <v>76</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>269</v>
+        <v>234</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>76</v>
@@ -5377,18 +5329,18 @@
         <v>76</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>270</v>
+        <v>235</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>271</v>
+        <v>236</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>272</v>
+        <v>238</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5408,21 +5360,19 @@
         <v>76</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>273</v>
+        <v>217</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>274</v>
+        <v>218</v>
       </c>
       <c r="M32" s="2"/>
-      <c r="N32" t="s" s="2">
-        <v>275</v>
-      </c>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>76</v>
       </c>
@@ -5470,7 +5420,7 @@
         <v>76</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>276</v>
+        <v>219</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5482,35 +5432,35 @@
         <v>76</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>277</v>
+        <v>220</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>278</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>279</v>
+        <v>239</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>76</v>
@@ -5519,21 +5469,21 @@
         <v>76</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>87</v>
+        <v>131</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>280</v>
+        <v>132</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="M33" s="2"/>
-      <c r="N33" t="s" s="2">
-        <v>282</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>76</v>
       </c>
@@ -5569,48 +5519,48 @@
         <v>76</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>76</v>
+        <v>223</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>76</v>
+        <v>224</v>
       </c>
       <c r="AC33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>76</v>
+        <v>225</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>283</v>
+        <v>226</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>284</v>
+        <v>220</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>285</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>286</v>
+        <v>240</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5618,7 +5568,7 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>85</v>
@@ -5633,26 +5583,26 @@
         <v>86</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>287</v>
+        <v>99</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>288</v>
+        <v>241</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>289</v>
+        <v>242</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>290</v>
+        <v>243</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>291</v>
+        <v>244</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>76</v>
+        <v>281</v>
       </c>
       <c r="R34" t="s" s="2">
         <v>76</v>
@@ -5694,7 +5644,7 @@
         <v>76</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>292</v>
+        <v>246</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -5712,22 +5662,20 @@
         <v>76</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>293</v>
+        <v>247</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>294</v>
+        <v>248</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="B35" t="s" s="2">
-        <v>295</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
         <v>76</v>
       </c>
@@ -5748,20 +5696,18 @@
         <v>86</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>219</v>
+        <v>87</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>223</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>76</v>
       </c>
@@ -5785,11 +5731,13 @@
         <v>76</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="X35" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Y35" t="s" s="2">
-        <v>296</v>
+        <v>76</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>76</v>
@@ -5807,13 +5755,13 @@
         <v>76</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>224</v>
+        <v>253</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>76</v>
@@ -5825,18 +5773,18 @@
         <v>76</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>226</v>
+        <v>255</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5856,19 +5804,21 @@
         <v>76</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>208</v>
+        <v>257</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>209</v>
+        <v>258</v>
       </c>
       <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
+      <c r="N36" t="s" s="2">
+        <v>259</v>
+      </c>
       <c r="O36" t="s" s="2">
         <v>76</v>
       </c>
@@ -5916,7 +5866,7 @@
         <v>76</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -5928,35 +5878,35 @@
         <v>76</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>211</v>
+        <v>261</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>76</v>
+        <v>262</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>76</v>
@@ -5965,21 +5915,21 @@
         <v>76</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>132</v>
+        <v>264</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>265</v>
+      </c>
+      <c r="M37" s="2"/>
+      <c r="N37" t="s" s="2">
+        <v>266</v>
+      </c>
       <c r="O37" t="s" s="2">
         <v>76</v>
       </c>
@@ -6015,48 +5965,48 @@
         <v>76</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>214</v>
+        <v>76</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>215</v>
+        <v>76</v>
       </c>
       <c r="AC37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>216</v>
+        <v>76</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>217</v>
+        <v>267</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>211</v>
+        <v>268</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>76</v>
+        <v>269</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6064,7 +6014,7 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F38" t="s" s="2">
         <v>85</v>
@@ -6079,26 +6029,26 @@
         <v>86</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>99</v>
+        <v>271</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
-        <v>297</v>
+        <v>76</v>
       </c>
       <c r="R38" t="s" s="2">
         <v>76</v>
@@ -6140,7 +6090,7 @@
         <v>76</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6158,20 +6108,22 @@
         <v>76</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>264</v>
+        <v>278</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="B39" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>282</v>
+      </c>
       <c r="C39" t="s" s="2">
         <v>76</v>
       </c>
@@ -6192,18 +6144,20 @@
         <v>86</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>87</v>
+        <v>228</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>266</v>
+        <v>229</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>267</v>
+        <v>230</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="O39" t="s" s="2">
         <v>76</v>
       </c>
@@ -6227,13 +6181,11 @@
         <v>76</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X39" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="X39" s="2"/>
       <c r="Y39" t="s" s="2">
-        <v>76</v>
+        <v>283</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>76</v>
@@ -6251,13 +6203,13 @@
         <v>76</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>269</v>
+        <v>234</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>76</v>
@@ -6269,18 +6221,18 @@
         <v>76</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>270</v>
+        <v>235</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>271</v>
+        <v>236</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>272</v>
+        <v>238</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6300,21 +6252,19 @@
         <v>76</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>273</v>
+        <v>217</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>274</v>
+        <v>218</v>
       </c>
       <c r="M40" s="2"/>
-      <c r="N40" t="s" s="2">
-        <v>275</v>
-      </c>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>76</v>
       </c>
@@ -6362,7 +6312,7 @@
         <v>76</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>276</v>
+        <v>219</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
@@ -6374,35 +6324,35 @@
         <v>76</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>277</v>
+        <v>220</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>278</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>279</v>
+        <v>239</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>76</v>
@@ -6411,21 +6361,21 @@
         <v>76</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>87</v>
+        <v>131</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>280</v>
+        <v>132</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="M41" s="2"/>
-      <c r="N41" t="s" s="2">
-        <v>282</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>76</v>
       </c>
@@ -6461,48 +6411,48 @@
         <v>76</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>76</v>
+        <v>223</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>76</v>
+        <v>224</v>
       </c>
       <c r="AC41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>76</v>
+        <v>225</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>283</v>
+        <v>226</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>284</v>
+        <v>220</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>285</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>286</v>
+        <v>240</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6510,7 +6460,7 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F42" t="s" s="2">
         <v>85</v>
@@ -6525,26 +6475,26 @@
         <v>86</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>287</v>
+        <v>99</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>288</v>
+        <v>241</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>289</v>
+        <v>242</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>290</v>
+        <v>243</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>291</v>
+        <v>244</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
-        <v>76</v>
+        <v>284</v>
       </c>
       <c r="R42" t="s" s="2">
         <v>76</v>
@@ -6586,7 +6536,7 @@
         <v>76</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>292</v>
+        <v>246</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
@@ -6604,22 +6554,20 @@
         <v>76</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>293</v>
+        <v>247</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>294</v>
+        <v>248</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="B43" t="s" s="2">
-        <v>298</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
         <v>76</v>
       </c>
@@ -6640,20 +6588,18 @@
         <v>86</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>219</v>
+        <v>87</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>223</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>76</v>
       </c>
@@ -6677,11 +6623,13 @@
         <v>76</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="X43" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Y43" t="s" s="2">
-        <v>299</v>
+        <v>76</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>76</v>
@@ -6699,13 +6647,13 @@
         <v>76</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>224</v>
+        <v>253</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>76</v>
@@ -6717,18 +6665,18 @@
         <v>76</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>226</v>
+        <v>255</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6748,19 +6696,21 @@
         <v>76</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>208</v>
+        <v>257</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>209</v>
+        <v>258</v>
       </c>
       <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
+      <c r="N44" t="s" s="2">
+        <v>259</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>76</v>
       </c>
@@ -6808,7 +6758,7 @@
         <v>76</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
@@ -6820,35 +6770,35 @@
         <v>76</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>211</v>
+        <v>261</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>76</v>
+        <v>262</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>76</v>
@@ -6857,21 +6807,21 @@
         <v>76</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>132</v>
+        <v>264</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>265</v>
+      </c>
+      <c r="M45" s="2"/>
+      <c r="N45" t="s" s="2">
+        <v>266</v>
+      </c>
       <c r="O45" t="s" s="2">
         <v>76</v>
       </c>
@@ -6907,48 +6857,48 @@
         <v>76</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>214</v>
+        <v>76</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>215</v>
+        <v>76</v>
       </c>
       <c r="AC45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>216</v>
+        <v>76</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>217</v>
+        <v>267</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>211</v>
+        <v>268</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>76</v>
+        <v>269</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6956,7 +6906,7 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F46" t="s" s="2">
         <v>85</v>
@@ -6971,26 +6921,26 @@
         <v>86</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>99</v>
+        <v>271</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" t="s" s="2">
-        <v>300</v>
+        <v>76</v>
       </c>
       <c r="R46" t="s" s="2">
         <v>76</v>
@@ -7032,7 +6982,7 @@
         <v>76</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
@@ -7050,20 +7000,22 @@
         <v>76</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>264</v>
+        <v>278</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="B47" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>285</v>
+      </c>
       <c r="C47" t="s" s="2">
         <v>76</v>
       </c>
@@ -7084,18 +7036,20 @@
         <v>86</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>87</v>
+        <v>228</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>266</v>
+        <v>229</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>267</v>
+        <v>230</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="O47" t="s" s="2">
         <v>76</v>
       </c>
@@ -7119,13 +7073,11 @@
         <v>76</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X47" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="X47" s="2"/>
       <c r="Y47" t="s" s="2">
-        <v>76</v>
+        <v>286</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>76</v>
@@ -7143,13 +7095,13 @@
         <v>76</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>269</v>
+        <v>234</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>76</v>
@@ -7161,18 +7113,18 @@
         <v>76</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>270</v>
+        <v>235</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>271</v>
+        <v>236</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>272</v>
+        <v>238</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7192,21 +7144,19 @@
         <v>76</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>273</v>
+        <v>217</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>274</v>
+        <v>218</v>
       </c>
       <c r="M48" s="2"/>
-      <c r="N48" t="s" s="2">
-        <v>275</v>
-      </c>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>76</v>
       </c>
@@ -7254,7 +7204,7 @@
         <v>76</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>276</v>
+        <v>219</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -7266,35 +7216,35 @@
         <v>76</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>277</v>
+        <v>220</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>278</v>
+        <v>76</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>279</v>
+        <v>239</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>76</v>
@@ -7303,21 +7253,21 @@
         <v>76</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>87</v>
+        <v>131</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>280</v>
+        <v>132</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="M49" s="2"/>
-      <c r="N49" t="s" s="2">
-        <v>282</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>76</v>
       </c>
@@ -7353,48 +7303,48 @@
         <v>76</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>76</v>
+        <v>223</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>76</v>
+        <v>224</v>
       </c>
       <c r="AC49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>76</v>
+        <v>225</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>283</v>
+        <v>226</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>284</v>
+        <v>220</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>285</v>
+        <v>76</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>286</v>
+        <v>240</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7402,7 +7352,7 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F50" t="s" s="2">
         <v>85</v>
@@ -7417,26 +7367,26 @@
         <v>86</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>287</v>
+        <v>99</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>288</v>
+        <v>241</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>289</v>
+        <v>242</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>290</v>
+        <v>243</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>291</v>
+        <v>244</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
-        <v>76</v>
+        <v>287</v>
       </c>
       <c r="R50" t="s" s="2">
         <v>76</v>
@@ -7478,7 +7428,7 @@
         <v>76</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>292</v>
+        <v>246</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -7496,22 +7446,20 @@
         <v>76</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>293</v>
+        <v>247</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>294</v>
+        <v>248</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="B51" t="s" s="2">
-        <v>301</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
         <v>76</v>
       </c>
@@ -7532,20 +7480,18 @@
         <v>86</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>219</v>
+        <v>87</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>223</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>76</v>
       </c>
@@ -7569,11 +7515,13 @@
         <v>76</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="X51" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Y51" t="s" s="2">
-        <v>302</v>
+        <v>76</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>76</v>
@@ -7591,13 +7539,13 @@
         <v>76</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>224</v>
+        <v>253</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>76</v>
@@ -7609,18 +7557,18 @@
         <v>76</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>226</v>
+        <v>255</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7640,19 +7588,21 @@
         <v>76</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>208</v>
+        <v>257</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>209</v>
+        <v>258</v>
       </c>
       <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
+      <c r="N52" t="s" s="2">
+        <v>259</v>
+      </c>
       <c r="O52" t="s" s="2">
         <v>76</v>
       </c>
@@ -7700,7 +7650,7 @@
         <v>76</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -7712,35 +7662,35 @@
         <v>76</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>211</v>
+        <v>261</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>76</v>
+        <v>262</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>76</v>
@@ -7749,21 +7699,21 @@
         <v>76</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>132</v>
+        <v>264</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>265</v>
+      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" t="s" s="2">
+        <v>266</v>
+      </c>
       <c r="O53" t="s" s="2">
         <v>76</v>
       </c>
@@ -7799,48 +7749,48 @@
         <v>76</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>214</v>
+        <v>76</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>215</v>
+        <v>76</v>
       </c>
       <c r="AC53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>216</v>
+        <v>76</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>217</v>
+        <v>267</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>211</v>
+        <v>268</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>76</v>
+        <v>269</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7848,7 +7798,7 @@
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F54" t="s" s="2">
         <v>85</v>
@@ -7863,26 +7813,26 @@
         <v>86</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>99</v>
+        <v>271</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P54" s="2"/>
       <c r="Q54" t="s" s="2">
-        <v>303</v>
+        <v>76</v>
       </c>
       <c r="R54" t="s" s="2">
         <v>76</v>
@@ -7924,7 +7874,7 @@
         <v>76</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -7942,20 +7892,22 @@
         <v>76</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>264</v>
+        <v>278</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="B55" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>288</v>
+      </c>
       <c r="C55" t="s" s="2">
         <v>76</v>
       </c>
@@ -7976,18 +7928,20 @@
         <v>86</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>87</v>
+        <v>228</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>266</v>
+        <v>229</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>267</v>
+        <v>230</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="O55" t="s" s="2">
         <v>76</v>
       </c>
@@ -8011,13 +7965,11 @@
         <v>76</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="X55" s="2"/>
       <c r="Y55" t="s" s="2">
-        <v>76</v>
+        <v>289</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>76</v>
@@ -8035,13 +7987,13 @@
         <v>76</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>269</v>
+        <v>234</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>76</v>
@@ -8053,18 +8005,18 @@
         <v>76</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>270</v>
+        <v>235</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>271</v>
+        <v>236</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>272</v>
+        <v>238</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8084,21 +8036,19 @@
         <v>76</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>273</v>
+        <v>217</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>274</v>
+        <v>218</v>
       </c>
       <c r="M56" s="2"/>
-      <c r="N56" t="s" s="2">
-        <v>275</v>
-      </c>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>76</v>
       </c>
@@ -8146,7 +8096,7 @@
         <v>76</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>276</v>
+        <v>219</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8158,35 +8108,35 @@
         <v>76</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>277</v>
+        <v>220</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>278</v>
+        <v>76</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>279</v>
+        <v>239</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>76</v>
@@ -8195,21 +8145,21 @@
         <v>76</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>87</v>
+        <v>131</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>280</v>
+        <v>132</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="M57" s="2"/>
-      <c r="N57" t="s" s="2">
-        <v>282</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>76</v>
       </c>
@@ -8245,48 +8195,48 @@
         <v>76</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>76</v>
+        <v>223</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>76</v>
+        <v>224</v>
       </c>
       <c r="AC57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>76</v>
+        <v>225</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>283</v>
+        <v>226</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>284</v>
+        <v>220</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>285</v>
+        <v>76</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>286</v>
+        <v>240</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8294,7 +8244,7 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F58" t="s" s="2">
         <v>85</v>
@@ -8309,26 +8259,26 @@
         <v>86</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>287</v>
+        <v>99</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>288</v>
+        <v>241</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>289</v>
+        <v>242</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>290</v>
+        <v>243</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>291</v>
+        <v>244</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P58" s="2"/>
       <c r="Q58" t="s" s="2">
-        <v>76</v>
+        <v>290</v>
       </c>
       <c r="R58" t="s" s="2">
         <v>76</v>
@@ -8370,7 +8320,7 @@
         <v>76</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>292</v>
+        <v>246</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -8388,22 +8338,20 @@
         <v>76</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>293</v>
+        <v>247</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>294</v>
+        <v>248</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="B59" t="s" s="2">
-        <v>304</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
         <v>76</v>
       </c>
@@ -8424,20 +8372,18 @@
         <v>86</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>219</v>
+        <v>87</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>223</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>76</v>
       </c>
@@ -8461,11 +8407,13 @@
         <v>76</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="X59" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Y59" t="s" s="2">
-        <v>305</v>
+        <v>76</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>76</v>
@@ -8483,13 +8431,13 @@
         <v>76</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>224</v>
+        <v>253</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>76</v>
@@ -8501,18 +8449,18 @@
         <v>76</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>226</v>
+        <v>255</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8532,19 +8480,21 @@
         <v>76</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>208</v>
+        <v>257</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>209</v>
+        <v>258</v>
       </c>
       <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
+      <c r="N60" t="s" s="2">
+        <v>259</v>
+      </c>
       <c r="O60" t="s" s="2">
         <v>76</v>
       </c>
@@ -8592,7 +8542,7 @@
         <v>76</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -8604,35 +8554,35 @@
         <v>76</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>211</v>
+        <v>261</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>76</v>
+        <v>262</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>76</v>
@@ -8641,21 +8591,21 @@
         <v>76</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>132</v>
+        <v>264</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>265</v>
+      </c>
+      <c r="M61" s="2"/>
+      <c r="N61" t="s" s="2">
+        <v>266</v>
+      </c>
       <c r="O61" t="s" s="2">
         <v>76</v>
       </c>
@@ -8691,48 +8641,48 @@
         <v>76</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>214</v>
+        <v>76</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>215</v>
+        <v>76</v>
       </c>
       <c r="AC61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>216</v>
+        <v>76</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>217</v>
+        <v>267</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>211</v>
+        <v>268</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>76</v>
+        <v>269</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8740,7 +8690,7 @@
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F62" t="s" s="2">
         <v>85</v>
@@ -8755,26 +8705,26 @@
         <v>86</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>99</v>
+        <v>271</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P62" s="2"/>
       <c r="Q62" t="s" s="2">
-        <v>306</v>
+        <v>76</v>
       </c>
       <c r="R62" t="s" s="2">
         <v>76</v>
@@ -8816,7 +8766,7 @@
         <v>76</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -8834,18 +8784,18 @@
         <v>76</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>264</v>
+        <v>278</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>265</v>
+        <v>291</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8871,15 +8821,17 @@
         <v>87</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>266</v>
+        <v>292</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>294</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>295</v>
+      </c>
       <c r="O63" t="s" s="2">
         <v>76</v>
       </c>
@@ -8927,7 +8879,7 @@
         <v>76</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -8945,26 +8897,26 @@
         <v>76</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>270</v>
+        <v>297</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>271</v>
+        <v>298</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>76</v>
+        <v>300</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F64" t="s" s="2">
         <v>85</v>
@@ -8979,18 +8931,18 @@
         <v>86</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>105</v>
+        <v>301</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>273</v>
+        <v>302</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="M64" s="2"/>
-      <c r="N64" t="s" s="2">
-        <v>275</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>76</v>
       </c>
@@ -9038,10 +8990,10 @@
         <v>76</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>276</v>
+        <v>299</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>85</v>
@@ -9053,21 +9005,21 @@
         <v>97</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>76</v>
+        <v>305</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>277</v>
+        <v>306</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>76</v>
+        <v>307</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>278</v>
+        <v>308</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>279</v>
+        <v>309</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9090,18 +9042,18 @@
         <v>86</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>87</v>
+        <v>310</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>280</v>
+        <v>311</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="M65" s="2"/>
-      <c r="N65" t="s" s="2">
-        <v>282</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>76</v>
       </c>
@@ -9149,7 +9101,7 @@
         <v>76</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>283</v>
+        <v>309</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -9164,21 +9116,21 @@
         <v>97</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>76</v>
+        <v>314</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>284</v>
+        <v>315</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>76</v>
+        <v>316</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>285</v>
+        <v>317</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>286</v>
+        <v>318</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9201,20 +9153,18 @@
         <v>86</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>287</v>
+        <v>319</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>288</v>
+        <v>320</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>289</v>
+        <v>321</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>291</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>76</v>
       </c>
@@ -9262,7 +9212,7 @@
         <v>76</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>292</v>
+        <v>318</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -9277,21 +9227,21 @@
         <v>97</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>76</v>
+        <v>323</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>293</v>
+        <v>324</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>76</v>
+        <v>325</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>294</v>
+        <v>326</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>307</v>
+        <v>327</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9314,20 +9264,18 @@
         <v>86</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>87</v>
+        <v>328</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>309</v>
+        <v>330</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>311</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>76</v>
       </c>
@@ -9375,7 +9323,7 @@
         <v>76</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>232</v>
+        <v>327</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -9393,26 +9341,26 @@
         <v>76</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>233</v>
+        <v>332</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>76</v>
+        <v>333</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>234</v>
+        <v>76</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>312</v>
+        <v>334</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>313</v>
+        <v>76</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F68" t="s" s="2">
         <v>85</v>
@@ -9427,16 +9375,16 @@
         <v>86</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>315</v>
+        <v>335</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>316</v>
+        <v>336</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -9486,10 +9434,10 @@
         <v>76</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>312</v>
+        <v>334</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>85</v>
@@ -9501,21 +9449,21 @@
         <v>97</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>318</v>
+        <v>76</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>319</v>
+        <v>337</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>320</v>
+        <v>338</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>321</v>
+        <v>76</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>322</v>
+        <v>339</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9526,7 +9474,7 @@
         <v>77</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>76</v>
@@ -9538,17 +9486,15 @@
         <v>86</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>323</v>
+        <v>340</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>324</v>
+        <v>341</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>326</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="M69" s="2"/>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>76</v>
@@ -9597,13 +9543,13 @@
         <v>76</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>322</v>
+        <v>339</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>76</v>
@@ -9612,21 +9558,21 @@
         <v>97</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>327</v>
+        <v>343</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>329</v>
+        <v>76</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>330</v>
+        <v>76</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9646,20 +9592,18 @@
         <v>76</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>332</v>
+        <v>87</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>333</v>
+        <v>217</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>335</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="M70" s="2"/>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>76</v>
@@ -9708,7 +9652,7 @@
         <v>76</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>331</v>
+        <v>219</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
@@ -9720,35 +9664,35 @@
         <v>76</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>336</v>
+        <v>76</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>337</v>
+        <v>220</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>338</v>
+        <v>76</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>339</v>
+        <v>76</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>76</v>
@@ -9757,19 +9701,19 @@
         <v>76</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>341</v>
+        <v>131</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>342</v>
+        <v>132</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>343</v>
+        <v>222</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>344</v>
+        <v>134</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -9819,28 +9763,28 @@
         <v>76</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>340</v>
+        <v>226</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>345</v>
+        <v>220</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>346</v>
+        <v>76</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>76</v>
@@ -9852,37 +9796,39 @@
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>76</v>
+        <v>348</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I72" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>341</v>
+        <v>131</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="N72" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="O72" t="s" s="2">
         <v>76</v>
       </c>
@@ -9930,28 +9876,28 @@
         <v>76</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>350</v>
+        <v>128</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>351</v>
+        <v>76</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>76</v>
@@ -9970,7 +9916,7 @@
         <v>77</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>76</v>
@@ -9982,16 +9928,20 @@
         <v>86</v>
       </c>
       <c r="J73" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="K73" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="K73" t="s" s="2">
+      <c r="L73" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="M73" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="M73" s="2"/>
-      <c r="N73" s="2"/>
+      <c r="N73" t="s" s="2">
+        <v>356</v>
+      </c>
       <c r="O73" t="s" s="2">
         <v>76</v>
       </c>
@@ -10015,13 +9965,11 @@
         <v>76</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="X73" s="2"/>
       <c r="Y73" t="s" s="2">
-        <v>76</v>
+        <v>357</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>76</v>
@@ -10045,7 +9993,7 @@
         <v>77</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>76</v>
@@ -10054,21 +10002,21 @@
         <v>97</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>76</v>
+        <v>360</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10076,7 +10024,7 @@
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F74" t="s" s="2">
         <v>85</v>
@@ -10088,19 +10036,23 @@
         <v>76</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>87</v>
+        <v>362</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>208</v>
+        <v>363</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="M74" s="2"/>
-      <c r="N74" s="2"/>
+        <v>364</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>366</v>
+      </c>
       <c r="O74" t="s" s="2">
         <v>76</v>
       </c>
@@ -10148,10 +10100,10 @@
         <v>76</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>210</v>
+        <v>361</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>85</v>
@@ -10160,35 +10112,35 @@
         <v>76</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>76</v>
+        <v>367</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>211</v>
+        <v>368</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>76</v>
+        <v>369</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>76</v>
+        <v>370</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>76</v>
@@ -10200,18 +10152,20 @@
         <v>76</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>131</v>
+        <v>372</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>132</v>
+        <v>373</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>213</v>
+        <v>374</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N75" s="2"/>
+        <v>375</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>376</v>
+      </c>
       <c r="O75" t="s" s="2">
         <v>76</v>
       </c>
@@ -10259,25 +10213,25 @@
         <v>76</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>217</v>
+        <v>371</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>211</v>
+        <v>377</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>76</v>
@@ -10288,42 +10242,42 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>361</v>
+        <v>76</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I76" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>131</v>
+        <v>379</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>134</v>
+        <v>331</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>140</v>
+        <v>382</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>76</v>
@@ -10372,28 +10326,28 @@
         <v>76</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>128</v>
+        <v>383</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>76</v>
+        <v>384</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>76</v>
@@ -10401,7 +10355,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>365</v>
+        <v>385</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10412,7 +10366,7 @@
         <v>77</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>76</v>
@@ -10427,17 +10381,15 @@
         <v>191</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>366</v>
+        <v>386</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>367</v>
+        <v>387</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>369</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>76</v>
       </c>
@@ -10465,7 +10417,7 @@
       </c>
       <c r="X77" s="2"/>
       <c r="Y77" t="s" s="2">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>76</v>
@@ -10483,13 +10435,13 @@
         <v>76</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>365</v>
+        <v>385</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>76</v>
@@ -10498,21 +10450,21 @@
         <v>97</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>371</v>
+        <v>390</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>372</v>
+        <v>391</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>76</v>
+        <v>392</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>373</v>
+        <v>76</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>374</v>
+        <v>393</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10520,10 +10472,10 @@
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>76</v>
@@ -10535,20 +10487,18 @@
         <v>86</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>375</v>
+        <v>394</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>376</v>
+        <v>395</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>377</v>
+        <v>396</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>379</v>
-      </c>
+        <v>397</v>
+      </c>
+      <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>76</v>
       </c>
@@ -10596,13 +10546,13 @@
         <v>76</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>374</v>
+        <v>393</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>76</v>
@@ -10611,21 +10561,21 @@
         <v>97</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>380</v>
+        <v>398</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>383</v>
+        <v>76</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>384</v>
+        <v>399</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10636,7 +10586,7 @@
         <v>77</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>76</v>
@@ -10645,23 +10595,21 @@
         <v>76</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>385</v>
+        <v>191</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>387</v>
+        <v>401</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>389</v>
-      </c>
+        <v>402</v>
+      </c>
+      <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>76</v>
       </c>
@@ -10685,13 +10633,11 @@
         <v>76</v>
       </c>
       <c r="W79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="X79" s="2"/>
       <c r="Y79" t="s" s="2">
-        <v>76</v>
+        <v>403</v>
       </c>
       <c r="Z79" t="s" s="2">
         <v>76</v>
@@ -10709,13 +10655,13 @@
         <v>76</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>384</v>
+        <v>399</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>76</v>
@@ -10727,18 +10673,18 @@
         <v>76</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>390</v>
+        <v>404</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>76</v>
+        <v>405</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>391</v>
+        <v>406</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10761,20 +10707,18 @@
         <v>86</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>392</v>
+        <v>191</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>393</v>
+        <v>407</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>394</v>
+        <v>408</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>395</v>
-      </c>
+        <v>409</v>
+      </c>
+      <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>76</v>
       </c>
@@ -10798,13 +10742,13 @@
         <v>76</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>76</v>
+        <v>195</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>76</v>
+        <v>410</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>76</v>
+        <v>411</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>76</v>
@@ -10822,7 +10766,7 @@
         <v>76</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>391</v>
+        <v>406</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>77</v>
@@ -10840,10 +10784,10 @@
         <v>76</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>396</v>
+        <v>412</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>397</v>
+        <v>76</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>76</v>
@@ -10851,7 +10795,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>398</v>
+        <v>413</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10871,19 +10815,19 @@
         <v>76</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>191</v>
+        <v>414</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>399</v>
+        <v>415</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>401</v>
+        <v>417</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
@@ -10909,11 +10853,13 @@
         <v>76</v>
       </c>
       <c r="W81" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="X81" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Y81" t="s" s="2">
-        <v>402</v>
+        <v>76</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>76</v>
@@ -10931,7 +10877,7 @@
         <v>76</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>398</v>
+        <v>413</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
@@ -10946,13 +10892,13 @@
         <v>97</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>403</v>
+        <v>76</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>404</v>
+        <v>418</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>405</v>
+        <v>76</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>76</v>
@@ -10960,7 +10906,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>406</v>
+        <v>419</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10980,19 +10926,19 @@
         <v>76</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>407</v>
+        <v>191</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>409</v>
+        <v>421</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
@@ -11018,13 +10964,11 @@
         <v>76</v>
       </c>
       <c r="W82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X82" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="X82" s="2"/>
       <c r="Y82" t="s" s="2">
-        <v>76</v>
+        <v>423</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>76</v>
@@ -11042,7 +10986,7 @@
         <v>76</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>406</v>
+        <v>419</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>77</v>
@@ -11057,13 +11001,13 @@
         <v>97</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>411</v>
+        <v>76</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>404</v>
+        <v>424</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>405</v>
+        <v>76</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>76</v>
@@ -11071,7 +11015,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11091,21 +11035,23 @@
         <v>76</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>191</v>
+        <v>426</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>413</v>
+        <v>427</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>414</v>
+        <v>428</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="N83" s="2"/>
+        <v>331</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>429</v>
+      </c>
       <c r="O83" t="s" s="2">
         <v>76</v>
       </c>
@@ -11129,11 +11075,13 @@
         <v>76</v>
       </c>
       <c r="W83" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="X83" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Y83" t="s" s="2">
-        <v>416</v>
+        <v>76</v>
       </c>
       <c r="Z83" t="s" s="2">
         <v>76</v>
@@ -11151,7 +11099,7 @@
         <v>76</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
@@ -11169,18 +11117,18 @@
         <v>76</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>418</v>
+        <v>76</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11191,7 +11139,7 @@
         <v>77</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>76</v>
@@ -11200,19 +11148,19 @@
         <v>76</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J84" t="s" s="2">
         <v>191</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>421</v>
+        <v>432</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
@@ -11240,11 +11188,9 @@
       <c r="W84" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="X84" t="s" s="2">
-        <v>423</v>
-      </c>
+      <c r="X84" s="2"/>
       <c r="Y84" t="s" s="2">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>76</v>
@@ -11262,13 +11208,13 @@
         <v>76</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>76</v>
@@ -11280,7 +11226,7 @@
         <v>76</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>76</v>
@@ -11291,7 +11237,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11314,16 +11260,16 @@
         <v>76</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
@@ -11373,7 +11319,7 @@
         <v>76</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>77</v>
@@ -11388,21 +11334,21 @@
         <v>97</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>76</v>
+        <v>441</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>76</v>
+        <v>443</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>432</v>
+        <v>444</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11425,17 +11371,15 @@
         <v>76</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>191</v>
+        <v>340</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>433</v>
+        <v>445</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>435</v>
-      </c>
+        <v>446</v>
+      </c>
+      <c r="M86" s="2"/>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
         <v>76</v>
@@ -11460,11 +11404,13 @@
         <v>76</v>
       </c>
       <c r="W86" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="X86" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Y86" t="s" s="2">
-        <v>436</v>
+        <v>76</v>
       </c>
       <c r="Z86" t="s" s="2">
         <v>76</v>
@@ -11482,7 +11428,7 @@
         <v>76</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>432</v>
+        <v>444</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>77</v>
@@ -11500,7 +11446,7 @@
         <v>76</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>76</v>
@@ -11511,7 +11457,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11522,7 +11468,7 @@
         <v>77</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>76</v>
@@ -11534,20 +11480,16 @@
         <v>76</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>439</v>
+        <v>87</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>440</v>
+        <v>217</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>442</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="M87" s="2"/>
+      <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
         <v>76</v>
       </c>
@@ -11595,25 +11537,25 @@
         <v>76</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>438</v>
+        <v>219</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>437</v>
+        <v>220</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>76</v>
@@ -11624,11 +11566,11 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
@@ -11647,16 +11589,16 @@
         <v>76</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>191</v>
+        <v>131</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>444</v>
+        <v>132</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>445</v>
+        <v>222</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>446</v>
+        <v>134</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
@@ -11682,11 +11624,13 @@
         <v>76</v>
       </c>
       <c r="W88" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="X88" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Y88" t="s" s="2">
-        <v>447</v>
+        <v>76</v>
       </c>
       <c r="Z88" t="s" s="2">
         <v>76</v>
@@ -11704,7 +11648,7 @@
         <v>76</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>443</v>
+        <v>226</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>77</v>
@@ -11716,13 +11660,13 @@
         <v>76</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>448</v>
+        <v>220</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>76</v>
@@ -11733,11 +11677,11 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
-        <v>76</v>
+        <v>348</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
@@ -11750,24 +11694,26 @@
         <v>76</v>
       </c>
       <c r="H89" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>450</v>
+        <v>131</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>451</v>
+        <v>349</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>452</v>
+        <v>350</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="N89" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="O89" t="s" s="2">
         <v>76</v>
       </c>
@@ -11815,7 +11761,7 @@
         <v>76</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>449</v>
+        <v>351</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>77</v>
@@ -11827,24 +11773,24 @@
         <v>76</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>454</v>
+        <v>76</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>455</v>
+        <v>128</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>456</v>
+        <v>76</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -11855,7 +11801,7 @@
         <v>77</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>76</v>
@@ -11867,13 +11813,13 @@
         <v>76</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>353</v>
+        <v>191</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
@@ -11900,13 +11846,11 @@
         <v>76</v>
       </c>
       <c r="W90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X90" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="X90" s="2"/>
       <c r="Y90" t="s" s="2">
-        <v>76</v>
+        <v>454</v>
       </c>
       <c r="Z90" t="s" s="2">
         <v>76</v>
@@ -11924,13 +11868,13 @@
         <v>76</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>76</v>
@@ -11942,7 +11886,7 @@
         <v>76</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>76</v>
@@ -11953,7 +11897,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -11961,7 +11905,7 @@
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F91" t="s" s="2">
         <v>85</v>
@@ -11976,13 +11920,13 @@
         <v>76</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>87</v>
+        <v>457</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>208</v>
+        <v>458</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>209</v>
+        <v>459</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -12033,10 +11977,10 @@
         <v>76</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>210</v>
+        <v>456</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>85</v>
@@ -12045,13 +11989,13 @@
         <v>76</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>211</v>
+        <v>460</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>76</v>
@@ -12062,11 +12006,11 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
@@ -12085,18 +12029,20 @@
         <v>76</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>131</v>
+        <v>462</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>132</v>
+        <v>463</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>213</v>
+        <v>464</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N92" s="2"/>
+        <v>465</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>466</v>
+      </c>
       <c r="O92" t="s" s="2">
         <v>76</v>
       </c>
@@ -12144,7 +12090,7 @@
         <v>76</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>217</v>
+        <v>461</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>77</v>
@@ -12156,13 +12102,13 @@
         <v>76</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>211</v>
+        <v>467</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>76</v>
@@ -12173,11 +12119,11 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
-        <v>361</v>
+        <v>76</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
@@ -12190,26 +12136,24 @@
         <v>76</v>
       </c>
       <c r="H93" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>131</v>
+        <v>191</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>362</v>
+        <v>469</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>363</v>
+        <v>470</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>471</v>
+      </c>
+      <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
         <v>76</v>
       </c>
@@ -12233,13 +12177,11 @@
         <v>76</v>
       </c>
       <c r="W93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X93" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="X93" s="2"/>
       <c r="Y93" t="s" s="2">
-        <v>76</v>
+        <v>472</v>
       </c>
       <c r="Z93" t="s" s="2">
         <v>76</v>
@@ -12257,7 +12199,7 @@
         <v>76</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>364</v>
+        <v>468</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>77</v>
@@ -12269,456 +12211,18 @@
         <v>76</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>128</v>
+        <v>473</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="B94" s="2"/>
-      <c r="C94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D94" s="2"/>
-      <c r="E94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F94" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J94" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="K94" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="L94" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="M94" s="2"/>
-      <c r="N94" s="2"/>
-      <c r="O94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P94" s="2"/>
-      <c r="Q94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W94" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="X94" s="2"/>
-      <c r="Y94" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="Z94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE94" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="AF94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG94" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI94" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK94" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="AL94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM94" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="B95" s="2"/>
-      <c r="C95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D95" s="2"/>
-      <c r="E95" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="F95" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J95" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="K95" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="L95" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="M95" s="2"/>
-      <c r="N95" s="2"/>
-      <c r="O95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P95" s="2"/>
-      <c r="Q95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE95" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="AF95" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AG95" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI95" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK95" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="AL95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM95" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="B96" s="2"/>
-      <c r="C96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D96" s="2"/>
-      <c r="E96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J96" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="K96" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="L96" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="O96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P96" s="2"/>
-      <c r="Q96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE96" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="AF96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI96" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK96" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="AL96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM96" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="B97" s="2"/>
-      <c r="C97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D97" s="2"/>
-      <c r="E97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J97" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="K97" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="L97" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="N97" s="2"/>
-      <c r="O97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P97" s="2"/>
-      <c r="Q97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W97" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="X97" s="2"/>
-      <c r="Y97" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="Z97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE97" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="AF97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI97" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK97" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="AL97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM97" t="s" s="2">
         <v>76</v>
       </c>
     </row>

--- a/jpcore-r4/develop/StructureDefinition-jp-procedure.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-procedure.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3298" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3297" uniqueCount="473">
   <si>
     <t>Property</t>
   </si>
@@ -1324,10 +1324,7 @@
 結果に叙述的記述トのみが含まれている場合は、CodeableConcept.textを使用してその情報を格納できる。</t>
   </si>
   <si>
-    <t>An outcome of a procedure - whether it was resolved or otherwise.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/procedure-outcome</t>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureOutcomeCodes_VS</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=OUT].target.text</t>
@@ -1875,7 +1872,7 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="62.48828125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="42.5234375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="70.4296875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
@@ -10744,11 +10741,9 @@
       <c r="W80" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="X80" t="s" s="2">
+      <c r="X80" s="2"/>
+      <c r="Y80" t="s" s="2">
         <v>410</v>
-      </c>
-      <c r="Y80" t="s" s="2">
-        <v>411</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>76</v>
@@ -10784,7 +10779,7 @@
         <v>76</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>76</v>
@@ -10795,7 +10790,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10818,16 +10813,16 @@
         <v>76</v>
       </c>
       <c r="J81" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="K81" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="K81" t="s" s="2">
+      <c r="L81" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="L81" t="s" s="2">
+      <c r="M81" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>417</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
@@ -10877,7 +10872,7 @@
         <v>76</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
@@ -10895,7 +10890,7 @@
         <v>76</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>76</v>
@@ -10906,7 +10901,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10932,13 +10927,13 @@
         <v>191</v>
       </c>
       <c r="K82" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="L82" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="L82" t="s" s="2">
+      <c r="M82" t="s" s="2">
         <v>421</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>422</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
@@ -10968,7 +10963,7 @@
       </c>
       <c r="X82" s="2"/>
       <c r="Y82" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>76</v>
@@ -10986,7 +10981,7 @@
         <v>76</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>77</v>
@@ -11004,7 +10999,7 @@
         <v>76</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>76</v>
@@ -11015,7 +11010,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11038,19 +11033,19 @@
         <v>76</v>
       </c>
       <c r="J83" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="K83" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="K83" t="s" s="2">
+      <c r="L83" t="s" s="2">
         <v>427</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>428</v>
       </c>
       <c r="M83" t="s" s="2">
         <v>331</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>76</v>
@@ -11099,7 +11094,7 @@
         <v>76</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
@@ -11117,7 +11112,7 @@
         <v>76</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>76</v>
@@ -11128,7 +11123,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11154,13 +11149,13 @@
         <v>191</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="L84" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="L84" t="s" s="2">
+      <c r="M84" t="s" s="2">
         <v>432</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>433</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
@@ -11190,7 +11185,7 @@
       </c>
       <c r="X84" s="2"/>
       <c r="Y84" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>76</v>
@@ -11208,7 +11203,7 @@
         <v>76</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>77</v>
@@ -11226,7 +11221,7 @@
         <v>76</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>76</v>
@@ -11237,7 +11232,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11260,16 +11255,16 @@
         <v>76</v>
       </c>
       <c r="J85" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="K85" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="K85" t="s" s="2">
+      <c r="L85" t="s" s="2">
         <v>438</v>
       </c>
-      <c r="L85" t="s" s="2">
+      <c r="M85" t="s" s="2">
         <v>439</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>440</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
@@ -11319,7 +11314,7 @@
         <v>76</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>77</v>
@@ -11334,21 +11329,21 @@
         <v>97</v>
       </c>
       <c r="AJ85" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="AK85" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="AK85" t="s" s="2">
+      <c r="AL85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM85" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM85" t="s" s="2">
-        <v>443</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11374,10 +11369,10 @@
         <v>340</v>
       </c>
       <c r="K86" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="L86" t="s" s="2">
         <v>445</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>446</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -11428,7 +11423,7 @@
         <v>76</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>77</v>
@@ -11446,7 +11441,7 @@
         <v>76</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>76</v>
@@ -11457,7 +11452,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11566,7 +11561,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11677,7 +11672,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11790,7 +11785,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -11816,10 +11811,10 @@
         <v>191</v>
       </c>
       <c r="K90" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="L90" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>453</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
@@ -11850,7 +11845,7 @@
       </c>
       <c r="X90" s="2"/>
       <c r="Y90" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="Z90" t="s" s="2">
         <v>76</v>
@@ -11868,7 +11863,7 @@
         <v>76</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>77</v>
@@ -11886,7 +11881,7 @@
         <v>76</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>76</v>
@@ -11897,7 +11892,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -11920,13 +11915,13 @@
         <v>76</v>
       </c>
       <c r="J91" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="K91" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="K91" t="s" s="2">
+      <c r="L91" t="s" s="2">
         <v>458</v>
-      </c>
-      <c r="L91" t="s" s="2">
-        <v>459</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -11977,7 +11972,7 @@
         <v>76</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>85</v>
@@ -11995,7 +11990,7 @@
         <v>76</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>76</v>
@@ -12006,7 +12001,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12029,19 +12024,19 @@
         <v>76</v>
       </c>
       <c r="J92" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="K92" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="K92" t="s" s="2">
+      <c r="L92" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="L92" t="s" s="2">
+      <c r="M92" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="M92" t="s" s="2">
+      <c r="N92" t="s" s="2">
         <v>465</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>466</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>76</v>
@@ -12090,7 +12085,7 @@
         <v>76</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>77</v>
@@ -12108,7 +12103,7 @@
         <v>76</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>76</v>
@@ -12119,7 +12114,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12145,13 +12140,13 @@
         <v>191</v>
       </c>
       <c r="K93" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="L93" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="L93" t="s" s="2">
+      <c r="M93" t="s" s="2">
         <v>470</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>471</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
@@ -12181,7 +12176,7 @@
       </c>
       <c r="X93" s="2"/>
       <c r="Y93" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="Z93" t="s" s="2">
         <v>76</v>
@@ -12199,7 +12194,7 @@
         <v>76</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>77</v>
@@ -12217,7 +12212,7 @@
         <v>76</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>76</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-procedure.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-procedure.xlsx
@@ -512,7 +512,7 @@
     <t>Instantiates external protocol or definition</t>
   </si>
   <si>
-    <t>本Procedrure全体または一部を遵守する、外部で管理されているプロトコル、ガイドライン、オーダーセット、またはその他の定義を指すURL。</t>
+    <t>本Procedure全体または一部を遵守する、外部で管理されているプロトコル、ガイドライン、オーダーセット、またはその他の定義を指すURL。</t>
   </si>
   <si>
     <t>This might be an HTML page, PDF, etc. or could just be a non-resolvable URI identifier.</t>
@@ -1021,7 +1021,7 @@
     <t>When the procedure was performed プロシジャーが実施された時期</t>
   </si>
   <si>
-    <t>Procedureが行われた推定または実際の日付、日時、期間、または年齢。複数の日付にまたがる複雑なProcdedureをサポートするために期間を許可し、Procdedureの長さを把握することも可能。</t>
+    <t>Procedureが行われた推定または実際の日付、日時、期間、または年齢。複数の日付にまたがる複雑なProcedureをサポートするために期間を許可し、Procdedureの長さを把握することも可能。</t>
   </si>
   <si>
     <t>Age is generally used when the patient reports an age at which the procedure was performed. Range is generally used when the patient reports an age range when the procedure was performed, such as sometime between 20-25 years old.  dateTime supports a range of precision due to some procedures being reported as past procedures that might not have millisecond precision while other procedures performed and documented during the encounter might have more precise UTC timestamps with timezone.
@@ -1273,7 +1273,7 @@
     <t>The justification that the procedure was performed プロシジャーが実施された正当性</t>
   </si>
   <si>
-    <t>なぜそのようなPlocedureを行ったのか、その正当性を示す。</t>
+    <t>なぜそのようなProcedureを行ったのか、その正当性を示す。</t>
   </si>
   <si>
     <t>It is possible for a procedure to be a reason (such as C-Section) for another procedure (such as an epidural). Other examples include endoscopy for dilatation and biopsy (a combination of diagnostic and therapeutic use). 

--- a/jpcore-r4/develop/StructureDefinition-jp-procedure.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-procedure.xlsx
@@ -539,7 +539,7 @@
   </si>
   <si>
     <t>参照は、実際のFHIRリソースへの参照であり、解決可能でなければならない（アクセス制御、一時的な利用不能などを可能にする）。解決には、URLからの検索、またはリソースタイプによって該当する場合は、絶対参照を正規のURLとして扱い、ローカルレジストリ/リポジトリで検索することができる。 
-【JPーCORE】
+【JP-Core仕様】
 Observation_LabResultにならい、任意。</t>
   </si>
   <si>
@@ -563,13 +563,13 @@
     <t>Part of referenced event</t>
   </si>
   <si>
-    <t>A larger event of which this particular procedure is a component or step.【JP仕様】https://www.hl7.org/fhir/procedure.htmlを参照</t>
+    <t>A larger event of which this particular procedure is a component or step.【JP-Core仕様】https://www.hl7.org/fhir/procedure.htmlを参照</t>
   </si>
   <si>
     <t>The MedicationAdministration resource has a partOf reference to Procedure, but this is not a circular reference.   For example, the anesthesia MedicationAdministration is part of the surgical Procedure (MedicationAdministration.partOf = Procedure).  For example, the procedure to insert the IV port for an IV medication administration is part of the medication administration (Procedure.partOf = MedicationAdministration).
 MedicationAdministrationリソースにはProcedureへのpartOf参照があるが、これは循環参照ではない。たとえば、麻酔MedicationAdministrationは外科的処置の一部である（MedicationAdministration.partOf = Procedure）。
 また、たとえば、IV投薬管理用にIVポートを挿入する手順は、投薬管理の一部である（Procedure.partOf = MedicationAdministration）。
-【JP-CORE】
+【JP-Core仕様】
 Observation_LabResultにならい、任意。</t>
   </si>
   <si>
@@ -585,7 +585,7 @@
     <t>preparation | in-progress | not-done | on-hold | stopped | completed | entered-in-error | unknown</t>
   </si>
   <si>
-    <t>プロシージャの状態を指定するコードである。一般的には、進行中または完了した状態になる。【JP仕様】http://hl7.org/fhir/us/core/STU3.1/StructureDefinition-us-core-procedure.htmlを参照</t>
+    <t>プロシージャの状態を指定するコードである。一般的には、進行中または完了した状態になる。【JP-Core仕様】http://hl7.org/fhir/us/core/STU3.1/StructureDefinition-us-core-procedure.htmlを参照</t>
   </si>
   <si>
     <t>The "unknown" code is not to be used to convey other statuses.  The "unknown" code should be used when one of the statuses applies, but the authoring system doesn't know the current state of the procedure.
@@ -1136,7 +1136,7 @@
   </si>
   <si>
     <t>すべての用語の使用がこの一般的なパターンに当てはまるわけではない。場合によっては、モデルはCodeableConceptを使用せず、Codingを直接使用し、テキスト、コーディング、翻訳、要素間の関係や事前・事後の調整を管理するための独自の構造を提供するべきである。
- 【JP-CORE】
+ 【JP-Core仕様】
 当面利用しない。</t>
   </si>
   <si>
@@ -1466,7 +1466,7 @@
     <t>Kind of change to device</t>
   </si>
   <si>
-    <t>Procedure中にデバイスに起こった変化の種類。【JP仕様】https://www.hl7.org/fhir/procedure.htmlを参照</t>
+    <t>Procedure中にデバイスに起こった変化の種類。【JP-Core仕様】https://www.hl7.org/fhir/procedure.htmlを参照</t>
   </si>
   <si>
     <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureDeviceActionCodes_VS</t>
@@ -1485,7 +1485,7 @@
     <t>Device that was changed</t>
   </si>
   <si>
-    <t>Procedure中に操作（変更）されたデバイス。【JP仕様】https://www.hl7.org/fhir/procedure.htmlを参照</t>
+    <t>Procedure中に操作（変更）されたデバイス。【JP-Core仕様】https://www.hl7.org/fhir/procedure.htmlを参照</t>
   </si>
   <si>
     <t>.participation[typeCode=DEV].role[classCode=SDLOC]</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-procedure.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-procedure.xlsx
@@ -1021,7 +1021,7 @@
     <t>When the procedure was performed プロシジャーが実施された時期</t>
   </si>
   <si>
-    <t>Procedureが行われた推定または実際の日付、日時、期間、または年齢。複数の日付にまたがる複雑なProcedureをサポートするために期間を許可し、Procdedureの長さを把握することも可能。</t>
+    <t>Procedureが行われた推定または実際の日付、日時、期間、または年齢。複数の日付にまたがる複雑なProcedureをサポートするために期間を許可し、Procedureの長さを把握することも可能。</t>
   </si>
   <si>
     <t>Age is generally used when the patient reports an age at which the procedure was performed. Range is generally used when the patient reports an age range when the procedure was performed, such as sometime between 20-25 years old.  dateTime supports a range of precision due to some procedures being reported as past procedures that might not have millisecond precision while other procedures performed and documented during the encounter might have more precise UTC timestamps with timezone.
@@ -1056,7 +1056,7 @@
 記録を記録し、その内容に責任を負う個人。</t>
   </si>
   <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
+    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolvable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
 参照は、実際のFHIRリソースへの参照である必要があり、内容に辿り着ける（解決できる）必要がある（アクセス制御、一時的な使用不可などを考慮に入れる）。解決は、URLから取得するか、リソースタイプによって該当する場合は、絶対参照を正規URLとして扱い、ローカルレジストリ/リポジトリで検索することによって行うことができる。</t>
   </si>
   <si>

--- a/jpcore-r4/develop/StructureDefinition-jp-procedure.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-procedure.xlsx
@@ -539,8 +539,7 @@
   </si>
   <si>
     <t>参照は、実際のFHIRリソースへの参照であり、解決可能でなければならない（アクセス制御、一時的な利用不能などを可能にする）。解決には、URLからの検索、またはリソースタイプによって該当する場合は、絶対参照を正規のURLとして扱い、ローカルレジストリ/リポジトリで検索することができる。 
-【JP-Core仕様】
-Observation_LabResultにならい、任意。</t>
+【JP-Core仕様】Observation_LabResultにならい、任意。</t>
   </si>
   <si>
     <t>Event.basedOn</t>
@@ -569,8 +568,7 @@
     <t>The MedicationAdministration resource has a partOf reference to Procedure, but this is not a circular reference.   For example, the anesthesia MedicationAdministration is part of the surgical Procedure (MedicationAdministration.partOf = Procedure).  For example, the procedure to insert the IV port for an IV medication administration is part of the medication administration (Procedure.partOf = MedicationAdministration).
 MedicationAdministrationリソースにはProcedureへのpartOf参照があるが、これは循環参照ではない。たとえば、麻酔MedicationAdministrationは外科的処置の一部である（MedicationAdministration.partOf = Procedure）。
 また、たとえば、IV投薬管理用にIVポートを挿入する手順は、投薬管理の一部である（Procedure.partOf = MedicationAdministration）。
-【JP-Core仕様】
-Observation_LabResultにならい、任意。</t>
+【JP-Core仕様】Observation_LabResultにならい、任意。</t>
   </si>
   <si>
     <t>Event.partOf</t>
@@ -1136,8 +1134,7 @@
   </si>
   <si>
     <t>すべての用語の使用がこの一般的なパターンに当てはまるわけではない。場合によっては、モデルはCodeableConceptを使用せず、Codingを直接使用し、テキスト、コーディング、翻訳、要素間の関係や事前・事後の調整を管理するための独自の構造を提供するべきである。
- 【JP-Core仕様】
-当面利用しない。</t>
+ 【JP-Core仕様】当面利用しない。</t>
   </si>
   <si>
     <t>Allows disambiguation of the types of involvement of different performers.</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-procedure.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-procedure.xlsx
@@ -562,7 +562,7 @@
     <t>Part of referenced event</t>
   </si>
   <si>
-    <t>A larger event of which this particular procedure is a component or step.【JP-Core仕様】https://www.hl7.org/fhir/procedure.htmlを参照</t>
+    <t>A larger event of which this particular procedure is a component or step.【JP-Core仕様】https://www.hl7.org/fhir/R4/procedure.htmlを参照</t>
   </si>
   <si>
     <t>The MedicationAdministration resource has a partOf reference to Procedure, but this is not a circular reference.   For example, the anesthesia MedicationAdministration is part of the surgical Procedure (MedicationAdministration.partOf = Procedure).  For example, the procedure to insert the IV port for an IV medication administration is part of the medication administration (Procedure.partOf = MedicationAdministration).
@@ -1463,7 +1463,7 @@
     <t>Kind of change to device</t>
   </si>
   <si>
-    <t>Procedure中にデバイスに起こった変化の種類。【JP-Core仕様】https://www.hl7.org/fhir/procedure.htmlを参照</t>
+    <t>Procedure中にデバイスに起こった変化の種類。【JP-Core仕様】https://www.hl7.org/fhir/R4/procedure.htmlを参照</t>
   </si>
   <si>
     <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureDeviceActionCodes_VS</t>
@@ -1482,7 +1482,7 @@
     <t>Device that was changed</t>
   </si>
   <si>
-    <t>Procedure中に操作（変更）されたデバイス。【JP-Core仕様】https://www.hl7.org/fhir/procedure.htmlを参照</t>
+    <t>Procedure中に操作（変更）されたデバイス。【JP-Core仕様】https://www.hl7.org/fhir/R4/procedure.htmlを参照</t>
   </si>
   <si>
     <t>.participation[typeCode=DEV].role[classCode=SDLOC]</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-procedure.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-procedure.xlsx
@@ -652,7 +652,7 @@
     <t>A code that classifies the procedure for searching, sorting and display purposes (e.g. "Surgical Procedure").</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_ProcedureCategoryCodes_VS</t>
+    <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_ProcedureCategory_VS</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
@@ -1140,7 +1140,7 @@
     <t>Allows disambiguation of the types of involvement of different performers.</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedurePerformerRoleCodes_VS</t>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedurePerformerRole_VS</t>
   </si>
   <si>
     <t>Event.performer.function</t>
@@ -1248,7 +1248,7 @@
 もしプロシージャの異なる理由を説明しているのであれば、Procedure.reasonCodeとProcedure.reasonReferenceの両方を使用できる。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureReasonCodes_VS</t>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureReason_VS</t>
   </si>
   <si>
     <t>Event.reasonCode</t>
@@ -1321,7 +1321,7 @@
 結果に叙述的記述トのみが含まれている場合は、CodeableConcept.textを使用してその情報を格納できる。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureOutcomeCodes_VS</t>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureOutcome_VS</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=OUT].target.text</t>
@@ -1363,7 +1363,7 @@
 合併症が叙述的なテキストによってのみ表現されている場合は、CodeableConcept.textに格納できる。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureConditionCodes_VS</t>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureCondition_VS</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=OUTC].target[classCode=OBS, code="complication", moodCode=EVN].value</t>
@@ -1401,7 +1401,7 @@
 すべてのターミノロジーの使用がこの一般的なパターンに適合するわけではない。場合によっては、モデルはCodeableConceptを使用せず、コーディングを直接使用して、テキスト、コーディング、翻訳、および要素間の関係と調整前後の関係を管理するための独自の構造を提供する必要がある。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureFollowUpCodes_VS</t>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureFollowUp_VS</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=COMP].target[classCode=ACT, moodCode=INT].code</t>
@@ -1466,7 +1466,7 @@
     <t>Procedure中にデバイスに起こった変化の種類。【JP-Core仕様】https://www.hl7.org/fhir/R4/procedure.htmlを参照</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureDeviceActionCodes_VS</t>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureDeviceAction_VS</t>
   </si>
   <si>
     <t>.inboundRelationship[typeCode=SUBJ].source[classCode=OBS, moodCode=EVN, code="procedure device action"].value=:procedure device action codes</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-procedure.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-procedure.xlsx
@@ -539,7 +539,7 @@
   </si>
   <si>
     <t>参照は、実際のFHIRリソースへの参照であり、解決可能でなければならない（アクセス制御、一時的な利用不能などを可能にする）。解決には、URLからの検索、またはリソースタイプによって該当する場合は、絶対参照を正規のURLとして扱い、ローカルレジストリ/リポジトリで検索することができる。 
-【JP-Core仕様】Observation_LabResultにならい、任意。</t>
+【JP Core仕様】Observation_LabResultにならい、任意。</t>
   </si>
   <si>
     <t>Event.basedOn</t>
@@ -562,13 +562,13 @@
     <t>Part of referenced event</t>
   </si>
   <si>
-    <t>A larger event of which this particular procedure is a component or step.【JP-Core仕様】https://www.hl7.org/fhir/R4/procedure.htmlを参照</t>
+    <t>A larger event of which this particular procedure is a component or step.【JP Core仕様】https://www.hl7.org/fhir/R4/procedure.htmlを参照</t>
   </si>
   <si>
     <t>The MedicationAdministration resource has a partOf reference to Procedure, but this is not a circular reference.   For example, the anesthesia MedicationAdministration is part of the surgical Procedure (MedicationAdministration.partOf = Procedure).  For example, the procedure to insert the IV port for an IV medication administration is part of the medication administration (Procedure.partOf = MedicationAdministration).
 MedicationAdministrationリソースにはProcedureへのpartOf参照があるが、これは循環参照ではない。たとえば、麻酔MedicationAdministrationは外科的処置の一部である（MedicationAdministration.partOf = Procedure）。
 また、たとえば、IV投薬管理用にIVポートを挿入する手順は、投薬管理の一部である（Procedure.partOf = MedicationAdministration）。
-【JP-Core仕様】Observation_LabResultにならい、任意。</t>
+【JP Core仕様】Observation_LabResultにならい、任意。</t>
   </si>
   <si>
     <t>Event.partOf</t>
@@ -583,7 +583,7 @@
     <t>preparation | in-progress | not-done | on-hold | stopped | completed | entered-in-error | unknown</t>
   </si>
   <si>
-    <t>プロシージャの状態を指定するコードである。一般的には、進行中または完了した状態になる。【JP-Core仕様】http://hl7.org/fhir/us/core/STU3.1/StructureDefinition-us-core-procedure.htmlを参照</t>
+    <t>プロシージャの状態を指定するコードである。一般的には、進行中または完了した状態になる。【JP Core仕様】http://hl7.org/fhir/us/core/STU3.1/StructureDefinition-us-core-procedure.htmlを参照</t>
   </si>
   <si>
     <t>The "unknown" code is not to be used to convey other statuses.  The "unknown" code should be used when one of the statuses applies, but the authoring system doesn't know the current state of the procedure.
@@ -1134,7 +1134,7 @@
   </si>
   <si>
     <t>すべての用語の使用がこの一般的なパターンに当てはまるわけではない。場合によっては、モデルはCodeableConceptを使用せず、Codingを直接使用し、テキスト、コーディング、翻訳、要素間の関係や事前・事後の調整を管理するための独自の構造を提供するべきである。
- 【JP-Core仕様】当面利用しない。</t>
+ 【JP Core仕様】当面利用しない。</t>
   </si>
   <si>
     <t>Allows disambiguation of the types of involvement of different performers.</t>
@@ -1463,7 +1463,7 @@
     <t>Kind of change to device</t>
   </si>
   <si>
-    <t>Procedure中にデバイスに起こった変化の種類。【JP-Core仕様】https://www.hl7.org/fhir/R4/procedure.htmlを参照</t>
+    <t>Procedure中にデバイスに起こった変化の種類。【JP Core仕様】https://www.hl7.org/fhir/R4/procedure.htmlを参照</t>
   </si>
   <si>
     <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureDeviceAction_VS</t>
@@ -1482,7 +1482,7 @@
     <t>Device that was changed</t>
   </si>
   <si>
-    <t>Procedure中に操作（変更）されたデバイス。【JP-Core仕様】https://www.hl7.org/fhir/R4/procedure.htmlを参照</t>
+    <t>Procedure中に操作（変更）されたデバイス。【JP Core仕様】https://www.hl7.org/fhir/R4/procedure.htmlを参照</t>
   </si>
   <si>
     <t>.participation[typeCode=DEV].role[classCode=SDLOC]</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-procedure.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-procedure.xlsx
@@ -652,7 +652,7 @@
     <t>A code that classifies the procedure for searching, sorting and display purposes (e.g. "Surgical Procedure").</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_ProcedureCategory_VS</t>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureCategory_VS</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-procedure.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-procedure.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3297" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3297" uniqueCount="474">
   <si>
     <t>Property</t>
   </si>
@@ -278,7 +278,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -696,6 +696,10 @@
   </si>
   <si>
     <t>Procedure.code.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -4021,13 +4025,13 @@
         <v>76</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>87</v>
+        <v>217</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -4078,7 +4082,7 @@
         <v>76</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
@@ -4096,7 +4100,7 @@
         <v>76</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>76</v>
@@ -4107,7 +4111,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4136,7 +4140,7 @@
         <v>132</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M21" t="s" s="2">
         <v>134</v>
@@ -4177,19 +4181,19 @@
         <v>76</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AC21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
@@ -4207,7 +4211,7 @@
         <v>76</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>76</v>
@@ -4218,7 +4222,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4241,19 +4245,19 @@
         <v>86</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>76</v>
@@ -4290,17 +4294,17 @@
         <v>76</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AB22" s="2"/>
       <c r="AC22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
@@ -4318,21 +4322,21 @@
         <v>76</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C23" t="s" s="2">
         <v>76</v>
@@ -4354,19 +4358,19 @@
         <v>86</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>76</v>
@@ -4413,7 +4417,7 @@
         <v>76</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
@@ -4431,18 +4435,18 @@
         <v>76</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4465,13 +4469,13 @@
         <v>76</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>87</v>
+        <v>217</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4522,7 +4526,7 @@
         <v>76</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -4540,7 +4544,7 @@
         <v>76</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>76</v>
@@ -4551,7 +4555,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4580,7 +4584,7 @@
         <v>132</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M25" t="s" s="2">
         <v>134</v>
@@ -4621,19 +4625,19 @@
         <v>76</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AC25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -4651,7 +4655,7 @@
         <v>76</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>76</v>
@@ -4662,7 +4666,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4688,23 +4692,23 @@
         <v>99</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R26" t="s" s="2">
         <v>76</v>
@@ -4746,7 +4750,7 @@
         <v>76</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -4764,18 +4768,18 @@
         <v>76</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4798,16 +4802,16 @@
         <v>86</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>87</v>
+        <v>217</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4857,7 +4861,7 @@
         <v>76</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -4875,18 +4879,18 @@
         <v>76</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4912,14 +4916,14 @@
         <v>105</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>76</v>
@@ -4968,7 +4972,7 @@
         <v>76</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -4986,18 +4990,18 @@
         <v>76</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5020,17 +5024,17 @@
         <v>86</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>87</v>
+        <v>217</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>76</v>
@@ -5079,7 +5083,7 @@
         <v>76</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -5097,18 +5101,18 @@
         <v>76</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5131,19 +5135,19 @@
         <v>86</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>76</v>
@@ -5192,7 +5196,7 @@
         <v>76</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -5210,21 +5214,21 @@
         <v>76</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C31" t="s" s="2">
         <v>76</v>
@@ -5246,19 +5250,19 @@
         <v>86</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>76</v>
@@ -5287,7 +5291,7 @@
       </c>
       <c r="X31" s="2"/>
       <c r="Y31" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>76</v>
@@ -5305,7 +5309,7 @@
         <v>76</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -5323,18 +5327,18 @@
         <v>76</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5357,13 +5361,13 @@
         <v>76</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>87</v>
+        <v>217</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5414,7 +5418,7 @@
         <v>76</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5432,7 +5436,7 @@
         <v>76</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>76</v>
@@ -5443,7 +5447,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5472,7 +5476,7 @@
         <v>132</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M33" t="s" s="2">
         <v>134</v>
@@ -5513,19 +5517,19 @@
         <v>76</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AC33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -5543,7 +5547,7 @@
         <v>76</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>76</v>
@@ -5554,7 +5558,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5580,23 +5584,23 @@
         <v>99</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="R34" t="s" s="2">
         <v>76</v>
@@ -5638,7 +5642,7 @@
         <v>76</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -5656,18 +5660,18 @@
         <v>76</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5690,16 +5694,16 @@
         <v>86</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>87</v>
+        <v>217</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5749,7 +5753,7 @@
         <v>76</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -5767,18 +5771,18 @@
         <v>76</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5804,14 +5808,14 @@
         <v>105</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>76</v>
@@ -5860,7 +5864,7 @@
         <v>76</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -5878,18 +5882,18 @@
         <v>76</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5912,17 +5916,17 @@
         <v>86</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>87</v>
+        <v>217</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>76</v>
@@ -5971,7 +5975,7 @@
         <v>76</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -5989,18 +5993,18 @@
         <v>76</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6023,19 +6027,19 @@
         <v>86</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>76</v>
@@ -6084,7 +6088,7 @@
         <v>76</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6102,21 +6106,21 @@
         <v>76</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C39" t="s" s="2">
         <v>76</v>
@@ -6138,19 +6142,19 @@
         <v>86</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>76</v>
@@ -6179,7 +6183,7 @@
       </c>
       <c r="X39" s="2"/>
       <c r="Y39" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>76</v>
@@ -6197,7 +6201,7 @@
         <v>76</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
@@ -6215,18 +6219,18 @@
         <v>76</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6249,13 +6253,13 @@
         <v>76</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>87</v>
+        <v>217</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6306,7 +6310,7 @@
         <v>76</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
@@ -6324,7 +6328,7 @@
         <v>76</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>76</v>
@@ -6335,7 +6339,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6364,7 +6368,7 @@
         <v>132</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M41" t="s" s="2">
         <v>134</v>
@@ -6405,19 +6409,19 @@
         <v>76</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AC41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
@@ -6435,7 +6439,7 @@
         <v>76</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>76</v>
@@ -6446,7 +6450,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6472,23 +6476,23 @@
         <v>99</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="R42" t="s" s="2">
         <v>76</v>
@@ -6530,7 +6534,7 @@
         <v>76</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
@@ -6548,18 +6552,18 @@
         <v>76</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6582,16 +6586,16 @@
         <v>86</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>87</v>
+        <v>217</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6641,7 +6645,7 @@
         <v>76</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
@@ -6659,18 +6663,18 @@
         <v>76</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6696,14 +6700,14 @@
         <v>105</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>76</v>
@@ -6752,7 +6756,7 @@
         <v>76</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
@@ -6770,18 +6774,18 @@
         <v>76</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6804,17 +6808,17 @@
         <v>86</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>87</v>
+        <v>217</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>76</v>
@@ -6863,7 +6867,7 @@
         <v>76</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -6881,18 +6885,18 @@
         <v>76</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6915,19 +6919,19 @@
         <v>86</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>76</v>
@@ -6976,7 +6980,7 @@
         <v>76</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
@@ -6994,21 +6998,21 @@
         <v>76</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C47" t="s" s="2">
         <v>76</v>
@@ -7030,19 +7034,19 @@
         <v>86</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>76</v>
@@ -7071,7 +7075,7 @@
       </c>
       <c r="X47" s="2"/>
       <c r="Y47" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>76</v>
@@ -7089,7 +7093,7 @@
         <v>76</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -7107,18 +7111,18 @@
         <v>76</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7141,13 +7145,13 @@
         <v>76</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>87</v>
+        <v>217</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7198,7 +7202,7 @@
         <v>76</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -7216,7 +7220,7 @@
         <v>76</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>76</v>
@@ -7227,7 +7231,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7256,7 +7260,7 @@
         <v>132</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M49" t="s" s="2">
         <v>134</v>
@@ -7297,19 +7301,19 @@
         <v>76</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AC49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -7327,7 +7331,7 @@
         <v>76</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>76</v>
@@ -7338,7 +7342,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7364,23 +7368,23 @@
         <v>99</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="R50" t="s" s="2">
         <v>76</v>
@@ -7422,7 +7426,7 @@
         <v>76</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -7440,18 +7444,18 @@
         <v>76</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7474,16 +7478,16 @@
         <v>86</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>87</v>
+        <v>217</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7533,7 +7537,7 @@
         <v>76</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -7551,18 +7555,18 @@
         <v>76</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7588,14 +7592,14 @@
         <v>105</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>76</v>
@@ -7644,7 +7648,7 @@
         <v>76</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -7662,18 +7666,18 @@
         <v>76</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7696,17 +7700,17 @@
         <v>86</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>87</v>
+        <v>217</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>76</v>
@@ -7755,7 +7759,7 @@
         <v>76</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -7773,18 +7777,18 @@
         <v>76</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7807,19 +7811,19 @@
         <v>86</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>76</v>
@@ -7868,7 +7872,7 @@
         <v>76</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -7886,21 +7890,21 @@
         <v>76</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C55" t="s" s="2">
         <v>76</v>
@@ -7922,19 +7926,19 @@
         <v>86</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>76</v>
@@ -7963,7 +7967,7 @@
       </c>
       <c r="X55" s="2"/>
       <c r="Y55" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>76</v>
@@ -7981,7 +7985,7 @@
         <v>76</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -7999,18 +8003,18 @@
         <v>76</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8033,13 +8037,13 @@
         <v>76</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>87</v>
+        <v>217</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8090,7 +8094,7 @@
         <v>76</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8108,7 +8112,7 @@
         <v>76</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>76</v>
@@ -8119,7 +8123,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8148,7 +8152,7 @@
         <v>132</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M57" t="s" s="2">
         <v>134</v>
@@ -8189,19 +8193,19 @@
         <v>76</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AC57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8219,7 +8223,7 @@
         <v>76</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>76</v>
@@ -8230,7 +8234,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8256,23 +8260,23 @@
         <v>99</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P58" s="2"/>
       <c r="Q58" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="R58" t="s" s="2">
         <v>76</v>
@@ -8314,7 +8318,7 @@
         <v>76</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -8332,18 +8336,18 @@
         <v>76</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8366,16 +8370,16 @@
         <v>86</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>87</v>
+        <v>217</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8425,7 +8429,7 @@
         <v>76</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -8443,18 +8447,18 @@
         <v>76</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8480,14 +8484,14 @@
         <v>105</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>76</v>
@@ -8536,7 +8540,7 @@
         <v>76</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -8554,18 +8558,18 @@
         <v>76</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8588,17 +8592,17 @@
         <v>86</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>87</v>
+        <v>217</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>76</v>
@@ -8647,7 +8651,7 @@
         <v>76</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -8665,18 +8669,18 @@
         <v>76</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8699,19 +8703,19 @@
         <v>86</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>76</v>
@@ -8760,7 +8764,7 @@
         <v>76</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -8778,18 +8782,18 @@
         <v>76</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8812,19 +8816,19 @@
         <v>86</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>87</v>
+        <v>217</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>76</v>
@@ -8873,7 +8877,7 @@
         <v>76</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -8891,22 +8895,22 @@
         <v>76</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -8925,16 +8929,16 @@
         <v>86</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -8984,7 +8988,7 @@
         <v>76</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>85</v>
@@ -8999,21 +9003,21 @@
         <v>97</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9036,16 +9040,16 @@
         <v>86</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -9095,7 +9099,7 @@
         <v>76</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -9110,21 +9114,21 @@
         <v>97</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9147,16 +9151,16 @@
         <v>86</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -9206,7 +9210,7 @@
         <v>76</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -9221,21 +9225,21 @@
         <v>97</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9258,16 +9262,16 @@
         <v>86</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -9317,7 +9321,7 @@
         <v>76</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -9335,10 +9339,10 @@
         <v>76</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>76</v>
@@ -9346,7 +9350,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9369,16 +9373,16 @@
         <v>86</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -9428,7 +9432,7 @@
         <v>76</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -9446,10 +9450,10 @@
         <v>76</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>76</v>
@@ -9457,7 +9461,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9480,13 +9484,13 @@
         <v>86</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -9537,7 +9541,7 @@
         <v>76</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
@@ -9552,10 +9556,10 @@
         <v>97</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>76</v>
@@ -9566,7 +9570,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9589,13 +9593,13 @@
         <v>76</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>87</v>
+        <v>217</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -9646,7 +9650,7 @@
         <v>76</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
@@ -9664,7 +9668,7 @@
         <v>76</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>76</v>
@@ -9675,7 +9679,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9704,7 +9708,7 @@
         <v>132</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M71" t="s" s="2">
         <v>134</v>
@@ -9757,7 +9761,7 @@
         <v>76</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -9775,7 +9779,7 @@
         <v>76</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>76</v>
@@ -9786,11 +9790,11 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -9812,10 +9816,10 @@
         <v>131</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M72" t="s" s="2">
         <v>134</v>
@@ -9870,7 +9874,7 @@
         <v>76</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -9899,7 +9903,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9925,16 +9929,16 @@
         <v>191</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>76</v>
@@ -9963,7 +9967,7 @@
       </c>
       <c r="X73" s="2"/>
       <c r="Y73" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>76</v>
@@ -9981,7 +9985,7 @@
         <v>76</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -9996,21 +10000,21 @@
         <v>97</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10033,19 +10037,19 @@
         <v>86</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>76</v>
@@ -10094,7 +10098,7 @@
         <v>76</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>85</v>
@@ -10109,21 +10113,21 @@
         <v>97</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10146,19 +10150,19 @@
         <v>76</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>76</v>
@@ -10207,7 +10211,7 @@
         <v>76</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
@@ -10225,7 +10229,7 @@
         <v>76</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>76</v>
@@ -10236,7 +10240,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10259,19 +10263,19 @@
         <v>86</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>76</v>
@@ -10320,7 +10324,7 @@
         <v>76</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
@@ -10338,10 +10342,10 @@
         <v>76</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>76</v>
@@ -10349,7 +10353,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10375,13 +10379,13 @@
         <v>191</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -10411,7 +10415,7 @@
       </c>
       <c r="X77" s="2"/>
       <c r="Y77" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>76</v>
@@ -10429,7 +10433,7 @@
         <v>76</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
@@ -10444,13 +10448,13 @@
         <v>97</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>76</v>
@@ -10458,7 +10462,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10481,16 +10485,16 @@
         <v>86</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
@@ -10540,7 +10544,7 @@
         <v>76</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
@@ -10555,13 +10559,13 @@
         <v>97</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>76</v>
@@ -10569,7 +10573,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10595,13 +10599,13 @@
         <v>191</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
@@ -10631,7 +10635,7 @@
       </c>
       <c r="X79" s="2"/>
       <c r="Y79" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Z79" t="s" s="2">
         <v>76</v>
@@ -10649,7 +10653,7 @@
         <v>76</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
@@ -10667,18 +10671,18 @@
         <v>76</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10704,13 +10708,13 @@
         <v>191</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
@@ -10740,7 +10744,7 @@
       </c>
       <c r="X80" s="2"/>
       <c r="Y80" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>76</v>
@@ -10758,7 +10762,7 @@
         <v>76</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>77</v>
@@ -10776,7 +10780,7 @@
         <v>76</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>76</v>
@@ -10787,7 +10791,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10810,16 +10814,16 @@
         <v>76</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
@@ -10869,7 +10873,7 @@
         <v>76</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
@@ -10887,7 +10891,7 @@
         <v>76</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>76</v>
@@ -10898,7 +10902,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10924,13 +10928,13 @@
         <v>191</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
@@ -10960,7 +10964,7 @@
       </c>
       <c r="X82" s="2"/>
       <c r="Y82" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>76</v>
@@ -10978,7 +10982,7 @@
         <v>76</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>77</v>
@@ -10996,7 +11000,7 @@
         <v>76</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>76</v>
@@ -11007,7 +11011,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11030,19 +11034,19 @@
         <v>76</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>76</v>
@@ -11091,7 +11095,7 @@
         <v>76</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
@@ -11109,7 +11113,7 @@
         <v>76</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>76</v>
@@ -11120,7 +11124,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11146,13 +11150,13 @@
         <v>191</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
@@ -11182,7 +11186,7 @@
       </c>
       <c r="X84" s="2"/>
       <c r="Y84" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>76</v>
@@ -11200,7 +11204,7 @@
         <v>76</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>77</v>
@@ -11218,7 +11222,7 @@
         <v>76</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>76</v>
@@ -11229,7 +11233,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11252,16 +11256,16 @@
         <v>76</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
@@ -11311,7 +11315,7 @@
         <v>76</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>77</v>
@@ -11326,21 +11330,21 @@
         <v>97</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11363,13 +11367,13 @@
         <v>76</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -11420,7 +11424,7 @@
         <v>76</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>77</v>
@@ -11438,7 +11442,7 @@
         <v>76</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>76</v>
@@ -11449,7 +11453,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11472,13 +11476,13 @@
         <v>76</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>87</v>
+        <v>217</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -11529,7 +11533,7 @@
         <v>76</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>77</v>
@@ -11547,7 +11551,7 @@
         <v>76</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>76</v>
@@ -11558,7 +11562,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11587,7 +11591,7 @@
         <v>132</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M88" t="s" s="2">
         <v>134</v>
@@ -11640,7 +11644,7 @@
         <v>76</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>77</v>
@@ -11658,7 +11662,7 @@
         <v>76</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>76</v>
@@ -11669,11 +11673,11 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
@@ -11695,10 +11699,10 @@
         <v>131</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M89" t="s" s="2">
         <v>134</v>
@@ -11753,7 +11757,7 @@
         <v>76</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>77</v>
@@ -11782,7 +11786,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -11808,10 +11812,10 @@
         <v>191</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
@@ -11842,7 +11846,7 @@
       </c>
       <c r="X90" s="2"/>
       <c r="Y90" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="Z90" t="s" s="2">
         <v>76</v>
@@ -11860,7 +11864,7 @@
         <v>76</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>77</v>
@@ -11878,7 +11882,7 @@
         <v>76</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>76</v>
@@ -11889,7 +11893,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -11912,13 +11916,13 @@
         <v>76</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -11969,7 +11973,7 @@
         <v>76</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>85</v>
@@ -11987,7 +11991,7 @@
         <v>76</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>76</v>
@@ -11998,7 +12002,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12021,19 +12025,19 @@
         <v>76</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>76</v>
@@ -12082,7 +12086,7 @@
         <v>76</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>77</v>
@@ -12100,7 +12104,7 @@
         <v>76</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>76</v>
@@ -12111,7 +12115,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12137,13 +12141,13 @@
         <v>191</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
@@ -12173,7 +12177,7 @@
       </c>
       <c r="X93" s="2"/>
       <c r="Y93" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="Z93" t="s" s="2">
         <v>76</v>
@@ -12191,7 +12195,7 @@
         <v>76</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>77</v>
@@ -12209,7 +12213,7 @@
         <v>76</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>76</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-procedure.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-procedure.xlsx
@@ -925,7 +925,7 @@
     <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureCodesICHI_VS</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_ProcedureCodesICHI_CS</t>
+    <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_Undefined_CS</t>
   </si>
   <si>
     <t>Procedure.code.text</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-procedure.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-procedure.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-16</t>
+    <t>2022-09-16</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -532,7 +532,7 @@
 </t>
   </si>
   <si>
-    <t>A request for this procedure このプロシージャの依頼情報</t>
+    <t>A request for this procedure このプロシージャの依頼情報。</t>
   </si>
   <si>
     <t>このプロシージャの依頼情報の詳細を含むリソースへの参照。</t>
@@ -559,7 +559,7 @@
 </t>
   </si>
   <si>
-    <t>Part of referenced event</t>
+    <t>Part of referenced event このプロシジャーが構成要素やステップとなるより大きな医療行為。</t>
   </si>
   <si>
     <t>A larger event of which this particular procedure is a component or step.【JP Core仕様】https://www.hl7.org/fhir/R4/procedure.htmlを参照</t>
@@ -621,10 +621,10 @@
 </t>
   </si>
   <si>
-    <t>Reason for current status</t>
-  </si>
-  <si>
-    <t>プロシージャの現在の状態の理由を設定する。</t>
+    <t>Reason for current status このプロシジャーの進捗の理由（未完了であったり中止されたことの理由）</t>
+  </si>
+  <si>
+    <t>プロシージャの現在の進捗の理由を設定する。</t>
   </si>
   <si>
     <t>This is generally only used for "exception" statuses such as "not-done", "suspended" or "aborted". The reason for performing the event at all is captured in reasonCode, not here.
@@ -646,7 +646,7 @@
     <t>Procedure.category</t>
   </si>
   <si>
-    <t>Classification of the procedure</t>
+    <t>Classification of the procedure このプロシジャーの分類カテゴリ。</t>
   </si>
   <si>
     <t>A code that classifies the procedure for searching, sorting and display purposes (e.g. "Surgical Procedure").</t>
@@ -668,7 +668,7 @@
 </t>
   </si>
   <si>
-    <t>Identification of the procedure プロシジャーの識別子</t>
+    <t>Identification of the procedure このプロシジャーの識別子。</t>
   </si>
   <si>
     <t>行われた具体的な手順。手技の正確な性質がコード化できない場合はテキストを使用する（例：「腹腔鏡下虫垂切除術」）</t>
@@ -963,7 +963,7 @@
 </t>
   </si>
   <si>
-    <t>Who the procedure was performed on プロシジャーが実施された対象人</t>
+    <t>Who the procedure was performed on 誰にこのプロシジャーが実施されたか。</t>
   </si>
   <si>
     <t>The person, animal or group on which the procedure was performed.
@@ -992,10 +992,10 @@
 </t>
   </si>
   <si>
-    <t>Encounter created as part of 一部として作成されたエンカウンター</t>
-  </si>
-  <si>
-    <t>プロシジャーが作成または実行されたエンカウンター、またはこの記録の作成が緊密に関連しているエンカウンター。</t>
+    <t>Encounter created as part of このプロシジャーの記録が作成された受療の状況。</t>
+  </si>
+  <si>
+    <t>プロシジャーが作成または実行された受療の状況、またはこの記録の作成が緊密に関連している受療の状況。</t>
   </si>
   <si>
     <t>これは通常、イベントが発生した出会いの中で行われるが、活動によっては、出会いの公式な終了前または終了後に開始されても、出会いの文脈と結びついている場合がある。</t>
@@ -1020,7 +1020,7 @@
 PeriodstringAgeRange</t>
   </si>
   <si>
-    <t>When the procedure was performed プロシジャーが実施された時期</t>
+    <t>When the procedure was performed いつこのプロシジャーが実施されたか。</t>
   </si>
   <si>
     <t>Procedureが行われた推定または実際の日付、日時、期間、または年齢。複数の日付にまたがる複雑なProcedureをサポートするために期間を許可し、Procedureの長さを把握することも可能。</t>
@@ -1051,7 +1051,7 @@
 </t>
   </si>
   <si>
-    <t>Who recorded the procedure プロシジャーを記録した人</t>
+    <t>Who recorded the procedure このプロシジャーを記録した人。</t>
   </si>
   <si>
     <t>Individual who recorded the record and takes responsibility for its content.
@@ -1071,11 +1071,11 @@
     <t>Procedure.asserter</t>
   </si>
   <si>
-    <t>Person who asserts this procedure プロシジャーを実施したと報告する人</t>
+    <t>Person who asserts this procedure このプロシジャーの実施の記録者。</t>
   </si>
   <si>
     <t>Individual who is making the procedure statement.
-プロシジャー記録を作成している個人</t>
+プロシジャーの実施記録を作成した個人。</t>
   </si>
   <si>
     <t>.participation[typeCode=INF].role</t>
@@ -1091,7 +1091,7 @@
 </t>
   </si>
   <si>
-    <t>The people who performed the procedure プロシジャーを実施した人々</t>
+    <t>The people who performed the procedure このプロシジャーの実施者。</t>
   </si>
   <si>
     <t>Limited to "real" people rather than equipment.
@@ -1130,7 +1130,7 @@
     <t>Procedure.performer.function</t>
   </si>
   <si>
-    <t>Type of performance</t>
+    <t xml:space="preserve">	Type of performance 実施者の役割（ロール）</t>
   </si>
   <si>
     <t>Distinguishes the type of involvement of the performer in the procedure. For example, surgeon, anaesthetist, endoscopist.
@@ -1163,7 +1163,7 @@
 </t>
   </si>
   <si>
-    <t>The reference to the practitioner 医療従事者への参照</t>
+    <t>The reference to the practitioner 医療従事者への参照。</t>
   </si>
   <si>
     <t>The practitioner who was involved in the procedure.
@@ -1195,11 +1195,11 @@
 </t>
   </si>
   <si>
-    <t>Organization the device or practitioner was acting for 従事した組織</t>
+    <t>Organization the device or practitioner was acting for 従事した組織。</t>
   </si>
   <si>
     <t>The organization the device or practitioner was acting on behalf of.
-従事した組織</t>
+従事した組織。</t>
   </si>
   <si>
     <t>参照は、実際のFHIRリソースへの参照であり、解決可能でなければならない（アクセス制御、一時的な利用不能などを可能にする）。解決には、URLからの検索によるものと、リソースタイプによって該当する場合は、絶対参照を正規のURLとして扱い、ローカルレジストリ/リポジトリで検索するものがある。</t>
@@ -1218,7 +1218,7 @@
 </t>
   </si>
   <si>
-    <t>Where the procedure happened  プロシジャーが実施された場所</t>
+    <t>Where the procedure happened このプロシジャーが実施された場所。</t>
   </si>
   <si>
     <t>プロシジャーが実施された場所。
@@ -1237,7 +1237,7 @@
     <t>Procedure.reasonCode</t>
   </si>
   <si>
-    <t>Coded reason procedure performed プロシジャーが実施された理由コード</t>
+    <t>Coded reason procedure performed このプロシジャーが実施された理由コード。</t>
   </si>
   <si>
     <t>処置が行われたコード化された理由。
@@ -1271,7 +1271,7 @@
 </t>
   </si>
   <si>
-    <t>The justification that the procedure was performed プロシジャーが実施された正当性</t>
+    <t>The justification that the procedure was performed このプロシジャーが実施された正当性。</t>
   </si>
   <si>
     <t>なぜそのようなProcedureを行ったのか、その正当性を示す。</t>
@@ -1292,7 +1292,7 @@
     <t>Procedure.bodySite</t>
   </si>
   <si>
-    <t>Target body sites 対象の人体部位</t>
+    <t>Target body sites このプロシジャーの対象となった人体部位。</t>
   </si>
   <si>
     <t>詳細かつ構造化された解剖学的な位置情報。複数の場所を指定することができる。例えば、1つの病変に対して複数のパンチングバイオプシーを行うことができる。</t>
@@ -1314,7 +1314,7 @@
     <t>Procedure.outcome</t>
   </si>
   <si>
-    <t>The result of procedure プロシジャーの結果</t>
+    <t>The result of procedure このプロシジャーのアウトカム。</t>
   </si>
   <si>
     <t>The outcome of the procedure - did it resolve the reasons for the procedure being performed?
@@ -1338,7 +1338,7 @@
 </t>
   </si>
   <si>
-    <t>Any report resulting from the procedure プロシジャーからのなんらかの結果報告</t>
+    <t>Any report resulting from the procedure このプロシジャーの結果報告。</t>
   </si>
   <si>
     <t>This could be a histology result, pathology report, surgical report, etc.
@@ -1356,7 +1356,7 @@
     <t>Procedure.complication</t>
   </si>
   <si>
-    <t>Complication following the procedure プロシジャーに起こった合併症</t>
+    <t>Complication following the procedure このプロシジャーによる合併症。</t>
   </si>
   <si>
     <t>Any complications that occurred during the procedure, or in the immediate post-performance period. These are generally tracked separately from the notes, which will typically describe the procedure itself rather than any 'post procedure' issues.
@@ -1380,7 +1380,7 @@
 </t>
   </si>
   <si>
-    <t>A condition that is a result of the procedure プロシジャーの結果であるような患者状態</t>
+    <t>A condition that is a result of the procedure このプロシジャーの合併症の結果生じた患者状態。</t>
   </si>
   <si>
     <t>Any complications that occurred during the procedure, or in the immediate post-performance period.
@@ -1394,7 +1394,7 @@
     <t>Procedure.followUp</t>
   </si>
   <si>
-    <t>Instructions for follow up フォローアップの指示</t>
+    <t>Instructions for follow up 今後のフォローアップ指示。</t>
   </si>
   <si>
     <t>If the procedure required specific follow up - e.g. removal of sutures. The follow up may be represented as a simple note or could potentially be more complex, in which case the CarePlan resource can be used.
@@ -1418,11 +1418,11 @@
 </t>
   </si>
   <si>
-    <t>Additional information about the procedure プロシジャーの関する追加情報</t>
+    <t>Additional information about the procedure このプロシジャーの関する追加情報。</t>
   </si>
   <si>
     <t>Any other notes and comments about the procedure.
-Procedureに関する注意点やコメントなど。</t>
+このプロシジャーに関する注意点やコメントなど。</t>
   </si>
   <si>
     <t>For systems that do not have structured annotations, they can simply communicate a single annotation with no author or time.  This element may need to be included in narrative because of the potential for modifying information.  *Annotations SHOULD NOT* be used to communicate "modifying" information that could be computable. (This is a SHOULD because enforcing user behavior is nearly impossible).
@@ -1442,7 +1442,7 @@
     <t>Procedure.focalDevice</t>
   </si>
   <si>
-    <t>Manipulated, implanted, or removed device 操作、埋め込み、または削除されたデバイス</t>
+    <t>Manipulated, implanted, or removed device このプロシジャーの際に操作、埋め込み、または削除されたデバイス。</t>
   </si>
   <si>
     <t>A device that is implanted, removed or otherwise manipulated (calibration, battery replacement, fitting a prosthesis, attaching a wound-vac, etc.) as a focal portion of the Procedure.
@@ -1499,7 +1499,7 @@
 </t>
   </si>
   <si>
-    <t>Items used during procedure プロシジャー中に使用されるアイテム</t>
+    <t>Items used during procedure プロシジャー中に使用されるアイテム。</t>
   </si>
   <si>
     <t>Identifies medications, devices and any other substance used as part of the procedure.
@@ -1520,7 +1520,7 @@
     <t>Procedure.usedCode</t>
   </si>
   <si>
-    <t>Coded items used during the procedure プロシジャー中に使用したアイテムのコード</t>
+    <t>Coded items used during the procedure プロシジャー中に使用したアイテムのコード。</t>
   </si>
   <si>
     <t>Identifies coded items that were used as part of the procedure.

--- a/jpcore-r4/develop/StructureDefinition-jp-procedure.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-procedure.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3297" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3297" uniqueCount="478">
   <si>
     <t>Property</t>
   </si>
@@ -372,7 +372,7 @@
 </t>
   </si>
   <si>
-    <t>Text summary of the resource, for human interpretation</t>
+    <t>Text summary of the resource, for human interpretation. このリソースを人間が解釈するためのテキスト要約。</t>
   </si>
   <si>
     <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
@@ -532,7 +532,7 @@
 </t>
   </si>
   <si>
-    <t>A request for this procedure このプロシージャの依頼情報。</t>
+    <t>A request for this procedure. このプロシージャの依頼情報。</t>
   </si>
   <si>
     <t>このプロシージャの依頼情報の詳細を含むリソースへの参照。</t>
@@ -559,7 +559,7 @@
 </t>
   </si>
   <si>
-    <t>Part of referenced event このプロシジャーが構成要素やステップとなるより大きな医療行為。</t>
+    <t>Part of referenced event. このプロシジャーが構成要素やステップとなるより大きな医療行為。</t>
   </si>
   <si>
     <t>A larger event of which this particular procedure is a component or step.【JP Core仕様】https://www.hl7.org/fhir/R4/procedure.htmlを参照</t>
@@ -586,7 +586,7 @@
     <t>プロシージャの状態を指定するコードである。一般的には、進行中または完了した状態になる。【JP Core仕様】http://hl7.org/fhir/us/core/STU3.1/StructureDefinition-us-core-procedure.htmlを参照</t>
   </si>
   <si>
-    <t>The "unknown" code is not to be used to convey other statuses.  The "unknown" code should be used when one of the statuses applies, but the authoring system doesn't know the current state of the procedure.
+    <t>The "unknown" code is not to be used to convey other statuses. The "unknown" code should be used when one of the statuses applies, but the authoring system doesn't know the current state of the procedure.
 This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.
 「不明な」コードは、他のステータスを伝えるために使用されるべきではない。ステータスの1つが当てはまる場合、「不明」コードを使用する必要があるが、オーサリングシステムはプロシージャの現在の状態を認識していない。
 ステータスにリソースを現在無効としてマークするコードが含まれているため、この要素は修飾子としてラベル付けされる。</t>
@@ -646,7 +646,7 @@
     <t>Procedure.category</t>
   </si>
   <si>
-    <t>Classification of the procedure このプロシジャーの分類カテゴリ。</t>
+    <t>Classification of the procedure. このプロシジャーの分類カテゴリ。</t>
   </si>
   <si>
     <t>A code that classifies the procedure for searching, sorting and display purposes (e.g. "Surgical Procedure").</t>
@@ -668,7 +668,7 @@
 </t>
   </si>
   <si>
-    <t>Identification of the procedure このプロシジャーの識別子。</t>
+    <t>Identification of the procedure. このプロシジャーの識別子。</t>
   </si>
   <si>
     <t>行われた具体的な手順。手技の正確な性質がコード化できない場合はテキストを使用する（例：「腹腔鏡下虫垂切除術」）</t>
@@ -768,6 +768,9 @@
     <t>medical</t>
   </si>
   <si>
+    <t>医科診療行為マスタ ValueSet</t>
+  </si>
+  <si>
     <t>Procedure.code.coding.id</t>
   </si>
   <si>
@@ -895,6 +898,9 @@
     <t>stem7</t>
   </si>
   <si>
+    <t>歯科診療行為マスタ ValueSet</t>
+  </si>
+  <si>
     <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureCodesSTEM7_VS</t>
   </si>
   <si>
@@ -913,6 +919,9 @@
     <t>nurse</t>
   </si>
   <si>
+    <t>看護行為マスタ ValueSet</t>
+  </si>
+  <si>
     <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureCodesNurse_VS</t>
   </si>
   <si>
@@ -920,6 +929,9 @@
   </si>
   <si>
     <t>ichi</t>
+  </si>
+  <si>
+    <t>ICHI (International Classification of Health Interventions) ValueSet</t>
   </si>
   <si>
     <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureCodesICHI_VS</t>
@@ -963,7 +975,7 @@
 </t>
   </si>
   <si>
-    <t>Who the procedure was performed on 誰にこのプロシジャーが実施されたか。</t>
+    <t>Who the procedure was performed on. 誰にこのプロシジャーが実施されたか。</t>
   </si>
   <si>
     <t>The person, animal or group on which the procedure was performed.
@@ -992,7 +1004,7 @@
 </t>
   </si>
   <si>
-    <t>Encounter created as part of このプロシジャーの記録が作成された受療の状況。</t>
+    <t>Encounter created as part of. このプロシジャーの記録が作成された受療の状況。</t>
   </si>
   <si>
     <t>プロシジャーが作成または実行された受療の状況、またはこの記録の作成が緊密に関連している受療の状況。</t>
@@ -1020,7 +1032,7 @@
 PeriodstringAgeRange</t>
   </si>
   <si>
-    <t>When the procedure was performed いつこのプロシジャーが実施されたか。</t>
+    <t>When the procedure was performed. いつこのプロシジャーが実施されたか。</t>
   </si>
   <si>
     <t>Procedureが行われた推定または実際の日付、日時、期間、または年齢。複数の日付にまたがる複雑なProcedureをサポートするために期間を許可し、Procedureの長さを把握することも可能。</t>
@@ -1051,7 +1063,7 @@
 </t>
   </si>
   <si>
-    <t>Who recorded the procedure このプロシジャーを記録した人。</t>
+    <t>Who recorded the procedure. このプロシジャーを記録した人。</t>
   </si>
   <si>
     <t>Individual who recorded the record and takes responsibility for its content.
@@ -1071,7 +1083,7 @@
     <t>Procedure.asserter</t>
   </si>
   <si>
-    <t>Person who asserts this procedure このプロシジャーの実施の記録者。</t>
+    <t>Person who asserts this procedure. このプロシジャーの実施の記録者。</t>
   </si>
   <si>
     <t>Individual who is making the procedure statement.
@@ -1091,7 +1103,7 @@
 </t>
   </si>
   <si>
-    <t>The people who performed the procedure このプロシジャーの実施者。</t>
+    <t>The people who performed the procedure. このプロシジャーの実施者。</t>
   </si>
   <si>
     <t>Limited to "real" people rather than equipment.
@@ -1163,7 +1175,7 @@
 </t>
   </si>
   <si>
-    <t>The reference to the practitioner 医療従事者への参照。</t>
+    <t>The reference to the practitioner. 医療従事者への参照。</t>
   </si>
   <si>
     <t>The practitioner who was involved in the procedure.
@@ -1195,7 +1207,7 @@
 </t>
   </si>
   <si>
-    <t>Organization the device or practitioner was acting for 従事した組織。</t>
+    <t>Organization the device or practitioner was acting for. 従事した組織。</t>
   </si>
   <si>
     <t>The organization the device or practitioner was acting on behalf of.
@@ -1218,7 +1230,7 @@
 </t>
   </si>
   <si>
-    <t>Where the procedure happened このプロシジャーが実施された場所。</t>
+    <t>Where the procedure happened. このプロシジャーが実施された場所。</t>
   </si>
   <si>
     <t>プロシジャーが実施された場所。
@@ -1237,14 +1249,14 @@
     <t>Procedure.reasonCode</t>
   </si>
   <si>
-    <t>Coded reason procedure performed このプロシジャーが実施された理由コード。</t>
+    <t>Coded reason procedure performed. このプロシジャーが実施された理由コード。</t>
   </si>
   <si>
     <t>処置が行われたコード化された理由。
 これはある種のコード化された実体であるかもしれないし、単にテキストとして存在するかもしれない。</t>
   </si>
   <si>
-    <t>Use Procedure.reasonCode when a code sufficiently describes the reason.  Use Procedure.reasonReference when referencing a resource, which allows more information to be conveyed, such as onset date. Procedure.reasonCode and Procedure.reasonReference are not meant to be duplicative.  For a single reason, either Procedure.reasonCode or Procedure.reasonReference can be used.  Procedure.reasonCode may be a summary code, or Procedure.reasonReference may be used to reference a very precise definition of the reason using Condition | Observation | Procedure | DiagnosticReport | DocumentReference.  Both Procedure.reasonCode and Procedure.reasonReference can be used if they are describing different reasons for the procedure.
+    <t>Use Procedure.reasonCode when a code sufficiently describes the reason. Use Procedure.reasonReference when referencing a resource, which allows more information to be conveyed, such as onset date. Procedure.reasonCode and Procedure.reasonReference are not meant to be duplicative.  For a single reason, either Procedure.reasonCode or Procedure.reasonReference can be used.  Procedure.reasonCode may be a summary code, or Procedure.reasonReference may be used to reference a very precise definition of the reason using Condition | Observation | Procedure | DiagnosticReport | DocumentReference.  Both Procedure.reasonCode and Procedure.reasonReference can be used if they are describing different reasons for the procedure.
 ひとつのコードが理由を十分に説明している場合は、Procedure.reasonCodeを使用する。
 リソースを参照する場合は、Procedure.reasonReferenceを使用する。これにより、開始日など、より多くの情報を伝達できる。
 Procedure.reasonCodeとProcedure.reasonReferenceは、重複することを意図したものではない。単一の理由で、Procedure.reasonCodeまたはProcedure.reasonReferenceのいずれかだけを使用できる。
@@ -1271,7 +1283,7 @@
 </t>
   </si>
   <si>
-    <t>The justification that the procedure was performed このプロシジャーが実施された正当性。</t>
+    <t>The justification that the procedure was performed. このプロシジャーが実施された正当性。</t>
   </si>
   <si>
     <t>なぜそのようなProcedureを行ったのか、その正当性を示す。</t>
@@ -1292,7 +1304,7 @@
     <t>Procedure.bodySite</t>
   </si>
   <si>
-    <t>Target body sites このプロシジャーの対象となった人体部位。</t>
+    <t>Target body sites. このプロシジャーの対象となった人体部位。</t>
   </si>
   <si>
     <t>詳細かつ構造化された解剖学的な位置情報。複数の場所を指定することができる。例えば、1つの病変に対して複数のパンチングバイオプシーを行うことができる。</t>
@@ -1314,7 +1326,7 @@
     <t>Procedure.outcome</t>
   </si>
   <si>
-    <t>The result of procedure このプロシジャーのアウトカム。</t>
+    <t>The result of procedure. このプロシジャーのアウトカム。</t>
   </si>
   <si>
     <t>The outcome of the procedure - did it resolve the reasons for the procedure being performed?
@@ -1338,7 +1350,7 @@
 </t>
   </si>
   <si>
-    <t>Any report resulting from the procedure このプロシジャーの結果報告。</t>
+    <t>Any report resulting from the procedure. このプロシジャーの結果報告。</t>
   </si>
   <si>
     <t>This could be a histology result, pathology report, surgical report, etc.
@@ -1356,7 +1368,7 @@
     <t>Procedure.complication</t>
   </si>
   <si>
-    <t>Complication following the procedure このプロシジャーによる合併症。</t>
+    <t>Complication following the procedure. このプロシジャーによる合併症。</t>
   </si>
   <si>
     <t>Any complications that occurred during the procedure, or in the immediate post-performance period. These are generally tracked separately from the notes, which will typically describe the procedure itself rather than any 'post procedure' issues.
@@ -1380,7 +1392,7 @@
 </t>
   </si>
   <si>
-    <t>A condition that is a result of the procedure このプロシジャーの合併症の結果生じた患者状態。</t>
+    <t>A condition that is a result of the procedure. このプロシジャーの合併症の結果生じた患者状態。</t>
   </si>
   <si>
     <t>Any complications that occurred during the procedure, or in the immediate post-performance period.
@@ -1394,7 +1406,7 @@
     <t>Procedure.followUp</t>
   </si>
   <si>
-    <t>Instructions for follow up 今後のフォローアップ指示。</t>
+    <t>Instructions for follow up. 今後のフォローアップ指示。</t>
   </si>
   <si>
     <t>If the procedure required specific follow up - e.g. removal of sutures. The follow up may be represented as a simple note or could potentially be more complex, in which case the CarePlan resource can be used.
@@ -1418,7 +1430,7 @@
 </t>
   </si>
   <si>
-    <t>Additional information about the procedure このプロシジャーの関する追加情報。</t>
+    <t>Additional information about the procedure. このプロシジャーの関する追加情報。</t>
   </si>
   <si>
     <t>Any other notes and comments about the procedure.
@@ -1442,7 +1454,7 @@
     <t>Procedure.focalDevice</t>
   </si>
   <si>
-    <t>Manipulated, implanted, or removed device このプロシジャーの際に操作、埋め込み、または削除されたデバイス。</t>
+    <t>Manipulated, implanted, or removed device. このプロシジャーの際に操作、埋め込み、または削除されたデバイス。</t>
   </si>
   <si>
     <t>A device that is implanted, removed or otherwise manipulated (calibration, battery replacement, fitting a prosthesis, attaching a wound-vac, etc.) as a focal portion of the Procedure.
@@ -1499,7 +1511,7 @@
 </t>
   </si>
   <si>
-    <t>Items used during procedure プロシジャー中に使用されるアイテム。</t>
+    <t>Items used during procedure. プロシジャー中に使用されるアイテム。</t>
   </si>
   <si>
     <t>Identifies medications, devices and any other substance used as part of the procedure.
@@ -1520,7 +1532,7 @@
     <t>Procedure.usedCode</t>
   </si>
   <si>
-    <t>Coded items used during the procedure プロシジャー中に使用したアイテムのコード。</t>
+    <t>Coded items used during the procedure. プロシジャー中に使用したアイテムのコード。</t>
   </si>
   <si>
     <t>Identifies coded items that were used as part of the procedure.
@@ -4361,7 +4373,7 @@
         <v>229</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="L23" t="s" s="2">
         <v>231</v>
@@ -4446,7 +4458,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4555,7 +4567,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4666,7 +4678,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4692,23 +4704,23 @@
         <v>99</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="R26" t="s" s="2">
         <v>76</v>
@@ -4750,7 +4762,7 @@
         <v>76</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -4768,18 +4780,18 @@
         <v>76</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4805,13 +4817,13 @@
         <v>217</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4861,7 +4873,7 @@
         <v>76</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -4879,18 +4891,18 @@
         <v>76</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4916,14 +4928,14 @@
         <v>105</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>76</v>
@@ -4972,7 +4984,7 @@
         <v>76</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -4990,18 +5002,18 @@
         <v>76</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5027,14 +5039,14 @@
         <v>217</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>76</v>
@@ -5083,7 +5095,7 @@
         <v>76</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -5101,18 +5113,18 @@
         <v>76</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5135,19 +5147,19 @@
         <v>86</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>76</v>
@@ -5196,7 +5208,7 @@
         <v>76</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -5214,13 +5226,13 @@
         <v>76</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="31">
@@ -5228,7 +5240,7 @@
         <v>228</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C31" t="s" s="2">
         <v>76</v>
@@ -5253,7 +5265,7 @@
         <v>229</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>230</v>
+        <v>282</v>
       </c>
       <c r="L31" t="s" s="2">
         <v>231</v>
@@ -5291,7 +5303,7 @@
       </c>
       <c r="X31" s="2"/>
       <c r="Y31" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>76</v>
@@ -5338,7 +5350,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5447,7 +5459,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5558,7 +5570,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5584,23 +5596,23 @@
         <v>99</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="R34" t="s" s="2">
         <v>76</v>
@@ -5642,7 +5654,7 @@
         <v>76</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -5660,18 +5672,18 @@
         <v>76</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5697,13 +5709,13 @@
         <v>217</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5753,7 +5765,7 @@
         <v>76</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -5771,18 +5783,18 @@
         <v>76</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5808,14 +5820,14 @@
         <v>105</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>76</v>
@@ -5864,7 +5876,7 @@
         <v>76</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -5882,18 +5894,18 @@
         <v>76</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5919,14 +5931,14 @@
         <v>217</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>76</v>
@@ -5975,7 +5987,7 @@
         <v>76</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -5993,18 +6005,18 @@
         <v>76</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6027,19 +6039,19 @@
         <v>86</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>76</v>
@@ -6088,7 +6100,7 @@
         <v>76</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6106,13 +6118,13 @@
         <v>76</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="39">
@@ -6120,7 +6132,7 @@
         <v>228</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C39" t="s" s="2">
         <v>76</v>
@@ -6183,7 +6195,7 @@
       </c>
       <c r="X39" s="2"/>
       <c r="Y39" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>76</v>
@@ -6230,7 +6242,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6339,7 +6351,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6450,7 +6462,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6476,23 +6488,23 @@
         <v>99</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="R42" t="s" s="2">
         <v>76</v>
@@ -6534,7 +6546,7 @@
         <v>76</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
@@ -6552,18 +6564,18 @@
         <v>76</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6589,13 +6601,13 @@
         <v>217</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6645,7 +6657,7 @@
         <v>76</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
@@ -6663,18 +6675,18 @@
         <v>76</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6700,14 +6712,14 @@
         <v>105</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>76</v>
@@ -6756,7 +6768,7 @@
         <v>76</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
@@ -6774,18 +6786,18 @@
         <v>76</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6811,14 +6823,14 @@
         <v>217</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>76</v>
@@ -6867,7 +6879,7 @@
         <v>76</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -6885,18 +6897,18 @@
         <v>76</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6919,19 +6931,19 @@
         <v>86</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>76</v>
@@ -6980,7 +6992,7 @@
         <v>76</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
@@ -6998,13 +7010,13 @@
         <v>76</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="47">
@@ -7012,7 +7024,7 @@
         <v>228</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C47" t="s" s="2">
         <v>76</v>
@@ -7037,7 +7049,7 @@
         <v>229</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>230</v>
+        <v>289</v>
       </c>
       <c r="L47" t="s" s="2">
         <v>231</v>
@@ -7075,7 +7087,7 @@
       </c>
       <c r="X47" s="2"/>
       <c r="Y47" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>76</v>
@@ -7122,7 +7134,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7231,7 +7243,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7342,7 +7354,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7368,23 +7380,23 @@
         <v>99</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="R50" t="s" s="2">
         <v>76</v>
@@ -7426,7 +7438,7 @@
         <v>76</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -7444,18 +7456,18 @@
         <v>76</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7481,13 +7493,13 @@
         <v>217</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7537,7 +7549,7 @@
         <v>76</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -7555,18 +7567,18 @@
         <v>76</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7592,14 +7604,14 @@
         <v>105</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>76</v>
@@ -7648,7 +7660,7 @@
         <v>76</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -7666,18 +7678,18 @@
         <v>76</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7703,14 +7715,14 @@
         <v>217</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>76</v>
@@ -7759,7 +7771,7 @@
         <v>76</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -7777,18 +7789,18 @@
         <v>76</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7811,19 +7823,19 @@
         <v>86</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>76</v>
@@ -7872,7 +7884,7 @@
         <v>76</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -7890,13 +7902,13 @@
         <v>76</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="55">
@@ -7904,7 +7916,7 @@
         <v>228</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C55" t="s" s="2">
         <v>76</v>
@@ -7929,7 +7941,7 @@
         <v>229</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>230</v>
+        <v>293</v>
       </c>
       <c r="L55" t="s" s="2">
         <v>231</v>
@@ -7967,7 +7979,7 @@
       </c>
       <c r="X55" s="2"/>
       <c r="Y55" t="s" s="2">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>76</v>
@@ -8014,7 +8026,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8123,7 +8135,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8234,7 +8246,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8260,23 +8272,23 @@
         <v>99</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P58" s="2"/>
       <c r="Q58" t="s" s="2">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="R58" t="s" s="2">
         <v>76</v>
@@ -8318,7 +8330,7 @@
         <v>76</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -8336,18 +8348,18 @@
         <v>76</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8373,13 +8385,13 @@
         <v>217</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8429,7 +8441,7 @@
         <v>76</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -8447,18 +8459,18 @@
         <v>76</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8484,14 +8496,14 @@
         <v>105</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>76</v>
@@ -8540,7 +8552,7 @@
         <v>76</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -8558,18 +8570,18 @@
         <v>76</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8595,14 +8607,14 @@
         <v>217</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>76</v>
@@ -8651,7 +8663,7 @@
         <v>76</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -8669,18 +8681,18 @@
         <v>76</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8703,19 +8715,19 @@
         <v>86</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>76</v>
@@ -8764,7 +8776,7 @@
         <v>76</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -8782,18 +8794,18 @@
         <v>76</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8819,16 +8831,16 @@
         <v>217</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>76</v>
@@ -8877,7 +8889,7 @@
         <v>76</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -8895,22 +8907,22 @@
         <v>76</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -8929,16 +8941,16 @@
         <v>86</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -8988,7 +9000,7 @@
         <v>76</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>85</v>
@@ -9003,21 +9015,21 @@
         <v>97</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9040,16 +9052,16 @@
         <v>86</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -9099,7 +9111,7 @@
         <v>76</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -9114,21 +9126,21 @@
         <v>97</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>318</v>
+        <v>322</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9151,16 +9163,16 @@
         <v>86</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -9210,7 +9222,7 @@
         <v>76</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -9225,21 +9237,21 @@
         <v>97</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>327</v>
+        <v>331</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9262,16 +9274,16 @@
         <v>86</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -9321,7 +9333,7 @@
         <v>76</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -9339,10 +9351,10 @@
         <v>76</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>76</v>
@@ -9350,7 +9362,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9373,16 +9385,16 @@
         <v>86</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="M68" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -9432,7 +9444,7 @@
         <v>76</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -9450,10 +9462,10 @@
         <v>76</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>76</v>
@@ -9461,7 +9473,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9484,13 +9496,13 @@
         <v>86</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -9541,7 +9553,7 @@
         <v>76</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
@@ -9556,10 +9568,10 @@
         <v>97</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>76</v>
@@ -9570,7 +9582,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9679,7 +9691,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9790,11 +9802,11 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -9816,10 +9828,10 @@
         <v>131</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="M72" t="s" s="2">
         <v>134</v>
@@ -9874,7 +9886,7 @@
         <v>76</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -9903,7 +9915,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9929,16 +9941,16 @@
         <v>191</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>76</v>
@@ -9967,7 +9979,7 @@
       </c>
       <c r="X73" s="2"/>
       <c r="Y73" t="s" s="2">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>76</v>
@@ -9985,7 +9997,7 @@
         <v>76</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -10000,21 +10012,21 @@
         <v>97</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>361</v>
+        <v>365</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10037,19 +10049,19 @@
         <v>86</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>76</v>
@@ -10098,7 +10110,7 @@
         <v>76</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>85</v>
@@ -10113,21 +10125,21 @@
         <v>97</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>371</v>
+        <v>375</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10150,19 +10162,19 @@
         <v>76</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>76</v>
@@ -10211,7 +10223,7 @@
         <v>76</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
@@ -10229,7 +10241,7 @@
         <v>76</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>76</v>
@@ -10240,7 +10252,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10263,19 +10275,19 @@
         <v>86</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>76</v>
@@ -10324,7 +10336,7 @@
         <v>76</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
@@ -10342,10 +10354,10 @@
         <v>76</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>76</v>
@@ -10353,7 +10365,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10379,13 +10391,13 @@
         <v>191</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -10415,25 +10427,25 @@
       </c>
       <c r="X77" s="2"/>
       <c r="Y77" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE77" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>386</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
@@ -10448,13 +10460,13 @@
         <v>97</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>76</v>
@@ -10462,7 +10474,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10485,16 +10497,16 @@
         <v>86</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
@@ -10544,7 +10556,7 @@
         <v>76</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
@@ -10559,13 +10571,13 @@
         <v>97</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>76</v>
@@ -10573,7 +10585,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10599,13 +10611,13 @@
         <v>191</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
@@ -10635,25 +10647,25 @@
       </c>
       <c r="X79" s="2"/>
       <c r="Y79" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE79" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="Z79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>400</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
@@ -10671,18 +10683,18 @@
         <v>76</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>406</v>
+        <v>410</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10708,13 +10720,13 @@
         <v>191</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
@@ -10744,25 +10756,25 @@
       </c>
       <c r="X80" s="2"/>
       <c r="Y80" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE80" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="Z80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>77</v>
@@ -10780,7 +10792,7 @@
         <v>76</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>76</v>
@@ -10791,7 +10803,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10814,16 +10826,16 @@
         <v>76</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
@@ -10873,7 +10885,7 @@
         <v>76</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
@@ -10891,7 +10903,7 @@
         <v>76</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>76</v>
@@ -10902,7 +10914,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10928,13 +10940,13 @@
         <v>191</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
@@ -10964,25 +10976,25 @@
       </c>
       <c r="X82" s="2"/>
       <c r="Y82" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE82" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="Z82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>419</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>77</v>
@@ -11000,7 +11012,7 @@
         <v>76</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>76</v>
@@ -11011,7 +11023,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11034,19 +11046,19 @@
         <v>76</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>76</v>
@@ -11095,7 +11107,7 @@
         <v>76</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
@@ -11113,7 +11125,7 @@
         <v>76</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>76</v>
@@ -11124,7 +11136,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11150,13 +11162,13 @@
         <v>191</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
@@ -11186,25 +11198,25 @@
       </c>
       <c r="X84" s="2"/>
       <c r="Y84" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE84" t="s" s="2">
         <v>434</v>
-      </c>
-      <c r="Z84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE84" t="s" s="2">
-        <v>430</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>77</v>
@@ -11222,7 +11234,7 @@
         <v>76</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>76</v>
@@ -11233,7 +11245,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11256,16 +11268,16 @@
         <v>76</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
@@ -11315,7 +11327,7 @@
         <v>76</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>77</v>
@@ -11330,21 +11342,21 @@
         <v>97</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>443</v>
+        <v>447</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11367,13 +11379,13 @@
         <v>76</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -11424,7 +11436,7 @@
         <v>76</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>77</v>
@@ -11442,7 +11454,7 @@
         <v>76</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>76</v>
@@ -11453,7 +11465,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11562,7 +11574,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11673,11 +11685,11 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
@@ -11699,10 +11711,10 @@
         <v>131</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="M89" t="s" s="2">
         <v>134</v>
@@ -11757,7 +11769,7 @@
         <v>76</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>77</v>
@@ -11786,7 +11798,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -11812,10 +11824,10 @@
         <v>191</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
@@ -11846,7 +11858,7 @@
       </c>
       <c r="X90" s="2"/>
       <c r="Y90" t="s" s="2">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="Z90" t="s" s="2">
         <v>76</v>
@@ -11864,7 +11876,7 @@
         <v>76</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>77</v>
@@ -11882,7 +11894,7 @@
         <v>76</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>76</v>
@@ -11893,7 +11905,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -11916,13 +11928,13 @@
         <v>76</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -11973,7 +11985,7 @@
         <v>76</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>85</v>
@@ -11991,7 +12003,7 @@
         <v>76</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>76</v>
@@ -12002,7 +12014,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12025,19 +12037,19 @@
         <v>76</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>76</v>
@@ -12086,7 +12098,7 @@
         <v>76</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>77</v>
@@ -12104,7 +12116,7 @@
         <v>76</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>76</v>
@@ -12115,7 +12127,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12141,13 +12153,13 @@
         <v>191</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
@@ -12177,25 +12189,25 @@
       </c>
       <c r="X93" s="2"/>
       <c r="Y93" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE93" t="s" s="2">
         <v>472</v>
-      </c>
-      <c r="Z93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE93" t="s" s="2">
-        <v>468</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>77</v>
@@ -12213,7 +12225,7 @@
         <v>76</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>76</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-procedure.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-procedure.xlsx
@@ -1142,7 +1142,7 @@
     <t>Procedure.performer.function</t>
   </si>
   <si>
-    <t xml:space="preserve">	Type of performance 実施者の役割（ロール）</t>
+    <t>Type of performance 実施者の役割（ロール）</t>
   </si>
   <si>
     <t>Distinguishes the type of involvement of the performer in the procedure. For example, surgeon, anaesthetist, endoscopist.

--- a/jpcore-r4/develop/StructureDefinition-jp-procedure.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-procedure.xlsx
@@ -497,7 +497,7 @@
     <t>Instantiates FHIR protocol or definition</t>
   </si>
   <si>
-    <t>本Procedureの全部または一部を遵守するFHIR定義のプロトコル、ガイドライン、オーダーセット、その他の定義を指すURL。</t>
+    <t>本Procedureの全部または一部を遵守するFHIR定義のプロトコル、ガイドライン、オーダセット、その他の定義を指すURL。</t>
   </si>
   <si>
     <t>Event.instantiatesCanonical</t>
@@ -512,7 +512,7 @@
     <t>Instantiates external protocol or definition</t>
   </si>
   <si>
-    <t>本Procedure全体または一部を遵守する、外部で管理されているプロトコル、ガイドライン、オーダーセット、またはその他の定義を指すURL。</t>
+    <t>本Procedure全体または一部を遵守する、外部で管理されているプロトコル、ガイドライン、オーダセット、またはその他の定義を指すURL。</t>
   </si>
   <si>
     <t>This might be an HTML page, PDF, etc. or could just be a non-resolvable URI identifier.</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-procedure.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-procedure.xlsx
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16</t>
+    <t>2022-09-26</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-procedure.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-procedure.xlsx
@@ -1041,7 +1041,7 @@
     <t>Age is generally used when the patient reports an age at which the procedure was performed. Range is generally used when the patient reports an age range when the procedure was performed, such as sometime between 20-25 years old.  dateTime supports a range of precision due to some procedures being reported as past procedures that might not have millisecond precision while other procedures performed and documented during the encounter might have more precise UTC timestamps with timezone.
 年齢は一般的に、患者が手技が行われた年齢を報告するときに使用される。
 範囲は、一般的に、患者が手順が実行されたときに年齢範囲を報告する場合に使用される。たとえば、20〜25歳の間など。
-dateTimeは、ミリ秒の精度を持たない可能性がある過去の手順として報告される一部の手順と、エンカウンターの期間において実施され文書化された他の手順が、タイムゾーンでより正確なUTCタイムスタンプを持つ可能性があるため、さまざまな精度をサポートする。</t>
+dateTimeは、ミリ秒の精度を持たない可能性がある過去の手順として報告される一部の手順と、Encounterの期間において実施され文書化された他の手順が、タイムゾーンでより正確なUTCタイムスタンプを持つ可能性があるため、さまざまな精度をサポートする。</t>
   </si>
   <si>
     <t>Event.occurrence[x]</t>
@@ -1414,7 +1414,7 @@
   </si>
   <si>
     <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.
-すべてのターミノロジーの使用がこの一般的なパターンに適合するわけではない。場合によっては、モデルはCodeableConceptを使用せず、コーディングを直接使用して、テキスト、コーディング、翻訳、および要素間の関係と調整前後の関係を管理するための独自の構造を提供する必要がある。</t>
+すべてのターミノロジの使用がこの一般的なパターンに適合するわけではない。場合によっては、モデルはCodeableConceptを使用せず、コーディングを直接使用して、テキスト、コーディング、翻訳、および要素間の関係と調整前後の関係を管理するための独自の構造を提供する必要がある。</t>
   </si>
   <si>
     <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureFollowUp_VS</t>
@@ -1439,7 +1439,7 @@
   <si>
     <t>For systems that do not have structured annotations, they can simply communicate a single annotation with no author or time.  This element may need to be included in narrative because of the potential for modifying information.  *Annotations SHOULD NOT* be used to communicate "modifying" information that could be computable. (This is a SHOULD because enforcing user behavior is nearly impossible).
 構造化された注釈（アノテーション）を持たないシステムの場合、作成者や時間なしで単一の注釈を簡単に伝達できる。情報を変更する可能性があるため、この要素をナラティブに含める必要がある場合がある。 
-*注釈は、計算機処理れきる「変更」情報を伝達するために使用されるべきではない*。 （ユーザーの行動を強制することはほとんど不可能であるため、これはSHOULDとする）。</t>
+*注釈は、計算機処理れきる「変更」情報を伝達するために使用されるべきではない*。 （ユーザの行動を強制することはほとんど不可能であるため、これはSHOULDとする）。</t>
   </si>
   <si>
     <t>Event.note</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-procedure.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-procedure.xlsx
@@ -372,7 +372,7 @@
 </t>
   </si>
   <si>
-    <t>Text summary of the resource, for human interpretation. このリソースを人間が解釈するためのテキスト要約。</t>
+    <t>Text summary of the resource, for human interpretation. このリソースを人間が解釈するためのテキスト要約</t>
   </si>
   <si>
     <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
@@ -532,7 +532,7 @@
 </t>
   </si>
   <si>
-    <t>A request for this procedure. このプロシージャの依頼情報。</t>
+    <t>A request for this procedure. このプロシージャの依頼情報</t>
   </si>
   <si>
     <t>このプロシージャの依頼情報の詳細を含むリソースへの参照。</t>
@@ -559,7 +559,7 @@
 </t>
   </si>
   <si>
-    <t>Part of referenced event. このプロシジャーが構成要素やステップとなるより大きな医療行為。</t>
+    <t>Part of referenced event. このプロシジャーが構成要素やステップとなるより大きな医療行為</t>
   </si>
   <si>
     <t>A larger event of which this particular procedure is a component or step.【JP Core仕様】https://www.hl7.org/fhir/R4/procedure.htmlを参照</t>
@@ -646,7 +646,7 @@
     <t>Procedure.category</t>
   </si>
   <si>
-    <t>Classification of the procedure. このプロシジャーの分類カテゴリ。</t>
+    <t>Classification of the procedure. このプロシジャーの分類カテゴリ</t>
   </si>
   <si>
     <t>A code that classifies the procedure for searching, sorting and display purposes (e.g. "Surgical Procedure").</t>
@@ -668,7 +668,7 @@
 </t>
   </si>
   <si>
-    <t>Identification of the procedure. このプロシジャーの識別子。</t>
+    <t>Identification of the procedure. このプロシジャーの識別子</t>
   </si>
   <si>
     <t>行われた具体的な手順。手技の正確な性質がコード化できない場合はテキストを使用する（例：「腹腔鏡下虫垂切除術」）</t>
@@ -975,7 +975,7 @@
 </t>
   </si>
   <si>
-    <t>Who the procedure was performed on. 誰にこのプロシジャーが実施されたか。</t>
+    <t>Who the procedure was performed on. 誰にこのプロシジャーが実施されたか</t>
   </si>
   <si>
     <t>The person, animal or group on which the procedure was performed.
@@ -1004,7 +1004,7 @@
 </t>
   </si>
   <si>
-    <t>Encounter created as part of. このプロシジャーの記録が作成された受療の状況。</t>
+    <t>Encounter created as part of. このプロシジャーの記録が作成された受療の状況</t>
   </si>
   <si>
     <t>プロシジャーが作成または実行された受療の状況、またはこの記録の作成が緊密に関連している受療の状況。</t>
@@ -1032,7 +1032,7 @@
 PeriodstringAgeRange</t>
   </si>
   <si>
-    <t>When the procedure was performed. いつこのプロシジャーが実施されたか。</t>
+    <t>When the procedure was performed. いつこのプロシジャーが実施されたか</t>
   </si>
   <si>
     <t>Procedureが行われた推定または実際の日付、日時、期間、または年齢。複数の日付にまたがる複雑なProcedureをサポートするために期間を許可し、Procedureの長さを把握することも可能。</t>
@@ -1063,7 +1063,7 @@
 </t>
   </si>
   <si>
-    <t>Who recorded the procedure. このプロシジャーを記録した人。</t>
+    <t>Who recorded the procedure. このプロシジャーを記録した人</t>
   </si>
   <si>
     <t>Individual who recorded the record and takes responsibility for its content.
@@ -1083,7 +1083,7 @@
     <t>Procedure.asserter</t>
   </si>
   <si>
-    <t>Person who asserts this procedure. このプロシジャーの実施の記録者。</t>
+    <t>Person who asserts this procedure. このプロシジャーの実施の記録者</t>
   </si>
   <si>
     <t>Individual who is making the procedure statement.
@@ -1103,7 +1103,7 @@
 </t>
   </si>
   <si>
-    <t>The people who performed the procedure. このプロシジャーの実施者。</t>
+    <t>The people who performed the procedure. このプロシジャーの実施者</t>
   </si>
   <si>
     <t>Limited to "real" people rather than equipment.
@@ -1175,7 +1175,7 @@
 </t>
   </si>
   <si>
-    <t>The reference to the practitioner. 医療従事者への参照。</t>
+    <t>The reference to the practitioner. 医療従事者への参照</t>
   </si>
   <si>
     <t>The practitioner who was involved in the procedure.
@@ -1207,7 +1207,7 @@
 </t>
   </si>
   <si>
-    <t>Organization the device or practitioner was acting for. 従事した組織。</t>
+    <t>Organization the device or practitioner was acting for. 従事した組織</t>
   </si>
   <si>
     <t>The organization the device or practitioner was acting on behalf of.
@@ -1230,7 +1230,7 @@
 </t>
   </si>
   <si>
-    <t>Where the procedure happened. このプロシジャーが実施された場所。</t>
+    <t>Where the procedure happened. このプロシジャーが実施された場所</t>
   </si>
   <si>
     <t>プロシジャーが実施された場所。
@@ -1249,7 +1249,7 @@
     <t>Procedure.reasonCode</t>
   </si>
   <si>
-    <t>Coded reason procedure performed. このプロシジャーが実施された理由コード。</t>
+    <t>Coded reason procedure performed. このプロシジャーが実施された理由コード</t>
   </si>
   <si>
     <t>処置が行われたコード化された理由。
@@ -1283,7 +1283,7 @@
 </t>
   </si>
   <si>
-    <t>The justification that the procedure was performed. このプロシジャーが実施された正当性。</t>
+    <t>The justification that the procedure was performed. このプロシジャーが実施された正当性</t>
   </si>
   <si>
     <t>なぜそのようなProcedureを行ったのか、その正当性を示す。</t>
@@ -1304,7 +1304,7 @@
     <t>Procedure.bodySite</t>
   </si>
   <si>
-    <t>Target body sites. このプロシジャーの対象となった人体部位。</t>
+    <t>Target body sites. このプロシジャーの対象となった人体部位</t>
   </si>
   <si>
     <t>詳細かつ構造化された解剖学的な位置情報。複数の場所を指定することができる。例えば、1つの病変に対して複数のパンチングバイオプシーを行うことができる。</t>
@@ -1326,7 +1326,7 @@
     <t>Procedure.outcome</t>
   </si>
   <si>
-    <t>The result of procedure. このプロシジャーのアウトカム。</t>
+    <t>The result of procedure. このプロシジャーのアウトカム</t>
   </si>
   <si>
     <t>The outcome of the procedure - did it resolve the reasons for the procedure being performed?
@@ -1350,7 +1350,7 @@
 </t>
   </si>
   <si>
-    <t>Any report resulting from the procedure. このプロシジャーの結果報告。</t>
+    <t>Any report resulting from the procedure. このプロシジャーの結果報告</t>
   </si>
   <si>
     <t>This could be a histology result, pathology report, surgical report, etc.
@@ -1368,7 +1368,7 @@
     <t>Procedure.complication</t>
   </si>
   <si>
-    <t>Complication following the procedure. このプロシジャーによる合併症。</t>
+    <t>Complication following the procedure. このプロシジャーによる合併症</t>
   </si>
   <si>
     <t>Any complications that occurred during the procedure, or in the immediate post-performance period. These are generally tracked separately from the notes, which will typically describe the procedure itself rather than any 'post procedure' issues.
@@ -1392,7 +1392,7 @@
 </t>
   </si>
   <si>
-    <t>A condition that is a result of the procedure. このプロシジャーの合併症の結果生じた患者状態。</t>
+    <t>A condition that is a result of the procedure. このプロシジャーの合併症の結果生じた患者状態</t>
   </si>
   <si>
     <t>Any complications that occurred during the procedure, or in the immediate post-performance period.
@@ -1406,7 +1406,7 @@
     <t>Procedure.followUp</t>
   </si>
   <si>
-    <t>Instructions for follow up. 今後のフォローアップ指示。</t>
+    <t>Instructions for follow up. 今後のフォローアップ指示</t>
   </si>
   <si>
     <t>If the procedure required specific follow up - e.g. removal of sutures. The follow up may be represented as a simple note or could potentially be more complex, in which case the CarePlan resource can be used.
@@ -1430,7 +1430,7 @@
 </t>
   </si>
   <si>
-    <t>Additional information about the procedure. このプロシジャーの関する追加情報。</t>
+    <t>Additional information about the procedure. このプロシジャーの関する追加情報</t>
   </si>
   <si>
     <t>Any other notes and comments about the procedure.
@@ -1454,7 +1454,7 @@
     <t>Procedure.focalDevice</t>
   </si>
   <si>
-    <t>Manipulated, implanted, or removed device. このプロシジャーの際に操作、埋め込み、または削除されたデバイス。</t>
+    <t>Manipulated, implanted, or removed device. このプロシジャーの際に操作、埋め込み、または削除されたデバイス</t>
   </si>
   <si>
     <t>A device that is implanted, removed or otherwise manipulated (calibration, battery replacement, fitting a prosthesis, attaching a wound-vac, etc.) as a focal portion of the Procedure.
@@ -1511,7 +1511,7 @@
 </t>
   </si>
   <si>
-    <t>Items used during procedure. プロシジャー中に使用されるアイテム。</t>
+    <t>Items used during procedure. プロシジャー中に使用されるアイテム</t>
   </si>
   <si>
     <t>Identifies medications, devices and any other substance used as part of the procedure.
@@ -1532,7 +1532,7 @@
     <t>Procedure.usedCode</t>
   </si>
   <si>
-    <t>Coded items used during the procedure. プロシジャー中に使用したアイテムのコード。</t>
+    <t>Coded items used during the procedure. プロシジャー中に使用したアイテムのコード</t>
   </si>
   <si>
     <t>Identifies coded items that were used as part of the procedure.

--- a/jpcore-r4/develop/StructureDefinition-jp-procedure.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-procedure.xlsx
@@ -634,7 +634,7 @@
     <t>example</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureNotPerformedReason_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ProcedureNotPerformedReason_VS</t>
   </si>
   <si>
     <t>Event.statusReason</t>
@@ -652,7 +652,7 @@
     <t>A code that classifies the procedure for searching, sorting and display purposes (e.g. "Surgical Procedure").</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureCategory_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ProcedureCategory_VS</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
@@ -680,7 +680,7 @@
     <t>0..1 to account for primarily narrative only resources.</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureCodesMedical_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ProcedureCodesMedical_VS</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -792,7 +792,7 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_ProcedureCodesMedical_CS</t>
+    <t>http://jpfhir.jp/fhir/core/CodeSystem/JP_ProcedureCodesMedical_CS</t>
   </si>
   <si>
     <t>Coding.system</t>
@@ -901,19 +901,19 @@
     <t>歯科診療行為マスタ ValueSet</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureCodesSTEM7_VS</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_ProcedureCodesSTEM7_CS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ProcedureCodesSTEM7_VS</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/core/CodeSystem/JP_ProcedureCodesSTEM7_CS</t>
   </si>
   <si>
     <t>dental</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureCodesDental_VS</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_ProcedureCodesDental_CS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ProcedureCodesDental_VS</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/core/CodeSystem/JP_ProcedureCodesDental_CS</t>
   </si>
   <si>
     <t>nurse</t>
@@ -922,10 +922,10 @@
     <t>看護行為マスタ ValueSet</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureCodesNurse_VS</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_ProcedureCodesNurse_CS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ProcedureCodesNurse_VS</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/core/CodeSystem/JP_ProcedureCodesNurse_CS</t>
   </si>
   <si>
     <t>ichi</t>
@@ -934,10 +934,10 @@
     <t>ICHI (International Classification of Health Interventions) ValueSet</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureCodesICHI_VS</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_Undefined_CS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ProcedureCodesICHI_VS</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/core/CodeSystem/JP_Undefined_CS</t>
   </si>
   <si>
     <t>Procedure.code.text</t>
@@ -1156,7 +1156,7 @@
     <t>Allows disambiguation of the types of involvement of different performers.</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedurePerformerRole_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ProcedurePerformerRole_VS</t>
   </si>
   <si>
     <t>Event.performer.function</t>
@@ -1264,7 +1264,7 @@
 もしプロシージャの異なる理由を説明しているのであれば、Procedure.reasonCodeとProcedure.reasonReferenceの両方を使用できる。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureReason_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ProcedureReason_VS</t>
   </si>
   <si>
     <t>Event.reasonCode</t>
@@ -1314,7 +1314,7 @@
 ユースケースでBodySiteリソースの属性が必要な場合（たとえば、個別に識別して追跡するため）、標準の拡張extension [procedure-targetbodystructure]（extension-procedure-targetbodystructure.html）を使用する。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureBodySite_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ProcedureBodySite_VS</t>
   </si>
   <si>
     <t>.targetSiteCode</t>
@@ -1337,7 +1337,7 @@
 結果に叙述的記述トのみが含まれている場合は、CodeableConcept.textを使用してその情報を格納できる。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureOutcome_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ProcedureOutcome_VS</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=OUT].target.text</t>
@@ -1379,7 +1379,7 @@
 合併症が叙述的なテキストによってのみ表現されている場合は、CodeableConcept.textに格納できる。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureCondition_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ProcedureCondition_VS</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=OUTC].target[classCode=OBS, code="complication", moodCode=EVN].value</t>
@@ -1417,7 +1417,7 @@
 すべてのターミノロジの使用がこの一般的なパターンに適合するわけではない。場合によっては、モデルはCodeableConceptを使用せず、コーディングを直接使用して、テキスト、コーディング、翻訳、および要素間の関係と調整前後の関係を管理するための独自の構造を提供する必要がある。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureFollowUp_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ProcedureFollowUp_VS</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=COMP].target[classCode=ACT, moodCode=INT].code</t>
@@ -1482,7 +1482,7 @@
     <t>Procedure中にデバイスに起こった変化の種類。【JP Core仕様】https://www.hl7.org/fhir/R4/procedure.htmlを参照</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureDeviceAction_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ProcedureDeviceAction_VS</t>
   </si>
   <si>
     <t>.inboundRelationship[typeCode=SUBJ].source[classCode=OBS, moodCode=EVN, code="procedure device action"].value=:procedure device action codes</t>
@@ -1543,7 +1543,7 @@
 実際に埋め込まれた、または取り外されたデバイスについては、Procedure.deviceを使用すること。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureDeviceKind_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ProcedureDeviceKind_VS</t>
   </si>
   <si>
     <t>participation[typeCode=Dev].role[classCode=MANU]</t>
@@ -1886,7 +1886,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="42.5234375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="70.4296875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="66.18359375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/develop/StructureDefinition-jp-procedure.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-procedure.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0a</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-26</t>
+    <t>2022-10-24</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-procedure.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-procedure.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -527,7 +527,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_CarePlan|ServiceRequest)
+    <t xml:space="preserve">Reference(CarePlan|ServiceRequest)
 </t>
   </si>
   <si>

--- a/jpcore-r4/develop/StructureDefinition-jp-procedure.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-procedure.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3390" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3390" uniqueCount="520">
   <si>
     <t>Property</t>
   </si>
@@ -927,42 +927,45 @@
     <t>stem7</t>
   </si>
   <si>
+    <t>STEM7 外保連手術基幹コード ValueSet</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ProcedureCodesSTEM7_VS</t>
+  </si>
+  <si>
+    <t>Procedure.code.coding:stem7.id</t>
+  </si>
+  <si>
+    <t>Procedure.code.coding:stem7.extension</t>
+  </si>
+  <si>
+    <t>Procedure.code.coding:stem7.system</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/core/CodeSystem/JP_ProcedureCodesSTEM7_CS</t>
+  </si>
+  <si>
+    <t>Procedure.code.coding:stem7.version</t>
+  </si>
+  <si>
+    <t>Procedure.code.coding:stem7.code</t>
+  </si>
+  <si>
+    <t>Procedure.code.coding:stem7.display</t>
+  </si>
+  <si>
+    <t>Procedure.code.coding:stem7.userSelected</t>
+  </si>
+  <si>
+    <t>Procedure.code.coding:dental</t>
+  </si>
+  <si>
+    <t>dental</t>
+  </si>
+  <si>
     <t>歯科診療行為マスタ ValueSet</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ProcedureCodesSTEM7_VS</t>
-  </si>
-  <si>
-    <t>Procedure.code.coding:stem7.id</t>
-  </si>
-  <si>
-    <t>Procedure.code.coding:stem7.extension</t>
-  </si>
-  <si>
-    <t>Procedure.code.coding:stem7.system</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/core/CodeSystem/JP_ProcedureCodesSTEM7_CS</t>
-  </si>
-  <si>
-    <t>Procedure.code.coding:stem7.version</t>
-  </si>
-  <si>
-    <t>Procedure.code.coding:stem7.code</t>
-  </si>
-  <si>
-    <t>Procedure.code.coding:stem7.display</t>
-  </si>
-  <si>
-    <t>Procedure.code.coding:stem7.userSelected</t>
-  </si>
-  <si>
-    <t>Procedure.code.coding:dental</t>
-  </si>
-  <si>
-    <t>dental</t>
-  </si>
-  <si>
     <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ProcedureCodesDental_VS</t>
   </si>
   <si>
@@ -1032,7 +1035,7 @@
     <t>ichi</t>
   </si>
   <si>
-    <t>ICHI (International Classification of Health Interventions) ValueSet</t>
+    <t>WHO ICHI (International Classification of Health Interventions) ValueSet</t>
   </si>
   <si>
     <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ProcedureCodesICHI_VS</t>
@@ -6396,7 +6399,7 @@
         <v>230</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>231</v>
+        <v>304</v>
       </c>
       <c r="M39" t="s" s="2">
         <v>232</v>
@@ -6434,7 +6437,7 @@
       </c>
       <c r="Y39" s="2"/>
       <c r="Z39" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>78</v>
@@ -6481,7 +6484,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>243</v>
@@ -6593,7 +6596,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>245</v>
@@ -6707,7 +6710,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>247</v>
@@ -6752,7 +6755,7 @@
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="S42" t="s" s="2">
         <v>78</v>
@@ -6823,7 +6826,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>257</v>
@@ -6937,7 +6940,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B44" t="s" s="2">
         <v>265</v>
@@ -7051,7 +7054,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>273</v>
@@ -7165,7 +7168,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>281</v>
@@ -7281,13 +7284,13 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B47" t="s" s="2">
         <v>229</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D47" t="s" s="2">
         <v>78</v>
@@ -7312,7 +7315,7 @@
         <v>230</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M47" t="s" s="2">
         <v>232</v>
@@ -7350,7 +7353,7 @@
       </c>
       <c r="Y47" s="2"/>
       <c r="Z47" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>78</v>
@@ -7397,7 +7400,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>243</v>
@@ -7509,7 +7512,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B49" t="s" s="2">
         <v>245</v>
@@ -7623,7 +7626,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B50" t="s" s="2">
         <v>247</v>
@@ -7668,7 +7671,7 @@
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="S50" t="s" s="2">
         <v>78</v>
@@ -7739,7 +7742,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B51" t="s" s="2">
         <v>257</v>
@@ -7853,7 +7856,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B52" t="s" s="2">
         <v>265</v>
@@ -7967,7 +7970,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>273</v>
@@ -8081,7 +8084,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B54" t="s" s="2">
         <v>281</v>
@@ -8197,13 +8200,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>229</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>78</v>
@@ -8228,7 +8231,7 @@
         <v>230</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M55" t="s" s="2">
         <v>232</v>
@@ -8266,7 +8269,7 @@
       </c>
       <c r="Y55" s="2"/>
       <c r="Z55" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>78</v>
@@ -8313,7 +8316,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>243</v>
@@ -8425,7 +8428,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>245</v>
@@ -8539,7 +8542,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>247</v>
@@ -8584,7 +8587,7 @@
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>78</v>
@@ -8655,7 +8658,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>257</v>
@@ -8769,7 +8772,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>265</v>
@@ -8883,7 +8886,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>273</v>
@@ -8997,7 +9000,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>281</v>
@@ -9113,10 +9116,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9142,16 +9145,16 @@
         <v>218</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>78</v>
@@ -9200,7 +9203,7 @@
         <v>78</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
@@ -9218,25 +9221,25 @@
         <v>78</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9255,16 +9258,16 @@
         <v>87</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9314,7 +9317,7 @@
         <v>78</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>86</v>
@@ -9329,24 +9332,24 @@
         <v>98</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9369,16 +9372,16 @@
         <v>87</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9428,7 +9431,7 @@
         <v>78</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>79</v>
@@ -9443,24 +9446,24 @@
         <v>98</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9483,16 +9486,16 @@
         <v>87</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -9542,7 +9545,7 @@
         <v>78</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>79</v>
@@ -9557,24 +9560,24 @@
         <v>98</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9597,16 +9600,16 @@
         <v>87</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9656,7 +9659,7 @@
         <v>78</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>79</v>
@@ -9674,10 +9677,10 @@
         <v>78</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>78</v>
@@ -9685,10 +9688,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9711,16 +9714,16 @@
         <v>87</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -9770,7 +9773,7 @@
         <v>78</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>79</v>
@@ -9788,10 +9791,10 @@
         <v>78</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>78</v>
@@ -9799,10 +9802,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9825,13 +9828,13 @@
         <v>87</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -9882,7 +9885,7 @@
         <v>78</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>79</v>
@@ -9897,10 +9900,10 @@
         <v>98</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>78</v>
@@ -9911,10 +9914,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10023,10 +10026,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10137,14 +10140,14 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
@@ -10166,10 +10169,10 @@
         <v>132</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N72" t="s" s="2">
         <v>135</v>
@@ -10224,7 +10227,7 @@
         <v>78</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>79</v>
@@ -10253,10 +10256,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10282,16 +10285,16 @@
         <v>192</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>78</v>
@@ -10320,7 +10323,7 @@
       </c>
       <c r="Y73" s="2"/>
       <c r="Z73" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>78</v>
@@ -10338,7 +10341,7 @@
         <v>78</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>79</v>
@@ -10353,24 +10356,24 @@
         <v>98</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10393,19 +10396,19 @@
         <v>87</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>78</v>
@@ -10454,7 +10457,7 @@
         <v>78</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>86</v>
@@ -10469,24 +10472,24 @@
         <v>98</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10509,19 +10512,19 @@
         <v>78</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>78</v>
@@ -10570,7 +10573,7 @@
         <v>78</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>79</v>
@@ -10588,7 +10591,7 @@
         <v>78</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>78</v>
@@ -10599,10 +10602,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10625,19 +10628,19 @@
         <v>87</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>78</v>
@@ -10686,7 +10689,7 @@
         <v>78</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>79</v>
@@ -10704,10 +10707,10 @@
         <v>78</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>78</v>
@@ -10715,10 +10718,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10744,13 +10747,13 @@
         <v>192</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -10780,7 +10783,7 @@
       </c>
       <c r="Y77" s="2"/>
       <c r="Z77" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>78</v>
@@ -10798,7 +10801,7 @@
         <v>78</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>79</v>
@@ -10813,13 +10816,13 @@
         <v>98</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>78</v>
@@ -10827,10 +10830,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10853,16 +10856,16 @@
         <v>87</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -10912,7 +10915,7 @@
         <v>78</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>79</v>
@@ -10927,13 +10930,13 @@
         <v>98</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>78</v>
@@ -10941,10 +10944,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10970,13 +10973,13 @@
         <v>192</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -11006,7 +11009,7 @@
       </c>
       <c r="Y79" s="2"/>
       <c r="Z79" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>78</v>
@@ -11024,7 +11027,7 @@
         <v>78</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>79</v>
@@ -11042,21 +11045,21 @@
         <v>78</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11082,13 +11085,13 @@
         <v>192</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -11118,7 +11121,7 @@
       </c>
       <c r="Y80" s="2"/>
       <c r="Z80" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>78</v>
@@ -11136,7 +11139,7 @@
         <v>78</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>79</v>
@@ -11154,7 +11157,7 @@
         <v>78</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>78</v>
@@ -11165,10 +11168,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11191,16 +11194,16 @@
         <v>78</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
@@ -11250,7 +11253,7 @@
         <v>78</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>79</v>
@@ -11268,7 +11271,7 @@
         <v>78</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>78</v>
@@ -11279,10 +11282,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11308,13 +11311,13 @@
         <v>192</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -11344,7 +11347,7 @@
       </c>
       <c r="Y82" s="2"/>
       <c r="Z82" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>78</v>
@@ -11362,7 +11365,7 @@
         <v>78</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>79</v>
@@ -11380,7 +11383,7 @@
         <v>78</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>78</v>
@@ -11391,10 +11394,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11417,19 +11420,19 @@
         <v>78</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>78</v>
@@ -11478,7 +11481,7 @@
         <v>78</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>79</v>
@@ -11496,7 +11499,7 @@
         <v>78</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>78</v>
@@ -11507,10 +11510,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11536,13 +11539,13 @@
         <v>192</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -11572,7 +11575,7 @@
       </c>
       <c r="Y84" s="2"/>
       <c r="Z84" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>78</v>
@@ -11590,7 +11593,7 @@
         <v>78</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>79</v>
@@ -11608,7 +11611,7 @@
         <v>78</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>78</v>
@@ -11619,10 +11622,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11645,16 +11648,16 @@
         <v>78</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -11704,7 +11707,7 @@
         <v>78</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>79</v>
@@ -11719,24 +11722,24 @@
         <v>98</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11759,13 +11762,13 @@
         <v>78</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -11816,7 +11819,7 @@
         <v>78</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>79</v>
@@ -11834,7 +11837,7 @@
         <v>78</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>78</v>
@@ -11845,10 +11848,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -11957,10 +11960,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12071,14 +12074,14 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
@@ -12100,10 +12103,10 @@
         <v>132</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N89" t="s" s="2">
         <v>135</v>
@@ -12158,7 +12161,7 @@
         <v>78</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>79</v>
@@ -12187,10 +12190,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12216,10 +12219,10 @@
         <v>192</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -12250,7 +12253,7 @@
       </c>
       <c r="Y90" s="2"/>
       <c r="Z90" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>78</v>
@@ -12268,7 +12271,7 @@
         <v>78</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>79</v>
@@ -12286,7 +12289,7 @@
         <v>78</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>78</v>
@@ -12297,10 +12300,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12323,13 +12326,13 @@
         <v>78</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
@@ -12380,7 +12383,7 @@
         <v>78</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>86</v>
@@ -12398,7 +12401,7 @@
         <v>78</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>78</v>
@@ -12409,10 +12412,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12435,19 +12438,19 @@
         <v>78</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="O92" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>78</v>
@@ -12496,7 +12499,7 @@
         <v>78</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>79</v>
@@ -12514,7 +12517,7 @@
         <v>78</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>78</v>
@@ -12525,10 +12528,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -12554,13 +12557,13 @@
         <v>192</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
@@ -12590,7 +12593,7 @@
       </c>
       <c r="Y93" s="2"/>
       <c r="Z93" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AA93" t="s" s="2">
         <v>78</v>
@@ -12608,7 +12611,7 @@
         <v>78</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>79</v>
@@ -12626,7 +12629,7 @@
         <v>78</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>78</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-procedure.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-procedure.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3390" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3390" uniqueCount="521">
   <si>
     <t>Property</t>
   </si>
@@ -256,6 +256,10 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t>Procedureリソース</t>
@@ -2178,13 +2182,13 @@
         <v>78</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -2250,10 +2254,10 @@
         <v>78</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AM2" t="s" s="2">
         <v>78</v>
@@ -2264,10 +2268,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2278,7 +2282,7 @@
         <v>79</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>78</v>
@@ -2287,19 +2291,19 @@
         <v>78</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2349,13 +2353,13 @@
         <v>78</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>78</v>
@@ -2378,10 +2382,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2392,7 +2396,7 @@
         <v>79</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>78</v>
@@ -2401,16 +2405,16 @@
         <v>78</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2461,19 +2465,19 @@
         <v>78</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>78</v>
@@ -2490,10 +2494,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2504,28 +2508,28 @@
         <v>79</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2575,19 +2579,19 @@
         <v>78</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>78</v>
@@ -2604,10 +2608,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2618,7 +2622,7 @@
         <v>79</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>78</v>
@@ -2630,16 +2634,16 @@
         <v>78</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2665,13 +2669,13 @@
         <v>78</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>78</v>
@@ -2689,19 +2693,19 @@
         <v>78</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>78</v>
@@ -2718,21 +2722,21 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>78</v>
@@ -2744,16 +2748,16 @@
         <v>78</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2803,25 +2807,25 @@
         <v>78</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>78</v>
@@ -2832,14 +2836,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2858,16 +2862,16 @@
         <v>78</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2917,7 +2921,7 @@
         <v>78</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>79</v>
@@ -2935,7 +2939,7 @@
         <v>78</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>78</v>
@@ -2946,14 +2950,14 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2972,16 +2976,16 @@
         <v>78</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -3031,7 +3035,7 @@
         <v>78</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>79</v>
@@ -3043,13 +3047,13 @@
         <v>78</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>78</v>
@@ -3060,14 +3064,14 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -3080,25 +3084,25 @@
         <v>78</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>78</v>
@@ -3147,7 +3151,7 @@
         <v>78</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>79</v>
@@ -3159,13 +3163,13 @@
         <v>78</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>78</v>
@@ -3176,10 +3180,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3199,22 +3203,22 @@
         <v>78</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>78</v>
@@ -3263,7 +3267,7 @@
         <v>78</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>79</v>
@@ -3275,27 +3279,27 @@
         <v>78</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3315,16 +3319,16 @@
         <v>78</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3375,7 +3379,7 @@
         <v>78</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>79</v>
@@ -3387,13 +3391,13 @@
         <v>78</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>78</v>
@@ -3404,10 +3408,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3427,19 +3431,19 @@
         <v>78</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3489,7 +3493,7 @@
         <v>78</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
@@ -3501,13 +3505,13 @@
         <v>78</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>78</v>
@@ -3518,14 +3522,14 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -3541,19 +3545,19 @@
         <v>78</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3603,7 +3607,7 @@
         <v>78</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
@@ -3615,13 +3619,13 @@
         <v>78</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>78</v>
@@ -3632,14 +3636,14 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3655,19 +3659,19 @@
         <v>78</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3717,7 +3721,7 @@
         <v>78</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
@@ -3729,13 +3733,13 @@
         <v>78</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>78</v>
@@ -3746,10 +3750,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3757,31 +3761,31 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3807,13 +3811,13 @@
         <v>78</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>78</v>
@@ -3831,28 +3835,28 @@
         <v>78</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>78</v>
@@ -3860,21 +3864,21 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>78</v>
@@ -3883,19 +3887,19 @@
         <v>78</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3921,11 +3925,11 @@
         <v>78</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Y17" s="2"/>
       <c r="Z17" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>78</v>
@@ -3943,25 +3947,25 @@
         <v>78</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>78</v>
@@ -3972,10 +3976,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3986,7 +3990,7 @@
         <v>79</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>78</v>
@@ -3995,16 +3999,16 @@
         <v>78</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4031,11 +4035,11 @@
         <v>78</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Y18" s="2"/>
       <c r="Z18" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>78</v>
@@ -4053,28 +4057,28 @@
         <v>78</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>78</v>
@@ -4082,21 +4086,21 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>78</v>
@@ -4105,22 +4109,22 @@
         <v>78</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>78</v>
@@ -4145,11 +4149,11 @@
         <v>78</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Y19" s="2"/>
       <c r="Z19" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>78</v>
@@ -4167,39 +4171,39 @@
         <v>78</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4210,7 +4214,7 @@
         <v>79</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>78</v>
@@ -4222,13 +4226,13 @@
         <v>78</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4279,13 +4283,13 @@
         <v>78</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>78</v>
@@ -4297,7 +4301,7 @@
         <v>78</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>78</v>
@@ -4308,14 +4312,14 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -4334,16 +4338,16 @@
         <v>78</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4381,19 +4385,19 @@
         <v>78</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AD21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
@@ -4405,13 +4409,13 @@
         <v>78</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>78</v>
@@ -4422,10 +4426,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4445,22 +4449,22 @@
         <v>78</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>78</v>
@@ -4497,17 +4501,17 @@
         <v>78</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AC22" s="2"/>
       <c r="AD22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -4519,30 +4523,30 @@
         <v>78</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>78</v>
@@ -4552,7 +4556,7 @@
         <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>78</v>
@@ -4561,22 +4565,22 @@
         <v>78</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>78</v>
@@ -4601,11 +4605,11 @@
         <v>78</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Y23" s="2"/>
       <c r="Z23" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>78</v>
@@ -4623,7 +4627,7 @@
         <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -4635,27 +4639,27 @@
         <v>78</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4666,7 +4670,7 @@
         <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>78</v>
@@ -4678,13 +4682,13 @@
         <v>78</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4735,13 +4739,13 @@
         <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>78</v>
@@ -4753,7 +4757,7 @@
         <v>78</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>78</v>
@@ -4764,14 +4768,14 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4790,16 +4794,16 @@
         <v>78</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4837,19 +4841,19 @@
         <v>78</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AD25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
@@ -4861,13 +4865,13 @@
         <v>78</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>78</v>
@@ -4878,10 +4882,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4889,10 +4893,10 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>78</v>
@@ -4901,29 +4905,29 @@
         <v>78</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="S26" t="s" s="2">
         <v>78</v>
@@ -4965,39 +4969,39 @@
         <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5008,7 +5012,7 @@
         <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>78</v>
@@ -5017,19 +5021,19 @@
         <v>78</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5079,39 +5083,39 @@
         <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5122,7 +5126,7 @@
         <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>78</v>
@@ -5131,20 +5135,20 @@
         <v>78</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>78</v>
@@ -5193,39 +5197,39 @@
         <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5236,7 +5240,7 @@
         <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>78</v>
@@ -5245,20 +5249,20 @@
         <v>78</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>78</v>
@@ -5307,39 +5311,39 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5350,7 +5354,7 @@
         <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>78</v>
@@ -5359,22 +5363,22 @@
         <v>78</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>78</v>
@@ -5423,42 +5427,42 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D31" t="s" s="2">
         <v>78</v>
@@ -5468,7 +5472,7 @@
         <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>78</v>
@@ -5477,22 +5481,22 @@
         <v>78</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>78</v>
@@ -5517,11 +5521,11 @@
         <v>78</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Y31" s="2"/>
       <c r="Z31" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>78</v>
@@ -5539,7 +5543,7 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -5551,27 +5555,27 @@
         <v>78</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5582,7 +5586,7 @@
         <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>78</v>
@@ -5594,13 +5598,13 @@
         <v>78</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5651,13 +5655,13 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>78</v>
@@ -5669,7 +5673,7 @@
         <v>78</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>78</v>
@@ -5680,14 +5684,14 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5706,16 +5710,16 @@
         <v>78</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5753,19 +5757,19 @@
         <v>78</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AD33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -5777,13 +5781,13 @@
         <v>78</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>78</v>
@@ -5794,10 +5798,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5805,10 +5809,10 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>78</v>
@@ -5817,29 +5821,29 @@
         <v>78</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="S34" t="s" s="2">
         <v>78</v>
@@ -5881,39 +5885,39 @@
         <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5924,7 +5928,7 @@
         <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>78</v>
@@ -5933,19 +5937,19 @@
         <v>78</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5995,39 +5999,39 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6038,7 +6042,7 @@
         <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>78</v>
@@ -6047,20 +6051,20 @@
         <v>78</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>78</v>
@@ -6109,39 +6113,39 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6152,7 +6156,7 @@
         <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>78</v>
@@ -6161,20 +6165,20 @@
         <v>78</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>78</v>
@@ -6223,39 +6227,39 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6266,7 +6270,7 @@
         <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>78</v>
@@ -6275,22 +6279,22 @@
         <v>78</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>78</v>
@@ -6339,42 +6343,42 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D39" t="s" s="2">
         <v>78</v>
@@ -6384,7 +6388,7 @@
         <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>78</v>
@@ -6393,22 +6397,22 @@
         <v>78</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>78</v>
@@ -6433,11 +6437,11 @@
         <v>78</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Y39" s="2"/>
       <c r="Z39" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>78</v>
@@ -6455,7 +6459,7 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -6467,27 +6471,27 @@
         <v>78</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6498,7 +6502,7 @@
         <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>78</v>
@@ -6510,13 +6514,13 @@
         <v>78</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6567,13 +6571,13 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>78</v>
@@ -6585,7 +6589,7 @@
         <v>78</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>78</v>
@@ -6596,14 +6600,14 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6622,16 +6626,16 @@
         <v>78</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6669,19 +6673,19 @@
         <v>78</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AD41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6693,13 +6697,13 @@
         <v>78</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>78</v>
@@ -6710,10 +6714,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6721,10 +6725,10 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>78</v>
@@ -6733,29 +6737,29 @@
         <v>78</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="S42" t="s" s="2">
         <v>78</v>
@@ -6797,39 +6801,39 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6840,7 +6844,7 @@
         <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>78</v>
@@ -6849,19 +6853,19 @@
         <v>78</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6911,39 +6915,39 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6954,7 +6958,7 @@
         <v>79</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>78</v>
@@ -6963,20 +6967,20 @@
         <v>78</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>78</v>
@@ -7025,39 +7029,39 @@
         <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7068,7 +7072,7 @@
         <v>79</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>78</v>
@@ -7077,20 +7081,20 @@
         <v>78</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>78</v>
@@ -7139,39 +7143,39 @@
         <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7182,7 +7186,7 @@
         <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>78</v>
@@ -7191,22 +7195,22 @@
         <v>78</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>78</v>
@@ -7255,42 +7259,42 @@
         <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D47" t="s" s="2">
         <v>78</v>
@@ -7300,7 +7304,7 @@
         <v>79</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>78</v>
@@ -7309,22 +7313,22 @@
         <v>78</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>78</v>
@@ -7349,11 +7353,11 @@
         <v>78</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Y47" s="2"/>
       <c r="Z47" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>78</v>
@@ -7371,7 +7375,7 @@
         <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -7383,27 +7387,27 @@
         <v>78</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7414,7 +7418,7 @@
         <v>79</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>78</v>
@@ -7426,13 +7430,13 @@
         <v>78</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7483,13 +7487,13 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>78</v>
@@ -7501,7 +7505,7 @@
         <v>78</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>78</v>
@@ -7512,14 +7516,14 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7538,16 +7542,16 @@
         <v>78</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7585,19 +7589,19 @@
         <v>78</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AD49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -7609,13 +7613,13 @@
         <v>78</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>78</v>
@@ -7626,10 +7630,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7637,10 +7641,10 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>78</v>
@@ -7649,29 +7653,29 @@
         <v>78</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="S50" t="s" s="2">
         <v>78</v>
@@ -7713,39 +7717,39 @@
         <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7756,7 +7760,7 @@
         <v>79</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>78</v>
@@ -7765,19 +7769,19 @@
         <v>78</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7827,39 +7831,39 @@
         <v>78</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7870,7 +7874,7 @@
         <v>79</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>78</v>
@@ -7879,20 +7883,20 @@
         <v>78</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>78</v>
@@ -7941,39 +7945,39 @@
         <v>78</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7984,7 +7988,7 @@
         <v>79</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>78</v>
@@ -7993,20 +7997,20 @@
         <v>78</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>78</v>
@@ -8055,39 +8059,39 @@
         <v>78</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8098,7 +8102,7 @@
         <v>79</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>78</v>
@@ -8107,22 +8111,22 @@
         <v>78</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>78</v>
@@ -8171,42 +8175,42 @@
         <v>78</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>78</v>
@@ -8216,7 +8220,7 @@
         <v>79</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>78</v>
@@ -8225,22 +8229,22 @@
         <v>78</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>78</v>
@@ -8265,11 +8269,11 @@
         <v>78</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Y55" s="2"/>
       <c r="Z55" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>78</v>
@@ -8287,7 +8291,7 @@
         <v>78</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
@@ -8299,27 +8303,27 @@
         <v>78</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8330,7 +8334,7 @@
         <v>79</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>78</v>
@@ -8342,13 +8346,13 @@
         <v>78</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8399,13 +8403,13 @@
         <v>78</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>78</v>
@@ -8417,7 +8421,7 @@
         <v>78</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>78</v>
@@ -8428,14 +8432,14 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8454,16 +8458,16 @@
         <v>78</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8501,19 +8505,19 @@
         <v>78</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AD57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
@@ -8525,13 +8529,13 @@
         <v>78</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>78</v>
@@ -8542,10 +8546,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8553,10 +8557,10 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>78</v>
@@ -8565,29 +8569,29 @@
         <v>78</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>78</v>
@@ -8629,39 +8633,39 @@
         <v>78</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8672,7 +8676,7 @@
         <v>79</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>78</v>
@@ -8681,19 +8685,19 @@
         <v>78</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8743,39 +8747,39 @@
         <v>78</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8786,7 +8790,7 @@
         <v>79</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>78</v>
@@ -8795,20 +8799,20 @@
         <v>78</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>78</v>
@@ -8857,39 +8861,39 @@
         <v>78</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8900,7 +8904,7 @@
         <v>79</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>78</v>
@@ -8909,20 +8913,20 @@
         <v>78</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>78</v>
@@ -8971,39 +8975,39 @@
         <v>78</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9014,7 +9018,7 @@
         <v>79</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>78</v>
@@ -9023,22 +9027,22 @@
         <v>78</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>78</v>
@@ -9087,39 +9091,39 @@
         <v>78</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9130,7 +9134,7 @@
         <v>79</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>78</v>
@@ -9139,22 +9143,22 @@
         <v>78</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>78</v>
@@ -9203,50 +9207,50 @@
         <v>78</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>78</v>
@@ -9255,19 +9259,19 @@
         <v>78</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9317,39 +9321,39 @@
         <v>78</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9360,7 +9364,7 @@
         <v>79</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>78</v>
@@ -9369,19 +9373,19 @@
         <v>78</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9431,39 +9435,39 @@
         <v>78</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9474,7 +9478,7 @@
         <v>79</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>78</v>
@@ -9483,19 +9487,19 @@
         <v>78</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -9545,39 +9549,39 @@
         <v>78</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9588,7 +9592,7 @@
         <v>79</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>78</v>
@@ -9597,19 +9601,19 @@
         <v>78</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9659,28 +9663,28 @@
         <v>78</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>78</v>
@@ -9688,10 +9692,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9702,7 +9706,7 @@
         <v>79</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>78</v>
@@ -9711,19 +9715,19 @@
         <v>78</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -9773,28 +9777,28 @@
         <v>78</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>78</v>
@@ -9802,10 +9806,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9825,16 +9829,16 @@
         <v>78</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -9885,7 +9889,7 @@
         <v>78</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>79</v>
@@ -9897,13 +9901,13 @@
         <v>78</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>78</v>
@@ -9914,10 +9918,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9928,7 +9932,7 @@
         <v>79</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>78</v>
@@ -9940,13 +9944,13 @@
         <v>78</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -9997,13 +10001,13 @@
         <v>78</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>78</v>
@@ -10015,7 +10019,7 @@
         <v>78</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>78</v>
@@ -10026,14 +10030,14 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
@@ -10052,16 +10056,16 @@
         <v>78</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10111,7 +10115,7 @@
         <v>78</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>79</v>
@@ -10123,13 +10127,13 @@
         <v>78</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>78</v>
@@ -10140,14 +10144,14 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
@@ -10160,25 +10164,25 @@
         <v>78</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>78</v>
@@ -10227,7 +10231,7 @@
         <v>78</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>79</v>
@@ -10239,13 +10243,13 @@
         <v>78</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>78</v>
@@ -10256,10 +10260,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10270,7 +10274,7 @@
         <v>79</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>78</v>
@@ -10279,22 +10283,22 @@
         <v>78</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>78</v>
@@ -10319,11 +10323,11 @@
         <v>78</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Y73" s="2"/>
       <c r="Z73" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>78</v>
@@ -10341,39 +10345,39 @@
         <v>78</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10381,10 +10385,10 @@
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>78</v>
@@ -10393,22 +10397,22 @@
         <v>78</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>78</v>
@@ -10457,39 +10461,39 @@
         <v>78</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10500,7 +10504,7 @@
         <v>79</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>78</v>
@@ -10512,19 +10516,19 @@
         <v>78</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>78</v>
@@ -10573,25 +10577,25 @@
         <v>78</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>78</v>
@@ -10602,10 +10606,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10616,7 +10620,7 @@
         <v>79</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>78</v>
@@ -10625,22 +10629,22 @@
         <v>78</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>78</v>
@@ -10689,28 +10693,28 @@
         <v>78</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>78</v>
@@ -10718,10 +10722,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10741,19 +10745,19 @@
         <v>78</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -10779,11 +10783,11 @@
         <v>78</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Y77" s="2"/>
       <c r="Z77" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>78</v>
@@ -10801,7 +10805,7 @@
         <v>78</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>79</v>
@@ -10813,16 +10817,16 @@
         <v>78</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>78</v>
@@ -10830,10 +10834,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10853,19 +10857,19 @@
         <v>78</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -10915,7 +10919,7 @@
         <v>78</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>79</v>
@@ -10927,16 +10931,16 @@
         <v>78</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>78</v>
@@ -10944,10 +10948,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10967,19 +10971,19 @@
         <v>78</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -11005,11 +11009,11 @@
         <v>78</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Y79" s="2"/>
       <c r="Z79" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>78</v>
@@ -11027,7 +11031,7 @@
         <v>78</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>79</v>
@@ -11039,27 +11043,27 @@
         <v>78</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11070,7 +11074,7 @@
         <v>79</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>78</v>
@@ -11079,19 +11083,19 @@
         <v>78</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -11117,11 +11121,11 @@
         <v>78</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Y80" s="2"/>
       <c r="Z80" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>78</v>
@@ -11139,25 +11143,25 @@
         <v>78</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>78</v>
@@ -11168,10 +11172,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11194,16 +11198,16 @@
         <v>78</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
@@ -11253,7 +11257,7 @@
         <v>78</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>79</v>
@@ -11265,13 +11269,13 @@
         <v>78</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>78</v>
@@ -11282,10 +11286,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11308,16 +11312,16 @@
         <v>78</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -11343,11 +11347,11 @@
         <v>78</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Y82" s="2"/>
       <c r="Z82" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>78</v>
@@ -11365,7 +11369,7 @@
         <v>78</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>79</v>
@@ -11377,13 +11381,13 @@
         <v>78</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>78</v>
@@ -11394,10 +11398,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11420,19 +11424,19 @@
         <v>78</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>78</v>
@@ -11481,7 +11485,7 @@
         <v>78</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>79</v>
@@ -11493,13 +11497,13 @@
         <v>78</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>78</v>
@@ -11510,10 +11514,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11536,16 +11540,16 @@
         <v>78</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -11571,11 +11575,11 @@
         <v>78</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Y84" s="2"/>
       <c r="Z84" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>78</v>
@@ -11593,7 +11597,7 @@
         <v>78</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>79</v>
@@ -11605,13 +11609,13 @@
         <v>78</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>78</v>
@@ -11622,10 +11626,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11648,16 +11652,16 @@
         <v>78</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -11707,7 +11711,7 @@
         <v>78</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>79</v>
@@ -11719,27 +11723,27 @@
         <v>78</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11762,13 +11766,13 @@
         <v>78</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -11819,7 +11823,7 @@
         <v>78</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>79</v>
@@ -11831,13 +11835,13 @@
         <v>78</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>78</v>
@@ -11848,10 +11852,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -11862,7 +11866,7 @@
         <v>79</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>78</v>
@@ -11874,13 +11878,13 @@
         <v>78</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -11931,13 +11935,13 @@
         <v>78</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>78</v>
@@ -11949,7 +11953,7 @@
         <v>78</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>78</v>
@@ -11960,14 +11964,14 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
@@ -11986,16 +11990,16 @@
         <v>78</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
@@ -12045,7 +12049,7 @@
         <v>78</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>79</v>
@@ -12057,13 +12061,13 @@
         <v>78</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>78</v>
@@ -12074,14 +12078,14 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
@@ -12094,25 +12098,25 @@
         <v>78</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O89" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>78</v>
@@ -12161,7 +12165,7 @@
         <v>78</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>79</v>
@@ -12173,13 +12177,13 @@
         <v>78</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>78</v>
@@ -12190,10 +12194,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12204,7 +12208,7 @@
         <v>79</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>78</v>
@@ -12216,13 +12220,13 @@
         <v>78</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -12249,11 +12253,11 @@
         <v>78</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Y90" s="2"/>
       <c r="Z90" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>78</v>
@@ -12271,25 +12275,25 @@
         <v>78</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>78</v>
@@ -12300,10 +12304,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12311,10 +12315,10 @@
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>78</v>
@@ -12326,13 +12330,13 @@
         <v>78</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
@@ -12383,25 +12387,25 @@
         <v>78</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>78</v>
@@ -12412,10 +12416,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12438,19 +12442,19 @@
         <v>78</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="O92" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>78</v>
@@ -12499,7 +12503,7 @@
         <v>78</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>79</v>
@@ -12511,13 +12515,13 @@
         <v>78</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>78</v>
@@ -12528,10 +12532,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -12554,16 +12558,16 @@
         <v>78</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
@@ -12589,11 +12593,11 @@
         <v>78</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Y93" s="2"/>
       <c r="Z93" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AA93" t="s" s="2">
         <v>78</v>
@@ -12611,7 +12615,7 @@
         <v>78</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>79</v>
@@ -12623,13 +12627,13 @@
         <v>78</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>78</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-procedure.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-procedure.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3390" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3390" uniqueCount="520">
   <si>
     <t>Property</t>
   </si>
@@ -256,10 +256,6 @@
   </si>
   <si>
     <t>*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-</t>
   </si>
   <si>
     <t>Procedureリソース</t>
@@ -2182,13 +2178,13 @@
         <v>78</v>
       </c>
       <c r="K2" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L2" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="L2" t="s" s="2">
+      <c r="M2" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="M2" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -2254,10 +2250,10 @@
         <v>78</v>
       </c>
       <c r="AK2" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL2" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="AL2" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="AM2" t="s" s="2">
         <v>78</v>
@@ -2268,10 +2264,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2282,28 +2278,28 @@
         <v>79</v>
       </c>
       <c r="G3" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="M3" t="s" s="2">
+      <c r="N3" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="N3" t="s" s="2">
-        <v>92</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2353,13 +2349,13 @@
         <v>78</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>78</v>
@@ -2382,10 +2378,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2396,25 +2392,25 @@
         <v>79</v>
       </c>
       <c r="G4" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J4" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J4" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="K4" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="M4" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2465,19 +2461,19 @@
         <v>78</v>
       </c>
       <c r="AF4" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ4" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>78</v>
@@ -2494,10 +2490,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2508,28 +2504,28 @@
         <v>79</v>
       </c>
       <c r="G5" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H5" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I5" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I5" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J5" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="M5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>104</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2579,19 +2575,19 @@
         <v>78</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>78</v>
@@ -2608,10 +2604,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2622,7 +2618,7 @@
         <v>79</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>78</v>
@@ -2634,16 +2630,16 @@
         <v>78</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="M6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>110</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2669,43 +2665,43 @@
         <v>78</v>
       </c>
       <c r="X6" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="Y6" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="Z6" t="s" s="2">
+      <c r="AA6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF6" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="AA6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>114</v>
-      </c>
       <c r="AG6" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>78</v>
@@ -2722,21 +2718,21 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>78</v>
@@ -2748,16 +2744,16 @@
         <v>78</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="M7" t="s" s="2">
+      <c r="N7" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>120</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2807,25 +2803,25 @@
         <v>78</v>
       </c>
       <c r="AF7" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL7" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL7" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>78</v>
@@ -2836,14 +2832,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2862,16 +2858,16 @@
         <v>78</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="M8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>127</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2921,7 +2917,7 @@
         <v>78</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>79</v>
@@ -2939,7 +2935,7 @@
         <v>78</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>78</v>
@@ -2950,14 +2946,14 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2976,16 +2972,16 @@
         <v>78</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="M9" t="s" s="2">
+      <c r="N9" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -3035,7 +3031,7 @@
         <v>78</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>79</v>
@@ -3047,13 +3043,13 @@
         <v>78</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>78</v>
@@ -3064,14 +3060,14 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -3084,25 +3080,25 @@
         <v>78</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L10" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="M10" t="s" s="2">
+      <c r="N10" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O10" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>78</v>
@@ -3151,7 +3147,7 @@
         <v>78</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>79</v>
@@ -3163,13 +3159,13 @@
         <v>78</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>78</v>
@@ -3180,10 +3176,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3203,22 +3199,22 @@
         <v>78</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="N11" t="s" s="2">
+      <c r="O11" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>78</v>
@@ -3267,7 +3263,7 @@
         <v>78</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>79</v>
@@ -3279,27 +3275,27 @@
         <v>78</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK11" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AL11" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="AL11" t="s" s="2">
+      <c r="AM11" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="AM11" t="s" s="2">
+      <c r="AN11" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="AN11" t="s" s="2">
-        <v>153</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3319,16 +3315,16 @@
         <v>78</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3379,7 +3375,7 @@
         <v>78</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>79</v>
@@ -3391,13 +3387,13 @@
         <v>78</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK12" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AL12" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>78</v>
@@ -3408,10 +3404,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3431,19 +3427,19 @@
         <v>78</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L13" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3493,7 +3489,7 @@
         <v>78</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
@@ -3505,13 +3501,13 @@
         <v>78</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>78</v>
@@ -3522,14 +3518,14 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -3545,19 +3541,19 @@
         <v>78</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3607,7 +3603,7 @@
         <v>78</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
@@ -3619,13 +3615,13 @@
         <v>78</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK14" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AL14" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>78</v>
@@ -3636,14 +3632,14 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3659,19 +3655,19 @@
         <v>78</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3721,7 +3717,7 @@
         <v>78</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
@@ -3733,13 +3729,13 @@
         <v>78</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK15" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AL15" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="AL15" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>78</v>
@@ -3750,10 +3746,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3761,31 +3757,31 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I16" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G16" t="s" s="2">
+      <c r="J16" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="J16" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="K16" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3811,52 +3807,52 @@
         <v>78</v>
       </c>
       <c r="X16" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="Y16" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="Y16" t="s" s="2">
+      <c r="Z16" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="Z16" t="s" s="2">
+      <c r="AA16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF16" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK16" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="AA16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK16" t="s" s="2">
+      <c r="AL16" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="AL16" t="s" s="2">
+      <c r="AM16" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="AM16" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>78</v>
@@ -3864,42 +3860,42 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G17" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J17" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J17" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="K17" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3925,47 +3921,47 @@
         <v>78</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="Y17" s="2"/>
       <c r="Z17" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF17" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK17" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="AA17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK17" t="s" s="2">
+      <c r="AL17" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>78</v>
@@ -3976,10 +3972,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3990,25 +3986,25 @@
         <v>79</v>
       </c>
       <c r="G18" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J18" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J18" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="K18" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4035,50 +4031,50 @@
         <v>78</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="Y18" s="2"/>
       <c r="Z18" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL18" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="AA18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL18" t="s" s="2">
+      <c r="AM18" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>78</v>
@@ -4086,45 +4082,45 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G19" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J19" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J19" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="K19" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L19" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="N19" t="s" s="2">
+      <c r="O19" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>78</v>
@@ -4149,61 +4145,61 @@
         <v>78</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="Y19" s="2"/>
       <c r="Z19" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK19" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="AA19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK19" t="s" s="2">
+      <c r="AL19" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="AM19" t="s" s="2">
+      <c r="AN19" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>217</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4214,7 +4210,7 @@
         <v>79</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>78</v>
@@ -4226,13 +4222,13 @@
         <v>78</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4283,25 +4279,25 @@
         <v>78</v>
       </c>
       <c r="AF20" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL20" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>78</v>
@@ -4312,14 +4308,14 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -4338,16 +4334,16 @@
         <v>78</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="L21" t="s" s="2">
-        <v>134</v>
-      </c>
       <c r="M21" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4385,19 +4381,19 @@
         <v>78</v>
       </c>
       <c r="AB21" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AC21" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="AC21" t="s" s="2">
+      <c r="AD21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE21" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="AD21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE21" t="s" s="2">
+      <c r="AF21" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
@@ -4409,13 +4405,13 @@
         <v>78</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>78</v>
@@ -4426,10 +4422,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4449,22 +4445,22 @@
         <v>78</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="N22" t="s" s="2">
+      <c r="O22" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>78</v>
@@ -4501,17 +4497,17 @@
         <v>78</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AC22" s="2"/>
       <c r="AD22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -4523,30 +4519,30 @@
         <v>78</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL22" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AM22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN22" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>239</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="C23" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="C23" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>78</v>
@@ -4556,31 +4552,31 @@
         <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J23" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J23" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="K23" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M23" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="N23" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="N23" t="s" s="2">
+      <c r="O23" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>78</v>
@@ -4605,11 +4601,11 @@
         <v>78</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Y23" s="2"/>
       <c r="Z23" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>78</v>
@@ -4627,7 +4623,7 @@
         <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -4639,27 +4635,27 @@
         <v>78</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL23" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AM23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN23" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>239</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="B24" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4670,7 +4666,7 @@
         <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>78</v>
@@ -4682,13 +4678,13 @@
         <v>78</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4739,25 +4735,25 @@
         <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL24" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>78</v>
@@ -4768,14 +4764,14 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="B25" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4794,16 +4790,16 @@
         <v>78</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="L25" t="s" s="2">
-        <v>134</v>
-      </c>
       <c r="M25" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4841,19 +4837,19 @@
         <v>78</v>
       </c>
       <c r="AB25" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AC25" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="AC25" t="s" s="2">
+      <c r="AD25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE25" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="AD25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE25" t="s" s="2">
+      <c r="AF25" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
@@ -4865,13 +4861,13 @@
         <v>78</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>78</v>
@@ -4882,10 +4878,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="B26" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4893,115 +4889,115 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J26" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G26" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J26" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="K26" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="N26" t="s" s="2">
+      <c r="O26" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="S26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF26" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="S26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF26" t="s" s="2">
+      <c r="AG26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL26" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="AG26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL26" t="s" s="2">
+      <c r="AM26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN26" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>256</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="B27" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5012,28 +5008,28 @@
         <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J27" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J27" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="K27" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5083,39 +5079,39 @@
         <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL27" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="AG27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL27" t="s" s="2">
+      <c r="AM27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN27" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>264</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="B28" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="B28" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5126,29 +5122,29 @@
         <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J28" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J28" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="K28" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>78</v>
@@ -5197,39 +5193,39 @@
         <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL28" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="AG28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL28" t="s" s="2">
+      <c r="AM28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN28" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>272</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="B29" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="B29" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5240,29 +5236,29 @@
         <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J29" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J29" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="K29" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>78</v>
@@ -5311,39 +5307,39 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="AG29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AM29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN29" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>280</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="B30" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="B30" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5354,31 +5350,31 @@
         <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J30" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J30" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="K30" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="N30" t="s" s="2">
+      <c r="O30" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>78</v>
@@ -5427,42 +5423,42 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL30" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="AG30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL30" t="s" s="2">
+      <c r="AM30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN30" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>290</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="C31" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="B31" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="C31" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="D31" t="s" s="2">
         <v>78</v>
@@ -5472,31 +5468,31 @@
         <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J31" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J31" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="K31" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="M31" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="N31" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="N31" t="s" s="2">
+      <c r="O31" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>78</v>
@@ -5521,11 +5517,11 @@
         <v>78</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Y31" s="2"/>
       <c r="Z31" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>78</v>
@@ -5543,7 +5539,7 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -5555,27 +5551,27 @@
         <v>78</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL31" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AM31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN31" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>239</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5586,7 +5582,7 @@
         <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>78</v>
@@ -5598,13 +5594,13 @@
         <v>78</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5655,25 +5651,25 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>78</v>
@@ -5684,14 +5680,14 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5710,16 +5706,16 @@
         <v>78</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="L33" t="s" s="2">
-        <v>134</v>
-      </c>
       <c r="M33" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5757,19 +5753,19 @@
         <v>78</v>
       </c>
       <c r="AB33" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AC33" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="AC33" t="s" s="2">
+      <c r="AD33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE33" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="AD33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE33" t="s" s="2">
+      <c r="AF33" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -5781,13 +5777,13 @@
         <v>78</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>78</v>
@@ -5798,10 +5794,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5809,41 +5805,41 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J34" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G34" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J34" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="K34" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="N34" t="s" s="2">
+      <c r="O34" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="S34" t="s" s="2">
         <v>78</v>
@@ -5885,39 +5881,39 @@
         <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL34" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="AG34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL34" t="s" s="2">
+      <c r="AM34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN34" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN34" t="s" s="2">
-        <v>256</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5928,28 +5924,28 @@
         <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J35" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J35" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="K35" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5999,39 +5995,39 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="AG35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL35" t="s" s="2">
+      <c r="AM35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN35" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>264</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6042,29 +6038,29 @@
         <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J36" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J36" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="K36" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>78</v>
@@ -6113,39 +6109,39 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL36" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="AG36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AM36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN36" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>272</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6156,29 +6152,29 @@
         <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J37" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J37" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="K37" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>78</v>
@@ -6227,39 +6223,39 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL37" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="AG37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL37" t="s" s="2">
+      <c r="AM37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN37" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>280</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6270,31 +6266,31 @@
         <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J38" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J38" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="K38" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="N38" t="s" s="2">
+      <c r="O38" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>78</v>
@@ -6343,42 +6339,42 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL38" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="AG38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL38" t="s" s="2">
+      <c r="AM38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN38" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>290</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="C39" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="B39" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="C39" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="D39" t="s" s="2">
         <v>78</v>
@@ -6388,31 +6384,31 @@
         <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J39" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J39" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="K39" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="M39" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="N39" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="N39" t="s" s="2">
+      <c r="O39" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>78</v>
@@ -6437,11 +6433,11 @@
         <v>78</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Y39" s="2"/>
       <c r="Z39" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>78</v>
@@ -6459,7 +6455,7 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -6471,27 +6467,27 @@
         <v>78</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL39" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN39" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>239</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6502,7 +6498,7 @@
         <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>78</v>
@@ -6514,13 +6510,13 @@
         <v>78</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6571,25 +6567,25 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL40" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>78</v>
@@ -6600,14 +6596,14 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6626,16 +6622,16 @@
         <v>78</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="L41" t="s" s="2">
-        <v>134</v>
-      </c>
       <c r="M41" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6673,19 +6669,19 @@
         <v>78</v>
       </c>
       <c r="AB41" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AC41" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="AC41" t="s" s="2">
+      <c r="AD41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE41" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="AD41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE41" t="s" s="2">
+      <c r="AF41" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6697,13 +6693,13 @@
         <v>78</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>78</v>
@@ -6714,10 +6710,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6725,41 +6721,41 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J42" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G42" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J42" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="K42" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="N42" t="s" s="2">
+      <c r="O42" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="S42" t="s" s="2">
         <v>78</v>
@@ -6801,39 +6797,39 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL42" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="AG42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL42" t="s" s="2">
+      <c r="AM42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN42" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>256</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6844,28 +6840,28 @@
         <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J43" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J43" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="K43" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6915,39 +6911,39 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL43" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="AG43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL43" t="s" s="2">
+      <c r="AM43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN43" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>264</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6958,29 +6954,29 @@
         <v>79</v>
       </c>
       <c r="G44" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J44" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J44" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="K44" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>78</v>
@@ -7029,39 +7025,39 @@
         <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL44" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="AG44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL44" t="s" s="2">
+      <c r="AM44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN44" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>272</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7072,29 +7068,29 @@
         <v>79</v>
       </c>
       <c r="G45" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J45" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J45" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="K45" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>78</v>
@@ -7143,39 +7139,39 @@
         <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL45" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="AG45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL45" t="s" s="2">
+      <c r="AM45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN45" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>280</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7186,31 +7182,31 @@
         <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J46" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J46" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="K46" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="N46" t="s" s="2">
+      <c r="O46" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>78</v>
@@ -7259,42 +7255,42 @@
         <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL46" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="AG46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL46" t="s" s="2">
+      <c r="AM46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN46" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>290</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="C47" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="B47" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="C47" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="D47" t="s" s="2">
         <v>78</v>
@@ -7304,31 +7300,31 @@
         <v>79</v>
       </c>
       <c r="G47" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J47" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J47" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="K47" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M47" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="N47" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="N47" t="s" s="2">
+      <c r="O47" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>78</v>
@@ -7353,11 +7349,11 @@
         <v>78</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Y47" s="2"/>
       <c r="Z47" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>78</v>
@@ -7375,7 +7371,7 @@
         <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -7387,27 +7383,27 @@
         <v>78</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL47" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN47" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>239</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7418,7 +7414,7 @@
         <v>79</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>78</v>
@@ -7430,13 +7426,13 @@
         <v>78</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7487,25 +7483,25 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL48" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="AG48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>78</v>
@@ -7516,14 +7512,14 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7542,16 +7538,16 @@
         <v>78</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="L49" t="s" s="2">
-        <v>134</v>
-      </c>
       <c r="M49" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7589,19 +7585,19 @@
         <v>78</v>
       </c>
       <c r="AB49" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AC49" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="AC49" t="s" s="2">
+      <c r="AD49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE49" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="AD49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE49" t="s" s="2">
+      <c r="AF49" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="AF49" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -7613,13 +7609,13 @@
         <v>78</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>78</v>
@@ -7630,10 +7626,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7641,41 +7637,41 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J50" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G50" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J50" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="K50" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="N50" t="s" s="2">
+      <c r="O50" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="S50" t="s" s="2">
         <v>78</v>
@@ -7717,39 +7713,39 @@
         <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL50" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="AG50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL50" t="s" s="2">
+      <c r="AM50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN50" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>256</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7760,28 +7756,28 @@
         <v>79</v>
       </c>
       <c r="G51" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J51" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J51" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="K51" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7831,39 +7827,39 @@
         <v>78</v>
       </c>
       <c r="AF51" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL51" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="AG51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL51" t="s" s="2">
+      <c r="AM51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN51" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>264</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7874,29 +7870,29 @@
         <v>79</v>
       </c>
       <c r="G52" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J52" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J52" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="K52" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L52" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>78</v>
@@ -7945,39 +7941,39 @@
         <v>78</v>
       </c>
       <c r="AF52" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL52" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="AG52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL52" t="s" s="2">
+      <c r="AM52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN52" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>272</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7988,29 +7984,29 @@
         <v>79</v>
       </c>
       <c r="G53" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J53" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J53" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="K53" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>78</v>
@@ -8059,39 +8055,39 @@
         <v>78</v>
       </c>
       <c r="AF53" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL53" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="AG53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL53" t="s" s="2">
+      <c r="AM53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN53" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>280</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8102,31 +8098,31 @@
         <v>79</v>
       </c>
       <c r="G54" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J54" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J54" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="K54" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="N54" t="s" s="2">
+      <c r="O54" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>78</v>
@@ -8175,42 +8171,42 @@
         <v>78</v>
       </c>
       <c r="AF54" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL54" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="AG54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL54" t="s" s="2">
+      <c r="AM54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN54" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>290</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="C55" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="B55" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="C55" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>78</v>
@@ -8220,31 +8216,31 @@
         <v>79</v>
       </c>
       <c r="G55" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J55" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J55" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="K55" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="M55" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="N55" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="N55" t="s" s="2">
+      <c r="O55" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>78</v>
@@ -8269,11 +8265,11 @@
         <v>78</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Y55" s="2"/>
       <c r="Z55" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>78</v>
@@ -8291,7 +8287,7 @@
         <v>78</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
@@ -8303,27 +8299,27 @@
         <v>78</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL55" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN55" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>239</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8334,7 +8330,7 @@
         <v>79</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>78</v>
@@ -8346,13 +8342,13 @@
         <v>78</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8403,25 +8399,25 @@
         <v>78</v>
       </c>
       <c r="AF56" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL56" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>78</v>
@@ -8432,14 +8428,14 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8458,16 +8454,16 @@
         <v>78</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="L57" t="s" s="2">
-        <v>134</v>
-      </c>
       <c r="M57" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8505,19 +8501,19 @@
         <v>78</v>
       </c>
       <c r="AB57" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AC57" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="AC57" t="s" s="2">
+      <c r="AD57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE57" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="AD57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE57" t="s" s="2">
+      <c r="AF57" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
@@ -8529,13 +8525,13 @@
         <v>78</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>78</v>
@@ -8546,10 +8542,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8557,41 +8553,41 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J58" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G58" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J58" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="K58" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="N58" t="s" s="2">
+      <c r="O58" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>78</v>
@@ -8633,39 +8629,39 @@
         <v>78</v>
       </c>
       <c r="AF58" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL58" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="AG58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL58" t="s" s="2">
+      <c r="AM58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN58" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>256</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8676,28 +8672,28 @@
         <v>79</v>
       </c>
       <c r="G59" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J59" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J59" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="K59" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="M59" t="s" s="2">
+      <c r="N59" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8747,39 +8743,39 @@
         <v>78</v>
       </c>
       <c r="AF59" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL59" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="AG59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL59" t="s" s="2">
+      <c r="AM59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN59" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>264</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8790,29 +8786,29 @@
         <v>79</v>
       </c>
       <c r="G60" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J60" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J60" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="K60" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>78</v>
@@ -8861,39 +8857,39 @@
         <v>78</v>
       </c>
       <c r="AF60" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL60" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="AG60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL60" t="s" s="2">
+      <c r="AM60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN60" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>272</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8904,29 +8900,29 @@
         <v>79</v>
       </c>
       <c r="G61" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J61" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J61" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="K61" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>78</v>
@@ -8975,39 +8971,39 @@
         <v>78</v>
       </c>
       <c r="AF61" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL61" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="AG61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL61" t="s" s="2">
+      <c r="AM61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN61" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>280</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9018,31 +9014,31 @@
         <v>79</v>
       </c>
       <c r="G62" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J62" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J62" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="K62" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="M62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="N62" t="s" s="2">
+      <c r="O62" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>78</v>
@@ -9091,39 +9087,39 @@
         <v>78</v>
       </c>
       <c r="AF62" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL62" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="AG62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH62" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL62" t="s" s="2">
+      <c r="AM62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN62" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>290</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9134,31 +9130,31 @@
         <v>79</v>
       </c>
       <c r="G63" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J63" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J63" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="K63" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L63" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="N63" t="s" s="2">
+      <c r="O63" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>78</v>
@@ -9207,71 +9203,71 @@
         <v>78</v>
       </c>
       <c r="AF63" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL63" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="AG63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL63" t="s" s="2">
+      <c r="AM63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN63" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>346</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J64" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G64" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J64" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="K64" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="M64" t="s" s="2">
+      <c r="N64" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>352</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9321,39 +9317,39 @@
         <v>78</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK64" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AL64" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="AL64" t="s" s="2">
+      <c r="AM64" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="AM64" t="s" s="2">
+      <c r="AN64" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>356</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9364,28 +9360,28 @@
         <v>79</v>
       </c>
       <c r="G65" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J65" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J65" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="K65" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="M65" t="s" s="2">
+      <c r="N65" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9435,39 +9431,39 @@
         <v>78</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK65" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AL65" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="AL65" t="s" s="2">
+      <c r="AM65" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="AM65" t="s" s="2">
+      <c r="AN65" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>365</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9478,28 +9474,28 @@
         <v>79</v>
       </c>
       <c r="G66" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J66" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J66" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="K66" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="L66" t="s" s="2">
+      <c r="M66" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="M66" t="s" s="2">
+      <c r="N66" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -9549,39 +9545,39 @@
         <v>78</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK66" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="AL66" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="AL66" t="s" s="2">
+      <c r="AM66" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="AM66" t="s" s="2">
+      <c r="AN66" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="AN66" t="s" s="2">
-        <v>374</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9592,28 +9588,28 @@
         <v>79</v>
       </c>
       <c r="G67" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J67" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J67" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="K67" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="L67" t="s" s="2">
+      <c r="M67" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="M67" t="s" s="2">
+      <c r="N67" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>379</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9663,28 +9659,28 @@
         <v>78</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL67" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AM67" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>381</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>78</v>
@@ -9692,10 +9688,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9706,28 +9702,28 @@
         <v>79</v>
       </c>
       <c r="G68" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J68" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J68" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="K68" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="L68" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="M68" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="M68" t="s" s="2">
-        <v>384</v>
-      </c>
       <c r="N68" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -9777,28 +9773,28 @@
         <v>78</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL68" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AM68" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>386</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>78</v>
@@ -9806,10 +9802,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9829,16 +9825,16 @@
         <v>78</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="L69" t="s" s="2">
+      <c r="M69" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>390</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -9889,7 +9885,7 @@
         <v>78</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>79</v>
@@ -9901,13 +9897,13 @@
         <v>78</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK69" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AL69" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>78</v>
@@ -9918,10 +9914,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9932,7 +9928,7 @@
         <v>79</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>78</v>
@@ -9944,13 +9940,13 @@
         <v>78</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="L70" t="s" s="2">
+      <c r="M70" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -10001,25 +9997,25 @@
         <v>78</v>
       </c>
       <c r="AF70" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL70" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>78</v>
@@ -10030,14 +10026,14 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
@@ -10056,16 +10052,16 @@
         <v>78</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="L71" t="s" s="2">
-        <v>134</v>
-      </c>
       <c r="M71" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10115,7 +10111,7 @@
         <v>78</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>79</v>
@@ -10127,13 +10123,13 @@
         <v>78</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>78</v>
@@ -10144,14 +10140,14 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
@@ -10164,25 +10160,25 @@
         <v>78</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L72" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="M72" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="M72" t="s" s="2">
-        <v>398</v>
-      </c>
       <c r="N72" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>78</v>
@@ -10231,7 +10227,7 @@
         <v>78</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>79</v>
@@ -10243,13 +10239,13 @@
         <v>78</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>78</v>
@@ -10260,10 +10256,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10274,31 +10270,31 @@
         <v>79</v>
       </c>
       <c r="G73" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J73" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="K73" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L73" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="M73" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="M73" t="s" s="2">
+      <c r="N73" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="N73" t="s" s="2">
+      <c r="O73" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>78</v>
@@ -10323,61 +10319,61 @@
         <v>78</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="Y73" s="2"/>
       <c r="Z73" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK73" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="AA73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK73" t="s" s="2">
+      <c r="AL73" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="AL73" t="s" s="2">
+      <c r="AM73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN73" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>408</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10385,34 +10381,34 @@
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J74" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G74" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="K74" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="L74" t="s" s="2">
+      <c r="M74" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="M74" t="s" s="2">
+      <c r="N74" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="N74" t="s" s="2">
+      <c r="O74" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>414</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>78</v>
@@ -10461,39 +10457,39 @@
         <v>78</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK74" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AL74" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="AL74" t="s" s="2">
+      <c r="AM74" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="AM74" t="s" s="2">
+      <c r="AN74" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>418</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10504,7 +10500,7 @@
         <v>79</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>78</v>
@@ -10516,19 +10512,19 @@
         <v>78</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="L75" t="s" s="2">
+      <c r="M75" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="M75" t="s" s="2">
+      <c r="N75" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="N75" t="s" s="2">
+      <c r="O75" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>424</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>78</v>
@@ -10577,25 +10573,25 @@
         <v>78</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>78</v>
@@ -10606,10 +10602,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10620,31 +10616,31 @@
         <v>79</v>
       </c>
       <c r="G76" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J76" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="K76" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="L76" t="s" s="2">
+      <c r="M76" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="M76" t="s" s="2">
+      <c r="N76" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="O76" t="s" s="2">
         <v>429</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>430</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>78</v>
@@ -10693,28 +10689,28 @@
         <v>78</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL76" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="AM76" t="s" s="2">
         <v>431</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>432</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>78</v>
@@ -10722,10 +10718,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10745,19 +10741,19 @@
         <v>78</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L77" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="M77" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="M77" t="s" s="2">
+      <c r="N77" t="s" s="2">
         <v>435</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>436</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -10783,11 +10779,11 @@
         <v>78</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="Y77" s="2"/>
       <c r="Z77" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>78</v>
@@ -10805,7 +10801,7 @@
         <v>78</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>79</v>
@@ -10817,16 +10813,16 @@
         <v>78</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK77" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="AL77" t="s" s="2">
         <v>438</v>
       </c>
-      <c r="AL77" t="s" s="2">
+      <c r="AM77" t="s" s="2">
         <v>439</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>440</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>78</v>
@@ -10834,10 +10830,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10857,19 +10853,19 @@
         <v>78</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="L78" t="s" s="2">
+      <c r="M78" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="M78" t="s" s="2">
+      <c r="N78" t="s" s="2">
         <v>444</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>445</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -10919,7 +10915,7 @@
         <v>78</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>79</v>
@@ -10931,16 +10927,16 @@
         <v>78</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AL78" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="AM78" t="s" s="2">
         <v>439</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>440</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>78</v>
@@ -10948,10 +10944,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10971,19 +10967,19 @@
         <v>78</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L79" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="M79" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="M79" t="s" s="2">
+      <c r="N79" t="s" s="2">
         <v>449</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>450</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -11009,11 +11005,11 @@
         <v>78</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="Y79" s="2"/>
       <c r="Z79" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>78</v>
@@ -11031,7 +11027,7 @@
         <v>78</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>79</v>
@@ -11043,27 +11039,27 @@
         <v>78</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL79" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN79" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN79" t="s" s="2">
-        <v>453</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11074,28 +11070,28 @@
         <v>79</v>
       </c>
       <c r="G80" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J80" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J80" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="K80" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L80" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="M80" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="M80" t="s" s="2">
+      <c r="N80" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -11121,47 +11117,47 @@
         <v>78</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="Y80" s="2"/>
       <c r="Z80" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL80" t="s" s="2">
         <v>458</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>459</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>78</v>
@@ -11172,10 +11168,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11198,16 +11194,16 @@
         <v>78</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="L81" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="L81" t="s" s="2">
+      <c r="M81" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="M81" t="s" s="2">
+      <c r="N81" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>464</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
@@ -11257,7 +11253,7 @@
         <v>78</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>79</v>
@@ -11269,13 +11265,13 @@
         <v>78</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>78</v>
@@ -11286,10 +11282,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11312,16 +11308,16 @@
         <v>78</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L82" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="M82" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="M82" t="s" s="2">
+      <c r="N82" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>469</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -11347,11 +11343,11 @@
         <v>78</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="Y82" s="2"/>
       <c r="Z82" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>78</v>
@@ -11369,7 +11365,7 @@
         <v>78</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>79</v>
@@ -11381,13 +11377,13 @@
         <v>78</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>78</v>
@@ -11398,10 +11394,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11424,19 +11420,19 @@
         <v>78</v>
       </c>
       <c r="K83" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="L83" t="s" s="2">
         <v>473</v>
       </c>
-      <c r="L83" t="s" s="2">
+      <c r="M83" t="s" s="2">
         <v>474</v>
       </c>
-      <c r="M83" t="s" s="2">
+      <c r="N83" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="O83" t="s" s="2">
         <v>475</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="O83" t="s" s="2">
-        <v>476</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>78</v>
@@ -11485,7 +11481,7 @@
         <v>78</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>79</v>
@@ -11497,13 +11493,13 @@
         <v>78</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>78</v>
@@ -11514,10 +11510,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11540,16 +11536,16 @@
         <v>78</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L84" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="M84" t="s" s="2">
         <v>478</v>
       </c>
-      <c r="M84" t="s" s="2">
+      <c r="N84" t="s" s="2">
         <v>479</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>480</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -11575,11 +11571,11 @@
         <v>78</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="Y84" s="2"/>
       <c r="Z84" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>78</v>
@@ -11597,7 +11593,7 @@
         <v>78</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>79</v>
@@ -11609,13 +11605,13 @@
         <v>78</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>78</v>
@@ -11626,10 +11622,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11652,16 +11648,16 @@
         <v>78</v>
       </c>
       <c r="K85" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="L85" t="s" s="2">
         <v>484</v>
       </c>
-      <c r="L85" t="s" s="2">
+      <c r="M85" t="s" s="2">
         <v>485</v>
       </c>
-      <c r="M85" t="s" s="2">
+      <c r="N85" t="s" s="2">
         <v>486</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>487</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -11711,7 +11707,7 @@
         <v>78</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>79</v>
@@ -11723,27 +11719,27 @@
         <v>78</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK85" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="AL85" t="s" s="2">
         <v>488</v>
       </c>
-      <c r="AL85" t="s" s="2">
+      <c r="AM85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN85" t="s" s="2">
         <v>489</v>
-      </c>
-      <c r="AM85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN85" t="s" s="2">
-        <v>490</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11766,13 +11762,13 @@
         <v>78</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="L86" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="M86" t="s" s="2">
         <v>492</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>493</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -11823,7 +11819,7 @@
         <v>78</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>79</v>
@@ -11835,13 +11831,13 @@
         <v>78</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>78</v>
@@ -11852,10 +11848,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -11866,7 +11862,7 @@
         <v>79</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>78</v>
@@ -11878,13 +11874,13 @@
         <v>78</v>
       </c>
       <c r="K87" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="L87" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="L87" t="s" s="2">
+      <c r="M87" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -11935,25 +11931,25 @@
         <v>78</v>
       </c>
       <c r="AF87" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL87" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="AG87" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH87" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL87" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>78</v>
@@ -11964,14 +11960,14 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
@@ -11990,16 +11986,16 @@
         <v>78</v>
       </c>
       <c r="K88" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L88" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="L88" t="s" s="2">
-        <v>134</v>
-      </c>
       <c r="M88" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
@@ -12049,7 +12045,7 @@
         <v>78</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>79</v>
@@ -12061,13 +12057,13 @@
         <v>78</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>78</v>
@@ -12078,14 +12074,14 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
@@ -12098,25 +12094,25 @@
         <v>78</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L89" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="M89" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="M89" t="s" s="2">
-        <v>398</v>
-      </c>
       <c r="N89" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O89" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>78</v>
@@ -12165,7 +12161,7 @@
         <v>78</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>79</v>
@@ -12177,13 +12173,13 @@
         <v>78</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>78</v>
@@ -12194,10 +12190,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12208,7 +12204,7 @@
         <v>79</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>78</v>
@@ -12220,13 +12216,13 @@
         <v>78</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L90" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="M90" t="s" s="2">
         <v>499</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>500</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -12253,47 +12249,47 @@
         <v>78</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Y90" s="2"/>
       <c r="Z90" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL90" t="s" s="2">
         <v>501</v>
-      </c>
-      <c r="AA90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF90" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="AG90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH90" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ90" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL90" t="s" s="2">
-        <v>502</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>78</v>
@@ -12304,10 +12300,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12315,10 +12311,10 @@
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>78</v>
@@ -12330,13 +12326,13 @@
         <v>78</v>
       </c>
       <c r="K91" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="L91" t="s" s="2">
         <v>504</v>
       </c>
-      <c r="L91" t="s" s="2">
+      <c r="M91" t="s" s="2">
         <v>505</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>506</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
@@ -12387,25 +12383,25 @@
         <v>78</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>78</v>
@@ -12416,10 +12412,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12442,19 +12438,19 @@
         <v>78</v>
       </c>
       <c r="K92" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="L92" t="s" s="2">
         <v>509</v>
       </c>
-      <c r="L92" t="s" s="2">
+      <c r="M92" t="s" s="2">
         <v>510</v>
       </c>
-      <c r="M92" t="s" s="2">
+      <c r="N92" t="s" s="2">
         <v>511</v>
       </c>
-      <c r="N92" t="s" s="2">
+      <c r="O92" t="s" s="2">
         <v>512</v>
-      </c>
-      <c r="O92" t="s" s="2">
-        <v>513</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>78</v>
@@ -12503,7 +12499,7 @@
         <v>78</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>79</v>
@@ -12515,13 +12511,13 @@
         <v>78</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>78</v>
@@ -12532,10 +12528,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -12558,16 +12554,16 @@
         <v>78</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L93" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="M93" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="M93" t="s" s="2">
+      <c r="N93" t="s" s="2">
         <v>517</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>518</v>
       </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
@@ -12593,11 +12589,11 @@
         <v>78</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="Y93" s="2"/>
       <c r="Z93" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AA93" t="s" s="2">
         <v>78</v>
@@ -12615,7 +12611,7 @@
         <v>78</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>79</v>
@@ -12627,13 +12623,13 @@
         <v>78</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>78</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-procedure.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-procedure.xlsx
@@ -291,10 +291,10 @@
     <t>Logical id of this artifact</t>
   </si>
   <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+    <t>リソースのURLで使用されるリソースの論理ID。割り当てられたら、この値は変更されません。 / The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>リソースにIDがないのは、IDが作成操作を使用してサーバーに送信されている場合です。 / The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
   </si>
   <si>
     <t>Resource.id</t>
@@ -307,16 +307,16 @@
 </t>
   </si>
   <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+    <t>リソースに関するメタデータ / Metadata about the resource</t>
+  </si>
+  <si>
+    <t>リソースに関するメタデータ。これは、インフラストラクチャによって維持されるコンテンツです。コンテンツの変更は、常にリソースのバージョンの変更に関連付けられているとは限りません。 / The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
   </si>
   <si>
     <t>Resource.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+    <t xml:space="preserve">ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
@@ -327,13 +327,13 @@
 </t>
   </si>
   <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+    <t>このコンテンツが作成されたルールのセット / A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>リソースが構築されたときに従った一連のルールへの参照。コンテンツの処理時に理解する必要があります。多くの場合、これは他のプロファイルなどとともに特別なルールを定義する実装ガイドへの参照です。 / A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>このルールセットを主張することは、コンテンツが限られた取引パートナーのセットによってのみ理解されることを制限します。これにより、本質的に長期的にデータの有用性が制限されます。ただし、既存の健康エコシステムは非常に破壊されており、一般的に計算可能な意味でデータを定義、収集、交換する準備ができていません。可能な限り、実装者や仕様ライターはこの要素の使用を避ける必要があります。多くの場合、使用する場合、URLは、これらの特別なルールを他のプロファイル、バリューセットなどとともに叙述(Narative)の一部として定義する実装ガイドへの参照です。 / Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
   </si>
   <si>
     <t>Resource.implicitRules</t>
@@ -346,19 +346,19 @@
 </t>
   </si>
   <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+    <t>リソースコンテンツの言語 / Language of the resource content</t>
+  </si>
+  <si>
+    <t>リソースが書かれている基本言語。 / The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>言語は、インデックス作成とアクセシビリティをサポートするために提供されます（通常、テキストから音声までのサービスなどのサービスが言語タグを使用します）。叙述(Narative)のHTML言語タグは、叙述(Narative)に適用されます。リソース上の言語タグを使用して、リソース内のデータから生成された他のプレゼンテーションの言語を指定できます。すべてのコンテンツが基本言語である必要はありません。リソース。言語は、叙述(Narative)に自動的に適用されると想定されるべきではありません。言語が指定されている場合、HTMLのDIV要素にも指定されている場合（XML：LangとHTML Lang属性の関係については、HTML5のルールを参照してください）。 / Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
   </si>
   <si>
     <t>preferred</t>
   </si>
   <si>
-    <t>A human language.</t>
+    <t>人間の言語。 / A human language.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/languages</t>
@@ -381,10 +381,10 @@
     <t>Text summary of the resource, for human interpretation. このリソースを人間が解釈するためのテキスト要約</t>
   </si>
   <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+    <t>リソースの概要を含み、人間へのリソースの内容を表すために使用できる人間の読み取り可能な叙述(Narative)。叙述(Narative)はすべての構造化されたデータをエンコードする必要はありませんが、人間が叙述(Narative)を読むだけで「臨床的に安全」にするために十分な詳細を含める必要があります。リソースの定義は、臨床的安全を確保するために、叙述(Narative)で表現するコンテンツを定義する場合があります。 / A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>含まれるリソースには叙述(Narative)がありません。含まれていないリソースには叙述(Narative)が必要です。場合によっては、リソースには、追加の個別のデータがほとんどまたはまったくないテキストのみがあります（すべてのMinoccur = 1要素が満たされている限り）。これは、情報がtext blob (バイナリー ラージ オブジェクト)としてキャプチャされるレガシーシステムからのデータ、またはテキストが生またはナレーションされ、エンコードされた情報が後で追加される場合に必要になる場合があります。 / Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
   </si>
   <si>
     <t>DomainResource.text</t>
@@ -407,10 +407,10 @@
     <t>Contained, inline Resources</t>
   </si>
   <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+    <t>これらのリソースには、それらを含むリソースを除いて独立した存在はありません - 独立して特定することはできず、独自の独立したトランザクションスコープを持つこともできません。 / These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>識別が失われると、コンテンツを適切に識別できる場合は、これを行うべきではありません。含まれるリソースには、メタ要素にプロファイルとタグがある場合がありますが、セキュリティラベルはありません。 / This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
@@ -430,33 +430,34 @@
 </t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+    <t>実装で定義された追加のコンテンツ / Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>リソースの基本的な定義の一部ではない追加情報を表すために使用できます。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。 / May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>拡張機能を使用または定義する機関や管轄権に関係なく、アプリケーション、プロジェクト、または標準による拡張機能の使用に関連するスティグマはありません。拡張機能の使用は、FHIR仕様がすべての人にコアレベルのシンプルさを保持できるようにするものです。 / There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>DomainResource.extension</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:両方ではなく、拡張または値[x]が必要です / Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Procedure.modifierExtension</t>
   </si>
   <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+    <t>無視できない拡張機能 / Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>リソースの基本的な定義の一部ではなく、それを含む要素の理解および/または含有要素の子孫の理解を変更するために使用される場合があります。通常、修飾子要素は否定または資格を提供します。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義することが許可されていますが、拡張機能の定義の一部として満たされる一連の要件があります。アプリケーションの処理リソースは、修飾子拡張機能をチェックする必要があります。
+モディファイア拡張は、リソースまたはdomainResource上の要素の意味を変更してはなりません（修飾軸自体の意味を変更することはできません）。 / May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+    <t>修飾子拡張機能により、安全に無視できる大部分の拡張機能と明確に区別できるように、安全に無視できない拡張機能が可能になります。これにより、実装者が拡張の存在を禁止する必要性を排除することにより、相互運用性が促進されます。詳細については、[修飾子拡張の定義]（拡張性.html＃modifierextension）を参照してください。 / Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -469,7 +470,7 @@
 </t>
   </si>
   <si>
-    <t>External Identifiers for this procedure</t>
+    <t>この手順の外部識別子 / External Identifiers for this procedure</t>
   </si>
   <si>
     <t>これは、ビジネスプロセスによって定義され、リソース自体への直接のURL参照が適切でない場合に参照するために使用される、このProcedureに関連する識別子を記録する。</t>
@@ -478,7 +479,7 @@
     <t>これはビジネス識別子であり、リソース識別子ではない（議論参照）。識別子は1つのリソースインスタンスにのみ表示されることがベストだが、ビジネス上の慣習により、同じ識別子を持つ複数のリソースインスタンスが存在することがあるかもしれない。例えば、複数のPatientとPersonリソースインスタンスが同じ社会保険番号を共有しているかもしれない。</t>
   </si>
   <si>
-    <t>Allows identification of the procedure as it is known by various participating systems and in a way that remains consistent across servers.</t>
+    <t>さまざまな参加システムで知られており、サーバー全体で一貫性のある方法で知られている手順を識別できます。 / Allows identification of the procedure as it is known by various participating systems and in a way that remains consistent across servers.</t>
   </si>
   <si>
     <t>Event.identifier</t>
@@ -500,7 +501,7 @@
 </t>
   </si>
   <si>
-    <t>Instantiates FHIR protocol or definition</t>
+    <t>FHIRプロトコルまたは定義をインスタンス化します / Instantiates FHIR protocol or definition</t>
   </si>
   <si>
     <t>本Procedureの全部または一部を遵守するFHIR定義のプロトコル、ガイドライン、オーダセット、その他の定義を指すURL。</t>
@@ -515,13 +516,13 @@
     <t>Procedure.instantiatesUri</t>
   </si>
   <si>
-    <t>Instantiates external protocol or definition</t>
+    <t>外部プロトコルまたは定義をインスタンス化します / Instantiates external protocol or definition</t>
   </si>
   <si>
     <t>本Procedure全体または一部を遵守する、外部で管理されているプロトコル、ガイドライン、オーダセット、またはその他の定義を指すURL。</t>
   </si>
   <si>
-    <t>This might be an HTML page, PDF, etc. or could just be a non-resolvable URI identifier.</t>
+    <t>これは、HTMLページ、PDFなどである可能性があるか、単に解決できないURI識別子である可能性があります。 / This might be an HTML page, PDF, etc. or could just be a non-resolvable URI identifier.</t>
   </si>
   <si>
     <t>Event.instantiatesUri</t>
@@ -586,7 +587,7 @@
     <t>Procedure.status</t>
   </si>
   <si>
-    <t>preparation | in-progress | not-done | on-hold | stopped | completed | entered-in-error | unknown</t>
+    <t>準備|進行中|not-done |オンホールド|停止|完了|エラーに入った|わからない / preparation | in-progress | not-done | on-hold | stopped | completed | entered-in-error | unknown</t>
   </si>
   <si>
     <t>プロシージャの状態を指定するコードである。一般的には、進行中または完了した状態になる。【JP Core仕様】http://hl7.org/fhir/us/core/STU3.1/StructureDefinition-us-core-procedure.htmlを参照</t>
@@ -601,7 +602,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>A code specifying the state of the procedure.</t>
+    <t>手順の状態を指定するコード。 / A code specifying the state of the procedure.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/event-status|4.0.1</t>
@@ -655,7 +656,7 @@
     <t>Classification of the procedure. このプロシジャーの分類カテゴリ</t>
   </si>
   <si>
-    <t>A code that classifies the procedure for searching, sorting and display purposes (e.g. "Surgical Procedure").</t>
+    <t>検索、並べ替え、表示の手順を分類するコード（「外科的処置」など）。 / A code that classifies the procedure for searching, sorting and display purposes (e.g. "Surgical Procedure").</t>
   </si>
   <si>
     <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ProcedureCategory_VS</t>
@@ -683,7 +684,7 @@
     <t>すべての用語の使用がこの一般的なパターンに当てはまるわけではない。場合によっては、モデルはCodeableConceptを使用せず、Codingを直接使用し、テキスト、コーディング、翻訳、要素間の関係や事前・事後の調整を管理するための独自の構造を提供すべきである。</t>
   </si>
   <si>
-    <t>0..1 to account for primarily narrative only resources.</t>
+    <t>0..1主に叙述(Narative)のみのリソースを説明する。 / 0..1 to account for primarily narrative only resources.</t>
   </si>
   <si>
     <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ProcedureCodesMedical_VS</t>
@@ -708,10 +709,10 @@
 </t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+    <t>要素間参照のための一意のID / Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>リソース内の要素の一意のID（内部参照用）。これは、スペースを含まない文字列値である場合があります。 / Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
   </si>
   <si>
     <t>Element.id</t>
@@ -723,7 +724,7 @@
     <t>Procedure.code.extension</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>要素の基本的な定義の一部ではない追加情報を表すために使用できます。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。 / May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
@@ -746,16 +747,16 @@
 </t>
   </si>
   <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+    <t>用語システムによって定義されたコード / Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>用語システムによって定義されたコードへの参照。 / A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>コードは、列挙されたCTなどの非常に正式な定義まで、列挙またはコードリストで非常にさりげなく定義される場合があります。詳細については、HL7 V3コアプリンシップを参照してください。コーディングの順序付けは未定義であり、意味を推測するために使用されません。一般に、せいぜい、コーディング値の1つのみがuserselected = trueとしてラベル付けされます。 / Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>コードシステム内の代替エンコーディング、および他のコードシステムへの翻訳が可能になります。 / Allows for alternative encodings within a code system, and translations to other code systems.</t>
   </si>
   <si>
     <t xml:space="preserve">value:system}
@@ -798,16 +799,16 @@
     <t>Procedure.code.coding.system</t>
   </si>
   <si>
-    <t>Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+    <t>用語システムのアイデンティティ / Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>コード内のシンボルの意味を定義するコードシステムの識別。 / The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>uriは、oid（urn：oid：...）またはuuid（urn：uuid：...）である場合があります。OIDとUUIDは、HL7 OIDレジストリへの参照となります。それ以外の場合、URIは、FHIRの特別なURIを定義したHL7のリストから来るか、システムを明確かつ明確に確立する定義を参照する必要があります。 / The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>シンボルの定義のソースについて明確である必要があります。 / Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
     <t>http://jpfhir.jp/fhir/core/CodeSystem/JP_ProcedureCodesMedical_CS</t>
@@ -828,13 +829,13 @@
     <t>Procedure.code.coding.version</t>
   </si>
   <si>
-    <t>Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+    <t>システムのバージョン - 関連する場合 / Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>このコードを選択するときに使用されたコードシステムのバージョン。コードの意味がバージョン全体で一貫しているため、適切にメンテナンスしたコードシステムでは報告されたバージョンを必要としないことに注意してください。ただし、これは一貫して保証することはできず、意味が一貫していることが保証されていない場合、バージョンを交換する必要があります。 / The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>用語がコードシステムバージョンを識別するために使用する文字列を明確に定義していない場合、推奨は、そのバージョンがバージョンの日付として公式に公開された日付（FHIR日付形式で表現）を使用することです。 / Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
   </si>
   <si>
     <t>Coding.version</t>
@@ -852,13 +853,13 @@
     <t>Procedure.code.coding.code</t>
   </si>
   <si>
-    <t>Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>Need to refer to a particular code in the system.</t>
+    <t>システムによって定義された構文のシンボル / Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>システムによって定義された構文のシンボル。シンボルは、定義されたコードまたはコーディングシステムによって定義された構文の式（例：調整後）である場合があります。 / A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>システム内の特定のコードを参照する必要があります。 / Need to refer to a particular code in the system.</t>
   </si>
   <si>
     <t>Coding.code</t>
@@ -876,13 +877,13 @@
     <t>Procedure.code.coding.display</t>
   </si>
   <si>
-    <t>Representation defined by the system</t>
-  </si>
-  <si>
-    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+    <t>システムによって定義された表現 / Representation defined by the system</t>
+  </si>
+  <si>
+    <t>システムのルールに従って、システム内のコードの意味の表現。 / A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>システムを知らない読者のために、コードの人間の読み取り可能な意味を持ち込むことができる必要があります。 / Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
   </si>
   <si>
     <t>Coding.display</t>
@@ -904,16 +905,16 @@
 </t>
   </si>
   <si>
-    <t>If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+    <t>このコーディングがユーザーによって直接選択された場合 / If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>このコーディングがユーザーによって直接選択されたことを示します。利用可能なアイテムのピックリスト（コードまたはディスプレイ）。 / Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>一連の代替案の中で、直接選択されたコードが新しい翻訳の最も適切な出発点です。この要素の使用とその結果をより完全に明確にするためには、「直接選択された」ことについては曖昧さがあり、取引パートナー契約が必要になる場合があります。 / Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>これは、臨床安全基準として特定されています - この正確なシステム/コードペアは、いくつかのルールまたは言語処理に基づいてシステムによって推測されるのではなく、明示的に選択されたことです。 / This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
   </si>
   <si>
     <t>Coding.userSelected</t>
@@ -1072,16 +1073,16 @@
     <t>Procedure.code.text</t>
   </si>
   <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+    <t>コンセプトの単純なテキスト表現 / Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>データを入力したユーザー、および/またはユーザーの意図された意味を表すユーザーによって見られる/選択/発言された概念の人間の言語表現。 / A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>多くの場合、テキストはコーディングの1つの表示名と同じです。 / Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>用語からのコードは、それらを使用する人間のすべてのニュアンスを使用して、常に正しい意味をキャプチャするとは限りません。または、適切なコードがまったくない場合があります。これらの場合、テキストはソースの完全な意味をキャプチャするために使用されます。 / The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
   </si>
   <si>
     <t>CodeableConcept.text</t>
@@ -1258,10 +1259,11 @@
 user contentmodifiers</t>
   </si>
   <si>
-    <t>Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+    <t>認識されていなくても無視できない拡張機能 / Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>要素の基本的な定義の一部ではなく、それが含まれている要素の理解、および/または含まれる要素の子孫の理解を変更するために使用される場合があります。通常、修飾子要素は否定または資格を提供します。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。アプリケーションの処理リソースは、修飾子拡張機能をチェックする必要があります。
+モディファイア拡張は、リソースまたはdomainResource上の要素の意味を変更してはなりません（修飾軸自体の意味を変更することはできません）。 / May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
@@ -1282,7 +1284,7 @@
  【JP Core仕様】当面利用しない。</t>
   </si>
   <si>
-    <t>Allows disambiguation of the types of involvement of different performers.</t>
+    <t>さまざまなパフォーマーの関与の種類の曖昧性を乱すことができます。 / Allows disambiguation of the types of involvement of different performers.</t>
   </si>
   <si>
     <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ProcedurePerformerRole_VS</t>
@@ -1314,7 +1316,7 @@
     <t>参照は、実際のFHIRリソースへの参照であり、解決可能でなければならない（アクセス制御、一時的な利用不可などを可能にする）。解決には、URLからの検索、またはリソースタイプによって適用可能な場合は、絶対参照を正規のURLとして扱い、ローカルレジストリ/リポジトリで検索することができる。</t>
   </si>
   <si>
-    <t>A reference to Device supports use cases, such as pacemakers.</t>
+    <t>デバイスへの参照は、ペースメーカーなどのユースケースをサポートします。 / A reference to Device supports use cases, such as pacemakers.</t>
   </si>
   <si>
     <t>Event.performer.actor</t>
@@ -1346,7 +1348,7 @@
     <t>参照は、実際のFHIRリソースへの参照であり、解決可能でなければならない（アクセス制御、一時的な利用不能などを可能にする）。解決には、URLからの検索によるものと、リソースタイプによって該当する場合は、絶対参照を正規のURLとして扱い、ローカルレジストリ/リポジトリで検索するものがある。</t>
   </si>
   <si>
-    <t>Practitioners and Devices can be associated with multiple organizations.  This element indicates which organization they were acting on behalf of when performing the action.</t>
+    <t>開業医とデバイスは、複数の組織に関連付けられています。この要素は、アクションを実行する際にどの組織が行動していたかを示します。 / Practitioners and Devices can be associated with multiple organizations.  This element indicates which organization they were acting on behalf of when performing the action.</t>
   </si>
   <si>
     <t>.scoper</t>
@@ -1366,7 +1368,7 @@
 例:自宅での出生、レストランで気管切開など。</t>
   </si>
   <si>
-    <t>Ties a procedure to where the records are likely kept.</t>
+    <t>記録が保持される可能性が高い場所に手順を結びます。 / Ties a procedure to where the records are likely kept.</t>
   </si>
   <si>
     <t>.participation[typeCode=LOC].role[classCode=SDLOC]</t>
@@ -1605,7 +1607,7 @@
     <t>Procedure.focalDevice.action</t>
   </si>
   <si>
-    <t>Kind of change to device</t>
+    <t>デバイスへの変更の種類 / Kind of change to device</t>
   </si>
   <si>
     <t>Procedure中にデバイスに起こった変化の種類。【JP Core仕様】https://www.hl7.org/fhir/R4/procedure.htmlを参照</t>
@@ -1624,7 +1626,7 @@
 </t>
   </si>
   <si>
-    <t>Device that was changed</t>
+    <t>変更されたデバイス / Device that was changed</t>
   </si>
   <si>
     <t>Procedure中に操作（変更）されたデバイス。【JP Core仕様】https://www.hl7.org/fhir/R4/procedure.htmlを参照</t>
@@ -1651,7 +1653,7 @@
 実際に埋め込まれた、または取り外されたデバイスについては、Procedure.deviceを使用すること。</t>
   </si>
   <si>
-    <t>Used for tracking contamination, etc.</t>
+    <t>汚染などの追跡に使用されます。 / Used for tracking contamination, etc.</t>
   </si>
   <si>
     <t>.participation[typeCode=DEV].role[classCode=MANU] or
@@ -2015,7 +2017,7 @@
     <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="42.5234375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="59.70703125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="66.18359375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/develop/StructureDefinition-jp-procedure.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-procedure.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.1</t>
+    <t>1.1.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-24</t>
+    <t>2023-06-26</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-procedure.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-procedure.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3350" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3350" uniqueCount="482">
   <si>
     <t>Property</t>
   </si>
@@ -147,6 +147,10 @@
   <si>
     <t>An action that is or was performed on or for a patient. This can be a physical intervention like an operation, or less invasive like long term services, counseling, or hypnotherapy.
 患者に対して、または患者のために実行されているか実行されたアクション。これは、手術のような身体的介入、または長期サービス、カウンセリング、催眠療法のような低侵襲性である可能性がある。</t>
+  </si>
+  <si>
+    <t>dom-2:リソースが別のリソースに含まれている場合、ネストされたリソースを含めてはなりません / If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidまたはmeta.lastupdatedを持たないものとします / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -2010,13 +2014,13 @@
         <v>38</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AL1" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AM1" t="s" s="2">
         <v>38</v>
@@ -2027,10 +2031,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -2041,7 +2045,7 @@
         <v>39</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>38</v>
@@ -2050,19 +2054,19 @@
         <v>38</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -2112,13 +2116,13 @@
         <v>38</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>38</v>
@@ -2141,10 +2145,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2155,7 +2159,7 @@
         <v>39</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>38</v>
@@ -2164,16 +2168,16 @@
         <v>38</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -2224,19 +2228,19 @@
         <v>38</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>38</v>
@@ -2253,10 +2257,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2267,28 +2271,28 @@
         <v>39</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -2338,19 +2342,19 @@
         <v>38</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>38</v>
@@ -2367,10 +2371,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2381,7 +2385,7 @@
         <v>39</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>38</v>
@@ -2393,16 +2397,16 @@
         <v>38</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2428,13 +2432,13 @@
         <v>38</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>38</v>
@@ -2452,19 +2456,19 @@
         <v>38</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>38</v>
@@ -2481,21 +2485,21 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>38</v>
@@ -2507,16 +2511,16 @@
         <v>38</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2566,25 +2570,25 @@
         <v>38</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>38</v>
@@ -2595,14 +2599,14 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2621,16 +2625,16 @@
         <v>38</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2680,7 +2684,7 @@
         <v>38</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>39</v>
@@ -2698,7 +2702,7 @@
         <v>38</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>38</v>
@@ -2709,14 +2713,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2735,16 +2739,16 @@
         <v>38</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2794,7 +2798,7 @@
         <v>38</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>39</v>
@@ -2806,13 +2810,13 @@
         <v>38</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>38</v>
@@ -2823,14 +2827,14 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2843,25 +2847,25 @@
         <v>38</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>38</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P9" t="s" s="2">
         <v>38</v>
@@ -2910,7 +2914,7 @@
         <v>38</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>39</v>
@@ -2922,13 +2926,13 @@
         <v>38</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>38</v>
@@ -2939,10 +2943,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2962,22 +2966,22 @@
         <v>38</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>38</v>
@@ -3026,7 +3030,7 @@
         <v>38</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>39</v>
@@ -3038,27 +3042,27 @@
         <v>38</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3078,16 +3082,16 @@
         <v>38</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3138,7 +3142,7 @@
         <v>38</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>39</v>
@@ -3150,13 +3154,13 @@
         <v>38</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>38</v>
@@ -3167,10 +3171,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3190,19 +3194,19 @@
         <v>38</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3252,7 +3256,7 @@
         <v>38</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>39</v>
@@ -3264,13 +3268,13 @@
         <v>38</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>38</v>
@@ -3281,14 +3285,14 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -3304,19 +3308,19 @@
         <v>38</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3366,7 +3370,7 @@
         <v>38</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>39</v>
@@ -3378,13 +3382,13 @@
         <v>38</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>38</v>
@@ -3395,14 +3399,14 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -3418,19 +3422,19 @@
         <v>38</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3480,7 +3484,7 @@
         <v>38</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>39</v>
@@ -3492,13 +3496,13 @@
         <v>38</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>38</v>
@@ -3509,10 +3513,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3520,31 +3524,31 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3570,13 +3574,13 @@
         <v>38</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>38</v>
@@ -3594,28 +3598,28 @@
         <v>38</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>38</v>
@@ -3623,21 +3627,21 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>38</v>
@@ -3646,19 +3650,19 @@
         <v>38</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3684,11 +3688,11 @@
         <v>38</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Y16" s="2"/>
       <c r="Z16" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>38</v>
@@ -3706,25 +3710,25 @@
         <v>38</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>38</v>
@@ -3735,10 +3739,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3749,7 +3753,7 @@
         <v>39</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>38</v>
@@ -3758,16 +3762,16 @@
         <v>38</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3794,11 +3798,11 @@
         <v>38</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Y17" s="2"/>
       <c r="Z17" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>38</v>
@@ -3816,28 +3820,28 @@
         <v>38</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>38</v>
@@ -3845,21 +3849,21 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>38</v>
@@ -3868,22 +3872,22 @@
         <v>38</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>38</v>
@@ -3908,11 +3912,11 @@
         <v>38</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Y18" s="2"/>
       <c r="Z18" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>38</v>
@@ -3930,39 +3934,39 @@
         <v>38</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3973,7 +3977,7 @@
         <v>39</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>38</v>
@@ -3985,13 +3989,13 @@
         <v>38</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -4042,13 +4046,13 @@
         <v>38</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>38</v>
@@ -4060,7 +4064,7 @@
         <v>38</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>38</v>
@@ -4071,14 +4075,14 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -4097,16 +4101,16 @@
         <v>38</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4144,19 +4148,19 @@
         <v>38</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AD20" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>39</v>
@@ -4168,13 +4172,13 @@
         <v>38</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>38</v>
@@ -4185,10 +4189,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4208,22 +4212,22 @@
         <v>38</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>38</v>
@@ -4260,17 +4264,17 @@
         <v>38</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AC21" s="2"/>
       <c r="AD21" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>39</v>
@@ -4282,30 +4286,30 @@
         <v>38</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D22" t="s" s="2">
         <v>38</v>
@@ -4315,7 +4319,7 @@
         <v>39</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>38</v>
@@ -4324,22 +4328,22 @@
         <v>38</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>38</v>
@@ -4364,11 +4368,11 @@
         <v>38</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Y22" s="2"/>
       <c r="Z22" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>38</v>
@@ -4386,7 +4390,7 @@
         <v>38</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>39</v>
@@ -4398,27 +4402,27 @@
         <v>38</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4429,7 +4433,7 @@
         <v>39</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>38</v>
@@ -4441,13 +4445,13 @@
         <v>38</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4498,13 +4502,13 @@
         <v>38</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>38</v>
@@ -4516,7 +4520,7 @@
         <v>38</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>38</v>
@@ -4527,14 +4531,14 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4553,16 +4557,16 @@
         <v>38</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4600,19 +4604,19 @@
         <v>38</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AD24" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>39</v>
@@ -4624,13 +4628,13 @@
         <v>38</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>38</v>
@@ -4641,10 +4645,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4652,10 +4656,10 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>38</v>
@@ -4664,29 +4668,29 @@
         <v>38</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>38</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="S25" t="s" s="2">
         <v>38</v>
@@ -4728,39 +4732,39 @@
         <v>38</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4771,7 +4775,7 @@
         <v>39</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>38</v>
@@ -4780,19 +4784,19 @@
         <v>38</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4842,39 +4846,39 @@
         <v>38</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4885,7 +4889,7 @@
         <v>39</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>38</v>
@@ -4894,20 +4898,20 @@
         <v>38</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>38</v>
@@ -4956,39 +4960,39 @@
         <v>38</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4999,7 +5003,7 @@
         <v>39</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>38</v>
@@ -5008,20 +5012,20 @@
         <v>38</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>38</v>
@@ -5070,39 +5074,39 @@
         <v>38</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5113,7 +5117,7 @@
         <v>39</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>38</v>
@@ -5122,22 +5126,22 @@
         <v>38</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>38</v>
@@ -5186,42 +5190,42 @@
         <v>38</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>38</v>
@@ -5231,7 +5235,7 @@
         <v>39</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>38</v>
@@ -5240,22 +5244,22 @@
         <v>38</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>38</v>
@@ -5280,11 +5284,11 @@
         <v>38</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Y30" s="2"/>
       <c r="Z30" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>38</v>
@@ -5302,7 +5306,7 @@
         <v>38</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>39</v>
@@ -5314,27 +5318,27 @@
         <v>38</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5345,7 +5349,7 @@
         <v>39</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>38</v>
@@ -5357,13 +5361,13 @@
         <v>38</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5414,13 +5418,13 @@
         <v>38</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>38</v>
@@ -5432,7 +5436,7 @@
         <v>38</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>38</v>
@@ -5443,14 +5447,14 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5469,16 +5473,16 @@
         <v>38</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5516,19 +5520,19 @@
         <v>38</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AD32" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>39</v>
@@ -5540,13 +5544,13 @@
         <v>38</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>38</v>
@@ -5557,10 +5561,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5568,10 +5572,10 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>38</v>
@@ -5580,29 +5584,29 @@
         <v>38</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>38</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>38</v>
@@ -5644,39 +5648,39 @@
         <v>38</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5687,7 +5691,7 @@
         <v>39</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>38</v>
@@ -5696,19 +5700,19 @@
         <v>38</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5758,39 +5762,39 @@
         <v>38</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5801,7 +5805,7 @@
         <v>39</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>38</v>
@@ -5810,20 +5814,20 @@
         <v>38</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>38</v>
@@ -5872,39 +5876,39 @@
         <v>38</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5915,7 +5919,7 @@
         <v>39</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>38</v>
@@ -5924,20 +5928,20 @@
         <v>38</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>38</v>
@@ -5986,39 +5990,39 @@
         <v>38</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6029,7 +6033,7 @@
         <v>39</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>38</v>
@@ -6038,22 +6042,22 @@
         <v>38</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>38</v>
@@ -6102,42 +6106,42 @@
         <v>38</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D38" t="s" s="2">
         <v>38</v>
@@ -6147,7 +6151,7 @@
         <v>39</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>38</v>
@@ -6156,22 +6160,22 @@
         <v>38</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>38</v>
@@ -6196,11 +6200,11 @@
         <v>38</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Y38" s="2"/>
       <c r="Z38" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>38</v>
@@ -6218,7 +6222,7 @@
         <v>38</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>39</v>
@@ -6230,27 +6234,27 @@
         <v>38</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6261,7 +6265,7 @@
         <v>39</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>38</v>
@@ -6273,13 +6277,13 @@
         <v>38</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6330,13 +6334,13 @@
         <v>38</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>38</v>
@@ -6348,7 +6352,7 @@
         <v>38</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>38</v>
@@ -6359,14 +6363,14 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6385,16 +6389,16 @@
         <v>38</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6432,19 +6436,19 @@
         <v>38</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AD40" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>39</v>
@@ -6456,13 +6460,13 @@
         <v>38</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>38</v>
@@ -6473,10 +6477,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6484,10 +6488,10 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>38</v>
@@ -6496,29 +6500,29 @@
         <v>38</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>38</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="S41" t="s" s="2">
         <v>38</v>
@@ -6560,39 +6564,39 @@
         <v>38</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6603,7 +6607,7 @@
         <v>39</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>38</v>
@@ -6612,19 +6616,19 @@
         <v>38</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6674,39 +6678,39 @@
         <v>38</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6717,7 +6721,7 @@
         <v>39</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>38</v>
@@ -6726,20 +6730,20 @@
         <v>38</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>38</v>
@@ -6788,39 +6792,39 @@
         <v>38</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6831,7 +6835,7 @@
         <v>39</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>38</v>
@@ -6840,20 +6844,20 @@
         <v>38</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>38</v>
@@ -6902,39 +6906,39 @@
         <v>38</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6945,7 +6949,7 @@
         <v>39</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>38</v>
@@ -6954,22 +6958,22 @@
         <v>38</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>38</v>
@@ -7018,42 +7022,42 @@
         <v>38</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D46" t="s" s="2">
         <v>38</v>
@@ -7063,7 +7067,7 @@
         <v>39</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>38</v>
@@ -7072,22 +7076,22 @@
         <v>38</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>38</v>
@@ -7112,11 +7116,11 @@
         <v>38</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Y46" s="2"/>
       <c r="Z46" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>38</v>
@@ -7134,7 +7138,7 @@
         <v>38</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>39</v>
@@ -7146,27 +7150,27 @@
         <v>38</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7177,7 +7181,7 @@
         <v>39</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>38</v>
@@ -7189,13 +7193,13 @@
         <v>38</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7246,13 +7250,13 @@
         <v>38</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>38</v>
@@ -7264,7 +7268,7 @@
         <v>38</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>38</v>
@@ -7275,14 +7279,14 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7301,16 +7305,16 @@
         <v>38</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7348,19 +7352,19 @@
         <v>38</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AD48" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>39</v>
@@ -7372,13 +7376,13 @@
         <v>38</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>38</v>
@@ -7389,10 +7393,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7400,10 +7404,10 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>38</v>
@@ -7412,29 +7416,29 @@
         <v>38</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>38</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="S49" t="s" s="2">
         <v>38</v>
@@ -7476,39 +7480,39 @@
         <v>38</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7519,7 +7523,7 @@
         <v>39</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>38</v>
@@ -7528,19 +7532,19 @@
         <v>38</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7590,39 +7594,39 @@
         <v>38</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7633,7 +7637,7 @@
         <v>39</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>38</v>
@@ -7642,20 +7646,20 @@
         <v>38</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>38</v>
@@ -7704,39 +7708,39 @@
         <v>38</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7747,7 +7751,7 @@
         <v>39</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>38</v>
@@ -7756,20 +7760,20 @@
         <v>38</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>38</v>
@@ -7818,39 +7822,39 @@
         <v>38</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7861,7 +7865,7 @@
         <v>39</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>38</v>
@@ -7870,22 +7874,22 @@
         <v>38</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>38</v>
@@ -7934,42 +7938,42 @@
         <v>38</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D54" t="s" s="2">
         <v>38</v>
@@ -7979,7 +7983,7 @@
         <v>39</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>38</v>
@@ -7988,22 +7992,22 @@
         <v>38</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>38</v>
@@ -8028,11 +8032,11 @@
         <v>38</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Y54" s="2"/>
       <c r="Z54" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>38</v>
@@ -8050,7 +8054,7 @@
         <v>38</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>39</v>
@@ -8062,27 +8066,27 @@
         <v>38</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8093,7 +8097,7 @@
         <v>39</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>38</v>
@@ -8105,13 +8109,13 @@
         <v>38</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8162,13 +8166,13 @@
         <v>38</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>38</v>
@@ -8180,7 +8184,7 @@
         <v>38</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>38</v>
@@ -8191,14 +8195,14 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8217,16 +8221,16 @@
         <v>38</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8264,19 +8268,19 @@
         <v>38</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AD56" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>39</v>
@@ -8288,13 +8292,13 @@
         <v>38</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>38</v>
@@ -8305,10 +8309,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8316,10 +8320,10 @@
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>38</v>
@@ -8328,29 +8332,29 @@
         <v>38</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>38</v>
       </c>
       <c r="Q57" s="2"/>
       <c r="R57" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="S57" t="s" s="2">
         <v>38</v>
@@ -8392,39 +8396,39 @@
         <v>38</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8435,7 +8439,7 @@
         <v>39</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>38</v>
@@ -8444,19 +8448,19 @@
         <v>38</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8506,39 +8510,39 @@
         <v>38</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8549,7 +8553,7 @@
         <v>39</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>38</v>
@@ -8558,20 +8562,20 @@
         <v>38</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>38</v>
@@ -8620,39 +8624,39 @@
         <v>38</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8663,7 +8667,7 @@
         <v>39</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>38</v>
@@ -8672,20 +8676,20 @@
         <v>38</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>38</v>
@@ -8734,39 +8738,39 @@
         <v>38</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8777,7 +8781,7 @@
         <v>39</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>38</v>
@@ -8786,22 +8790,22 @@
         <v>38</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>38</v>
@@ -8850,39 +8854,39 @@
         <v>38</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8893,7 +8897,7 @@
         <v>39</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>38</v>
@@ -8902,22 +8906,22 @@
         <v>38</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>38</v>
@@ -8966,50 +8970,50 @@
         <v>38</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>38</v>
@@ -9018,19 +9022,19 @@
         <v>38</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9080,39 +9084,39 @@
         <v>38</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9123,7 +9127,7 @@
         <v>39</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>38</v>
@@ -9132,19 +9136,19 @@
         <v>38</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9194,39 +9198,39 @@
         <v>38</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9237,7 +9241,7 @@
         <v>39</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>38</v>
@@ -9246,19 +9250,19 @@
         <v>38</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9308,39 +9312,39 @@
         <v>38</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9351,7 +9355,7 @@
         <v>39</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>38</v>
@@ -9360,19 +9364,19 @@
         <v>38</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -9422,28 +9426,28 @@
         <v>38</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>38</v>
@@ -9451,10 +9455,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9465,7 +9469,7 @@
         <v>39</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>38</v>
@@ -9474,19 +9478,19 @@
         <v>38</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9536,28 +9540,28 @@
         <v>38</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>38</v>
@@ -9565,10 +9569,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9588,16 +9592,16 @@
         <v>38</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9648,7 +9652,7 @@
         <v>38</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>39</v>
@@ -9660,13 +9664,13 @@
         <v>38</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>38</v>
@@ -9677,10 +9681,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9691,7 +9695,7 @@
         <v>39</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>38</v>
@@ -9703,13 +9707,13 @@
         <v>38</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -9760,13 +9764,13 @@
         <v>38</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>38</v>
@@ -9778,7 +9782,7 @@
         <v>38</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>38</v>
@@ -9789,14 +9793,14 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -9815,16 +9819,16 @@
         <v>38</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -9874,7 +9878,7 @@
         <v>38</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>39</v>
@@ -9886,13 +9890,13 @@
         <v>38</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>38</v>
@@ -9903,14 +9907,14 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
@@ -9923,25 +9927,25 @@
         <v>38</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>38</v>
@@ -9990,7 +9994,7 @@
         <v>38</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>39</v>
@@ -10002,13 +10006,13 @@
         <v>38</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>38</v>
@@ -10019,10 +10023,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10033,7 +10037,7 @@
         <v>39</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>38</v>
@@ -10042,22 +10046,22 @@
         <v>38</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>38</v>
@@ -10082,11 +10086,11 @@
         <v>38</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Y72" s="2"/>
       <c r="Z72" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>38</v>
@@ -10104,39 +10108,39 @@
         <v>38</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10144,10 +10148,10 @@
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>38</v>
@@ -10156,22 +10160,22 @@
         <v>38</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>38</v>
@@ -10220,39 +10224,39 @@
         <v>38</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10263,7 +10267,7 @@
         <v>39</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>38</v>
@@ -10275,19 +10279,19 @@
         <v>38</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>38</v>
@@ -10336,25 +10340,25 @@
         <v>38</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>38</v>
@@ -10365,10 +10369,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10379,7 +10383,7 @@
         <v>39</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>38</v>
@@ -10388,22 +10392,22 @@
         <v>38</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>38</v>
@@ -10452,28 +10456,28 @@
         <v>38</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>38</v>
@@ -10481,10 +10485,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10504,19 +10508,19 @@
         <v>38</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -10542,11 +10546,11 @@
         <v>38</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Y76" s="2"/>
       <c r="Z76" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>38</v>
@@ -10564,7 +10568,7 @@
         <v>38</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>39</v>
@@ -10576,16 +10580,16 @@
         <v>38</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>38</v>
@@ -10593,10 +10597,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10616,19 +10620,19 @@
         <v>38</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -10678,7 +10682,7 @@
         <v>38</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>39</v>
@@ -10690,16 +10694,16 @@
         <v>38</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>38</v>
@@ -10707,10 +10711,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10730,19 +10734,19 @@
         <v>38</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -10768,11 +10772,11 @@
         <v>38</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Y78" s="2"/>
       <c r="Z78" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>38</v>
@@ -10790,7 +10794,7 @@
         <v>38</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>39</v>
@@ -10802,27 +10806,27 @@
         <v>38</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10833,7 +10837,7 @@
         <v>39</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>38</v>
@@ -10842,19 +10846,19 @@
         <v>38</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -10880,11 +10884,11 @@
         <v>38</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Y79" s="2"/>
       <c r="Z79" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>38</v>
@@ -10902,25 +10906,25 @@
         <v>38</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>38</v>
@@ -10931,10 +10935,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10957,16 +10961,16 @@
         <v>38</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -11016,7 +11020,7 @@
         <v>38</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>39</v>
@@ -11028,13 +11032,13 @@
         <v>38</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>38</v>
@@ -11045,10 +11049,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11071,16 +11075,16 @@
         <v>38</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
@@ -11106,11 +11110,11 @@
         <v>38</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Y81" s="2"/>
       <c r="Z81" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>38</v>
@@ -11128,7 +11132,7 @@
         <v>38</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>39</v>
@@ -11140,13 +11144,13 @@
         <v>38</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>38</v>
@@ -11157,10 +11161,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11183,19 +11187,19 @@
         <v>38</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>38</v>
@@ -11244,7 +11248,7 @@
         <v>38</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>39</v>
@@ -11256,13 +11260,13 @@
         <v>38</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>38</v>
@@ -11273,10 +11277,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11299,16 +11303,16 @@
         <v>38</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -11334,11 +11338,11 @@
         <v>38</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Y83" s="2"/>
       <c r="Z83" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>38</v>
@@ -11356,7 +11360,7 @@
         <v>38</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>39</v>
@@ -11368,13 +11372,13 @@
         <v>38</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>38</v>
@@ -11385,10 +11389,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11411,16 +11415,16 @@
         <v>38</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -11470,7 +11474,7 @@
         <v>38</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>39</v>
@@ -11482,27 +11486,27 @@
         <v>38</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11525,13 +11529,13 @@
         <v>38</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -11582,7 +11586,7 @@
         <v>38</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>39</v>
@@ -11594,13 +11598,13 @@
         <v>38</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>38</v>
@@ -11611,10 +11615,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11625,7 +11629,7 @@
         <v>39</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>38</v>
@@ -11637,13 +11641,13 @@
         <v>38</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -11694,13 +11698,13 @@
         <v>38</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>38</v>
@@ -11712,7 +11716,7 @@
         <v>38</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>38</v>
@@ -11723,14 +11727,14 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
@@ -11749,16 +11753,16 @@
         <v>38</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -11808,7 +11812,7 @@
         <v>38</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>39</v>
@@ -11820,13 +11824,13 @@
         <v>38</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>38</v>
@@ -11837,14 +11841,14 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
@@ -11857,25 +11861,25 @@
         <v>38</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>38</v>
@@ -11924,7 +11928,7 @@
         <v>38</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>39</v>
@@ -11936,13 +11940,13 @@
         <v>38</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>38</v>
@@ -11953,10 +11957,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -11967,7 +11971,7 @@
         <v>39</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>38</v>
@@ -11979,13 +11983,13 @@
         <v>38</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -12012,11 +12016,11 @@
         <v>38</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y89" s="2"/>
       <c r="Z89" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>38</v>
@@ -12034,25 +12038,25 @@
         <v>38</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>38</v>
@@ -12063,10 +12067,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12074,10 +12078,10 @@
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>38</v>
@@ -12089,13 +12093,13 @@
         <v>38</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -12146,25 +12150,25 @@
         <v>38</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>38</v>
@@ -12175,10 +12179,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12201,19 +12205,19 @@
         <v>38</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>38</v>
@@ -12262,7 +12266,7 @@
         <v>38</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>39</v>
@@ -12274,13 +12278,13 @@
         <v>38</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>38</v>
@@ -12291,10 +12295,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12317,16 +12321,16 @@
         <v>38</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
@@ -12352,11 +12356,11 @@
         <v>38</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Y92" s="2"/>
       <c r="Z92" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>38</v>
@@ -12374,7 +12378,7 @@
         <v>38</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>39</v>
@@ -12386,13 +12390,13 @@
         <v>38</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>38</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-procedure.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-procedure.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2</t>
+    <t>1.1.2-dev</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-procedure.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-procedure.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3350" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3349" uniqueCount="480">
   <si>
     <t>Property</t>
   </si>
@@ -145,8 +145,7 @@
     <t>Procedureリソース</t>
   </si>
   <si>
-    <t>An action that is or was performed on or for a patient. This can be a physical intervention like an operation, or less invasive like long term services, counseling, or hypnotherapy.
-患者に対して、または患者のために実行されているか実行されたアクション。これは、手術のような身体的介入、または長期サービス、カウンセリング、催眠療法のような低侵襲性である可能性がある。</t>
+    <t>患者に対して、または患者のために実行されているか実行されたアクション。これは、手術のような身体的介入、または長期サービス、カウンセリング、催眠療法のような低侵襲性である可能性がある。</t>
   </si>
   <si>
     <t>dom-2:リソースが別のリソースに含まれている場合、ネストされたリソースを含めてはなりません / If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
@@ -262,7 +261,7 @@
 </t>
   </si>
   <si>
-    <t>Text summary of the resource, for human interpretation. このリソースを人間が解釈するためのテキスト要約</t>
+    <t>このリソースを人間が解釈するためのテキスト要約</t>
   </si>
   <si>
     <t>リソースの概要を含み、人間へのリソースの内容を表すために使用できる人間の読み取り可能な叙述(Narative)。叙述(Narative)はすべての構造化されたデータをエンコードする必要はありませんが、人間が叙述(Narative)を読むだけで「臨床的に安全」にするために十分な詳細を含める必要があります。リソースの定義は、臨床的安全を確保するために、叙述(Narative)で表現するコンテンツを定義する場合があります。 / A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
@@ -354,7 +353,7 @@
 </t>
   </si>
   <si>
-    <t>この手順の外部識別子 / External Identifiers for this procedure</t>
+    <t>このプロシジャー（処置等）の外部識別子 / External Identifiers for this procedure</t>
   </si>
   <si>
     <t>これは、ビジネスプロセスによって定義され、リソース自体への直接のURL参照が適切でない場合に参照するために使用される、このProcedureに関連する識別子を記録する。</t>
@@ -363,7 +362,7 @@
     <t>これはビジネス識別子であり、リソース識別子ではない（議論参照）。識別子は1つのリソースインスタンスにのみ表示されることがベストだが、ビジネス上の慣習により、同じ識別子を持つ複数のリソースインスタンスが存在することがあるかもしれない。例えば、複数のPatientとPersonリソースインスタンスが同じ社会保険番号を共有しているかもしれない。</t>
   </si>
   <si>
-    <t>さまざまな参加システムで知られており、サーバー全体で一貫性のある方法で知られている手順を識別できます。 / Allows identification of the procedure as it is known by various participating systems and in a way that remains consistent across servers.</t>
+    <t>さまざまな参加システムで知られており、サーバー全体で一貫性のある方法で知られているプロシジャー（処置等）を識別できます。 / Allows identification of the procedure as it is known by various participating systems and in a way that remains consistent across servers.</t>
   </si>
   <si>
     <t>Event.identifier</t>
@@ -423,7 +422,7 @@
 </t>
   </si>
   <si>
-    <t>A request for this procedure. このプロシージャの依頼情報</t>
+    <t>このプロシージャの依頼情報</t>
   </si>
   <si>
     <t>このプロシージャの依頼情報の詳細を含むリソースへの参照。</t>
@@ -450,14 +449,13 @@
 </t>
   </si>
   <si>
-    <t>Part of referenced event. このプロシジャーが構成要素やステップとなるより大きな医療行為</t>
-  </si>
-  <si>
-    <t>A larger event of which this particular procedure is a component or step.【JP Core仕様】https://www.hl7.org/fhir/R4/procedure.htmlを参照</t>
-  </si>
-  <si>
-    <t>The MedicationAdministration resource has a partOf reference to Procedure, but this is not a circular reference.   For example, the anesthesia MedicationAdministration is part of the surgical Procedure (MedicationAdministration.partOf = Procedure).  For example, the procedure to insert the IV port for an IV medication administration is part of the medication administration (Procedure.partOf = MedicationAdministration).
-MedicationAdministrationリソースにはProcedureへのpartOf参照があるが、これは循環参照ではない。たとえば、麻酔MedicationAdministrationは外科的処置の一部である（MedicationAdministration.partOf = Procedure）。
+    <t>このプロシジャーが構成要素やステップとなるより大きな医療行為</t>
+  </si>
+  <si>
+    <t>【JP Core仕様】https://www.hl7.org/fhir/R4/procedure.htmlを参照</t>
+  </si>
+  <si>
+    <t>MedicationAdministrationリソースにはProcedureへのpartOf参照があるが、これは循環参照ではない。たとえば、麻酔MedicationAdministrationは外科的処置の一部である（MedicationAdministration.partOf = Procedure）。
 また、たとえば、IV投薬管理用にIVポートを挿入する手順は、投薬管理の一部である（Procedure.partOf = MedicationAdministration）。
 【JP Core仕様】Observation_LabResultにならい、任意。</t>
   </si>
@@ -477,16 +475,14 @@
     <t>プロシージャの状態を指定するコードである。一般的には、進行中または完了した状態になる。【JP Core仕様】http://hl7.org/fhir/us/core/STU3.1/StructureDefinition-us-core-procedure.htmlを参照</t>
   </si>
   <si>
-    <t>The "unknown" code is not to be used to convey other statuses. The "unknown" code should be used when one of the statuses applies, but the authoring system doesn't know the current state of the procedure.
-This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.
-「不明な」コードは、他のステータスを伝えるために使用されるべきではない。ステータスの1つが当てはまる場合、「不明」コードを使用する必要があるが、オーサリングシステムはプロシージャの現在の状態を認識していない。
+    <t>「不明な」コードは、他のステータスを伝えるために使用されるべきではない。ステータスの1つが当てはまる場合、「不明」コードを使用する必要があるが、オーサリングシステムはプロシージャの現在の状態を認識していない。
 ステータスにリソースを現在無効としてマークするコードが含まれているため、この要素は修飾子としてラベル付けされる。</t>
   </si>
   <si>
     <t>required</t>
   </si>
   <si>
-    <t>手順の状態を指定するコード。 / A code specifying the state of the procedure.</t>
+    <t>プロシジャー（処置等）の状態を指定するコード。 / A code specifying the state of the procedure.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/event-status|4.0.1</t>
@@ -512,14 +508,13 @@
 </t>
   </si>
   <si>
-    <t>Reason for current status このプロシジャーの進捗の理由（未完了であったり中止されたことの理由）</t>
+    <t>このプロシジャーの進捗の理由（未完了であったり中止されたことの理由）</t>
   </si>
   <si>
     <t>プロシージャの現在の進捗の理由を設定する。</t>
   </si>
   <si>
-    <t>This is generally only used for "exception" statuses such as "not-done", "suspended" or "aborted". The reason for performing the event at all is captured in reasonCode, not here.
-これは通常、「未完了」、「一時停止」、「中止」などの「例外」ステータスにのみ使用される。イベントを実行する理由は、ここではなく、reasonCodeに設定する。</t>
+    <t>これは通常、「未完了」、「一時停止」、「中止」などの「例外」ステータスにのみ使用される。イベントを実行する理由は、ここではなく、reasonCodeに設定する。</t>
   </si>
   <si>
     <t>example</t>
@@ -537,10 +532,10 @@
     <t>Procedure.category</t>
   </si>
   <si>
-    <t>Classification of the procedure. このプロシジャーの分類カテゴリ</t>
-  </si>
-  <si>
-    <t>検索、並べ替え、表示の手順を分類するコード（「外科的処置」など）。 / A code that classifies the procedure for searching, sorting and display purposes (e.g. "Surgical Procedure").</t>
+    <t>このプロシジャーの分類カテゴリ</t>
+  </si>
+  <si>
+    <t>検索、並べ替え、表示のプロシジャー（処置等）を分類するコード（「外科的処置」など）。 / A code that classifies the procedure for searching, sorting and display purposes (e.g. "Surgical Procedure").</t>
   </si>
   <si>
     <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ProcedureCategory_VS</t>
@@ -559,7 +554,7 @@
 </t>
   </si>
   <si>
-    <t>Identification of the procedure. このプロシジャーの識別子</t>
+    <t>このプロシジャーの識別子</t>
   </si>
   <si>
     <t>行われた具体的な手順。手技の正確な性質がコード化できない場合はテキストを使用する（例：「腹腔鏡下虫垂切除術」）</t>
@@ -989,11 +984,10 @@
 </t>
   </si>
   <si>
-    <t>Who the procedure was performed on. 誰にこのプロシジャーが実施されたか</t>
-  </si>
-  <si>
-    <t>The person, animal or group on which the procedure was performed.
-プロシジャーが実行された対象の人、動物、またはグループ。</t>
+    <t>誰にこのプロシジャーが実施されたか</t>
+  </si>
+  <si>
+    <t>プロシジャーが実行された対象の人、動物、またはグループ。</t>
   </si>
   <si>
     <t>参照は、実際のFHIRリソースへの参照であり、解決可能でなければならない（アクセス制御、一時的な利用不能などを可能にする）。解決は、URLからの検索、またはリソースタイプによって該当する場合は、絶対参照を正規のURLとして扱い、ローカルレジストリ/リポジトリで検索することによって行うことができる。</t>
@@ -1018,7 +1012,7 @@
 </t>
   </si>
   <si>
-    <t>Encounter created as part of. このプロシジャーの記録が作成された受療の状況</t>
+    <t>このプロシジャーの記録が作成された受療の状況</t>
   </si>
   <si>
     <t>プロシジャーが作成または実行された受療の状況、またはこの記録の作成が緊密に関連している受療の状況。</t>
@@ -1046,14 +1040,13 @@
 PeriodstringAgeRange</t>
   </si>
   <si>
-    <t>When the procedure was performed. いつこのプロシジャーが実施されたか</t>
+    <t>いつこのプロシジャーが実施されたか</t>
   </si>
   <si>
     <t>Procedureが行われた推定または実際の日付、日時、期間、または年齢。複数の日付にまたがる複雑なProcedureをサポートするために期間を許可し、Procedureの長さを把握することも可能。</t>
   </si>
   <si>
-    <t>Age is generally used when the patient reports an age at which the procedure was performed. Range is generally used when the patient reports an age range when the procedure was performed, such as sometime between 20-25 years old.  dateTime supports a range of precision due to some procedures being reported as past procedures that might not have millisecond precision while other procedures performed and documented during the encounter might have more precise UTC timestamps with timezone.
-年齢は一般的に、患者が手技が行われた年齢を報告するときに使用される。
+    <t>年齢は一般的に、患者が手技が行われた年齢を報告するときに使用される。
 範囲は、一般的に、患者が手順が実行されたときに年齢範囲を報告する場合に使用される。たとえば、20〜25歳の間など。
 dateTimeは、ミリ秒の精度を持たない可能性がある過去の手順として報告される一部の手順と、Encounterの期間において実施され文書化された他の手順が、タイムゾーンでより正確なUTCタイムスタンプを持つ可能性があるため、さまざまな精度をサポートする。</t>
   </si>
@@ -1077,15 +1070,13 @@
 </t>
   </si>
   <si>
-    <t>Who recorded the procedure. このプロシジャーを記録した人</t>
-  </si>
-  <si>
-    <t>Individual who recorded the record and takes responsibility for its content.
-記録を記録し、その内容に責任を負う個人。</t>
-  </si>
-  <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolvable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
-参照は、実際のFHIRリソースへの参照である必要があり、内容に辿り着ける（解決できる）必要がある（アクセス制御、一時的な使用不可などを考慮に入れる）。解決は、URLから取得するか、リソースタイプによって該当する場合は、絶対参照を正規URLとして扱い、ローカルレジストリ/リポジトリで検索することによって行うことができる。</t>
+    <t>このプロシジャーを記録した人</t>
+  </si>
+  <si>
+    <t>記録を記録し、その内容に責任を負う個人。</t>
+  </si>
+  <si>
+    <t>参照は、実際のFHIRリソースへの参照である必要があり、内容に辿り着ける（解決できる）必要がある（アクセス制御、一時的な使用不可などを考慮に入れる）。解決は、URLから取得するか、リソースタイプによって該当する場合は、絶対参照を正規URLとして扱い、ローカルレジストリ/リポジトリで検索することによって行うことができる。</t>
   </si>
   <si>
     <t>.participation[typeCode=AUT].role</t>
@@ -1097,11 +1088,10 @@
     <t>Procedure.asserter</t>
   </si>
   <si>
-    <t>Person who asserts this procedure. このプロシジャーの実施の記録者</t>
-  </si>
-  <si>
-    <t>Individual who is making the procedure statement.
-プロシジャーの実施記録を作成した個人。</t>
+    <t>このプロシジャーの実施の記録者</t>
+  </si>
+  <si>
+    <t>プロシジャーの実施記録を作成した個人。</t>
   </si>
   <si>
     <t>.participation[typeCode=INF].role</t>
@@ -1117,11 +1107,10 @@
 </t>
   </si>
   <si>
-    <t>The people who performed the procedure. このプロシジャーの実施者</t>
-  </si>
-  <si>
-    <t>Limited to "real" people rather than equipment.
-医療機器ではなく「生身の人間」に限定。</t>
+    <t>このプロシジャーの実施者</t>
+  </si>
+  <si>
+    <t>医療機器ではなく「生身の人間」に限定。</t>
   </si>
   <si>
     <t>Event.performer</t>
@@ -1157,11 +1146,10 @@
     <t>Procedure.performer.function</t>
   </si>
   <si>
-    <t>Type of performance 実施者の役割（ロール）</t>
-  </si>
-  <si>
-    <t>Distinguishes the type of involvement of the performer in the procedure. For example, surgeon, anaesthetist, endoscopist.
-プロシジャーへの実施者の関与のタイプを区別する。たとえば、外科医、麻酔科医、内視鏡医。</t>
+    <t>実施者の役割（ロール）</t>
+  </si>
+  <si>
+    <t>プロシジャーへの実施者の関与のタイプを区別する。たとえば、外科医、麻酔科医、内視鏡医。</t>
   </si>
   <si>
     <t>すべての用語の使用がこの一般的なパターンに当てはまるわけではない。場合によっては、モデルはCodeableConceptを使用せず、Codingを直接使用し、テキスト、コーディング、翻訳、要素間の関係や事前・事後の調整を管理するための独自の構造を提供するべきである。
@@ -1190,11 +1178,10 @@
 </t>
   </si>
   <si>
-    <t>The reference to the practitioner. 医療従事者への参照</t>
-  </si>
-  <si>
-    <t>The practitioner who was involved in the procedure.
-プロシジャーに関わった医療従事者。</t>
+    <t>医療従事者への参照</t>
+  </si>
+  <si>
+    <t>プロシジャーに関わった医療従事者。</t>
   </si>
   <si>
     <t>参照は、実際のFHIRリソースへの参照であり、解決可能でなければならない（アクセス制御、一時的な利用不可などを可能にする）。解決には、URLからの検索、またはリソースタイプによって適用可能な場合は、絶対参照を正規のURLとして扱い、ローカルレジストリ/リポジトリで検索することができる。</t>
@@ -1222,11 +1209,10 @@
 </t>
   </si>
   <si>
-    <t>Organization the device or practitioner was acting for. 従事した組織</t>
-  </si>
-  <si>
-    <t>The organization the device or practitioner was acting on behalf of.
-従事した組織。</t>
+    <t>従事した組織</t>
+  </si>
+  <si>
+    <t>従事した組織。</t>
   </si>
   <si>
     <t>参照は、実際のFHIRリソースへの参照であり、解決可能でなければならない（アクセス制御、一時的な利用不能などを可能にする）。解決には、URLからの検索によるものと、リソースタイプによって該当する場合は、絶対参照を正規のURLとして扱い、ローカルレジストリ/リポジトリで検索するものがある。</t>
@@ -1245,14 +1231,14 @@
 </t>
   </si>
   <si>
-    <t>Where the procedure happened. このプロシジャーが実施された場所</t>
+    <t>このプロシジャーが実施された場所</t>
   </si>
   <si>
     <t>プロシジャーが実施された場所。
 例:自宅での出生、レストランで気管切開など。</t>
   </si>
   <si>
-    <t>記録が保持される可能性が高い場所に手順を結びます。 / Ties a procedure to where the records are likely kept.</t>
+    <t>記録が保持される可能性が高い場所にプロシジャー（処置等）を結びます。 / Ties a procedure to where the records are likely kept.</t>
   </si>
   <si>
     <t>.participation[typeCode=LOC].role[classCode=SDLOC]</t>
@@ -1264,15 +1250,14 @@
     <t>Procedure.reasonCode</t>
   </si>
   <si>
-    <t>Coded reason procedure performed. このプロシジャーが実施された理由コード</t>
+    <t>このプロシジャーが実施された理由コード</t>
   </si>
   <si>
     <t>処置が行われたコード化された理由。
 これはある種のコード化された実体であるかもしれないし、単にテキストとして存在するかもしれない。</t>
   </si>
   <si>
-    <t>Use Procedure.reasonCode when a code sufficiently describes the reason. Use Procedure.reasonReference when referencing a resource, which allows more information to be conveyed, such as onset date. Procedure.reasonCode and Procedure.reasonReference are not meant to be duplicative.  For a single reason, either Procedure.reasonCode or Procedure.reasonReference can be used.  Procedure.reasonCode may be a summary code, or Procedure.reasonReference may be used to reference a very precise definition of the reason using Condition | Observation | Procedure | DiagnosticReport | DocumentReference.  Both Procedure.reasonCode and Procedure.reasonReference can be used if they are describing different reasons for the procedure.
-ひとつのコードが理由を十分に説明している場合は、Procedure.reasonCodeを使用する。
+    <t>ひとつのコードが理由を十分に説明している場合は、Procedure.reasonCodeを使用する。
 リソースを参照する場合は、Procedure.reasonReferenceを使用する。これにより、開始日など、より多くの情報を伝達できる。
 Procedure.reasonCodeとProcedure.reasonReferenceは、重複することを意図したものではない。単一の理由で、Procedure.reasonCodeまたはProcedure.reasonReferenceのいずれかだけを使用できる。
  Procedure.reasonCodeは要約コードの場合もあれば、Procedure.reasonReferenceを使用して、Condition | Observation | Procedure | DiagnosticReport | DocumentReference のいずれかにより、非常に精緻な理由の定義を参照することもできる。
@@ -1298,15 +1283,13 @@
 </t>
   </si>
   <si>
-    <t>The justification that the procedure was performed. このプロシジャーが実施された正当性</t>
+    <t>このプロシジャーが実施された正当性</t>
   </si>
   <si>
     <t>なぜそのようなProcedureを行ったのか、その正当性を示す。</t>
   </si>
   <si>
-    <t>It is possible for a procedure to be a reason (such as C-Section) for another procedure (such as an epidural). Other examples include endoscopy for dilatation and biopsy (a combination of diagnostic and therapeutic use). 
-Use Procedure.reasonCode when a code sufficiently describes the reason.  Use Procedure.reasonReference when referencing a resource, which allows more information to be conveyed, such as onset date. Procedure.reasonCode and Procedure.reasonReference are not meant to be duplicative.  For a single reason, either Procedure.reasonCode or Procedure.reasonReference can be used.  Procedure.reasonCode may be a summary code, or Procedure.reasonReference may be used to reference a very precise definition of the reason using Condition | Observation | Procedure | DiagnosticReport | DocumentReference.  Both Procedure.reasonCode and Procedure.reasonReference can be used if they are describing different reasons for the procedure.
-ある手順が別の手順（硬膜外など）の理由（帝王切開など）になる可能性がある。他の例には、拡張および生検（診断および治療用途の組み合わせ）のための内視鏡検査が含まれる。
+    <t>ある手順が別の手順（硬膜外など）の理由（帝王切開など）になる可能性がある。他の例には、拡張および生検（診断および治療用途の組み合わせ）のための内視鏡検査が含まれる。
 コードが理由を十分に説明している場合は、Procedure.reasonCodeを使用する。
 リソースを参照する場合は、Procedure.reasonReferenceを使用する。これにより、開始日など、より多くの情報を伝達できる。
 Procedure.reasonCodeとProcedure.reasonReferenceは、重複することを意図したものではない。単一の理由で、Procedure.reasonCodeまたはProcedure.reasonReferenceのいずれかだけを使用できる。
@@ -1319,14 +1302,13 @@
     <t>Procedure.bodySite</t>
   </si>
   <si>
-    <t>Target body sites. このプロシジャーの対象となった人体部位</t>
+    <t>このプロシジャーの対象となった人体部位</t>
   </si>
   <si>
     <t>詳細かつ構造化された解剖学的な位置情報。複数の場所を指定することができる。例えば、1つの病変に対して複数のパンチングバイオプシーを行うことができる。</t>
   </si>
   <si>
-    <t>If the use case requires attributes from the BodySite resource (e.g. to identify and track separately) then use the standard extension [procedure-targetbodystructure](extension-procedure-targetbodystructure.html).
-ユースケースでBodySiteリソースの属性が必要な場合（たとえば、個別に識別して追跡するため）、標準の拡張extension [procedure-targetbodystructure]（extension-procedure-targetbodystructure.html）を使用する。</t>
+    <t>ユースケースでBodySiteリソースの属性が必要な場合（たとえば、個別に識別して追跡するため）、標準の拡張extension [procedure-targetbodystructure]（extension-procedure-targetbodystructure.html）を使用する。</t>
   </si>
   <si>
     <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ProcedureBodySite_VS</t>
@@ -1341,15 +1323,13 @@
     <t>Procedure.outcome</t>
   </si>
   <si>
-    <t>The result of procedure. このプロシジャーのアウトカム</t>
-  </si>
-  <si>
-    <t>The outcome of the procedure - did it resolve the reasons for the procedure being performed?
-Procedureの結果 - Procedureが行われた理由が解決されたか？</t>
-  </si>
-  <si>
-    <t>If outcome contains narrative text only, it can be captured using the CodeableConcept.text.
-結果に叙述的記述トのみが含まれている場合は、CodeableConcept.textを使用してその情報を格納できる。</t>
+    <t>このプロシジャーのアウトカム</t>
+  </si>
+  <si>
+    <t>Procedureの結果 - Procedureが行われた理由が解決されたか？</t>
+  </si>
+  <si>
+    <t>結果に叙述的記述トのみが含まれている場合は、CodeableConcept.textを使用してその情報を格納できる。</t>
   </si>
   <si>
     <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ProcedureOutcome_VS</t>
@@ -1365,15 +1345,13 @@
 </t>
   </si>
   <si>
-    <t>Any report resulting from the procedure. このプロシジャーの結果報告</t>
-  </si>
-  <si>
-    <t>This could be a histology result, pathology report, surgical report, etc.
-これは、組織学的結果、病理学的報告書、手術報告書などであろう。</t>
-  </si>
-  <si>
-    <t>There could potentially be multiple reports - e.g. if this was a procedure which took multiple biopsies resulting in a number of anatomical pathology reports.
-複数のレポートが存在する可能性がある
+    <t>このプロシジャーの結果報告</t>
+  </si>
+  <si>
+    <t>これは、組織学的結果、病理学的報告書、手術報告書などであろう。</t>
+  </si>
+  <si>
+    <t>複数のレポートが存在する可能性がある
 -例：これが複数の生検を行ったプロシジャーであって、いくつもの解剖病理学報告が得られた場合。</t>
   </si>
   <si>
@@ -1383,15 +1361,13 @@
     <t>Procedure.complication</t>
   </si>
   <si>
-    <t>Complication following the procedure. このプロシジャーによる合併症</t>
-  </si>
-  <si>
-    <t>Any complications that occurred during the procedure, or in the immediate post-performance period. These are generally tracked separately from the notes, which will typically describe the procedure itself rather than any 'post procedure' issues.
-プロシジャー中、またはその実施直後の期間に発生した合併症。これらは通常、note要素とは別に記録される。note要素は通常、「プロシジャー後」の問題ではなく、プロシジャー自体を説明するものである。</t>
-  </si>
-  <si>
-    <t>If complications are only expressed by the narrative text, they can be captured using the CodeableConcept.text.
-合併症が叙述的なテキストによってのみ表現されている場合は、CodeableConcept.textに格納できる。</t>
+    <t>このプロシジャーによる合併症</t>
+  </si>
+  <si>
+    <t>プロシジャー中、またはその実施直後の期間に発生した合併症。これらは通常、note要素とは別に記録される。note要素は通常、「プロシジャー後」の問題ではなく、プロシジャー自体を説明するものである。</t>
+  </si>
+  <si>
+    <t>合併症が叙述的なテキストによってのみ表現されている場合は、CodeableConcept.textに格納できる。</t>
   </si>
   <si>
     <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ProcedureCondition_VS</t>
@@ -1407,29 +1383,22 @@
 </t>
   </si>
   <si>
-    <t>A condition that is a result of the procedure. このプロシジャーの合併症の結果生じた患者状態</t>
-  </si>
-  <si>
-    <t>Any complications that occurred during the procedure, or in the immediate post-performance period.
-Procedureの実施中、または実施直後に発生した全ての合併症。</t>
-  </si>
-  <si>
-    <t>This is used to document a condition that is a result of the procedure, not the condition that was the reason for the procedure.
-これは、プロシジャーの理由であった状態ではなく、プロシジャーの結果である状態を文書化するために使用される。</t>
+    <t>このプロシジャーの合併症の結果生じた患者状態</t>
+  </si>
+  <si>
+    <t>Procedureの実施中、または実施直後に発生した全ての合併症。</t>
+  </si>
+  <si>
+    <t>これは、プロシジャーの理由であった状態ではなく、プロシジャーの結果である状態を文書化するために使用される。</t>
   </si>
   <si>
     <t>Procedure.followUp</t>
   </si>
   <si>
-    <t>Instructions for follow up. 今後のフォローアップ指示</t>
-  </si>
-  <si>
-    <t>If the procedure required specific follow up - e.g. removal of sutures. The follow up may be represented as a simple note or could potentially be more complex, in which case the CarePlan resource can be used.
-処置が特別なフォローアップを必要とする場合（例：抜糸）、フォローアップはシンプルなnote として表現してもよいが、より複雑になる可能性もあり、その場合はケアプランリソースを使用することができる。</t>
-  </si>
-  <si>
-    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.
-すべてのターミノロジの使用がこの一般的なパターンに適合するわけではない。場合によっては、モデルはCodeableConceptを使用せず、コーディングを直接使用して、テキスト、コーディング、翻訳、および要素間の関係と調整前後の関係を管理するための独自の構造を提供する必要がある。</t>
+    <t>今後の処置が特別なフォローアップを必要とする場合（例：抜糸）、フォローアップはシンプルなnote として表現してもよいが、より複雑になる可能性もあり、その場合はケアプランリソースを使用することができる。</t>
+  </si>
+  <si>
+    <t>プロシジャー（処置等）で特定のフォローアップが必要な場合 - 例えば縫合の除去。フォローアップは、単純なメモとして表されるか、潜在的により複雑になる可能性があります。その場合、カレプランリソースを使用できます。 / If the procedure required specific follow up - e.g. removal of sutures. The follow up may be represented as a simple note or could potentially be more complex, in which case the CarePlan resource can be used.</t>
   </si>
   <si>
     <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ProcedureFollowUp_VS</t>
@@ -1445,15 +1414,13 @@
 </t>
   </si>
   <si>
-    <t>Additional information about the procedure. このプロシジャーの関する追加情報</t>
-  </si>
-  <si>
-    <t>Any other notes and comments about the procedure.
-このプロシジャーに関する注意点やコメントなど。</t>
-  </si>
-  <si>
-    <t>For systems that do not have structured annotations, they can simply communicate a single annotation with no author or time.  This element may need to be included in narrative because of the potential for modifying information.  *Annotations SHOULD NOT* be used to communicate "modifying" information that could be computable. (This is a SHOULD because enforcing user behavior is nearly impossible).
-構造化された注釈（アノテーション）を持たないシステムの場合、作成者や時間なしで単一の注釈を簡単に伝達できる。情報を変更する可能性があるため、この要素をナラティブに含める必要がある場合がある。 
+    <t>このプロシジャーの関する追加情報</t>
+  </si>
+  <si>
+    <t>このプロシジャーに関する注意点やコメントなど。</t>
+  </si>
+  <si>
+    <t>構造化された注釈（アノテーション）を持たないシステムの場合、作成者や時間なしで単一の注釈を簡単に伝達できる。情報を変更する可能性があるため、この要素をナラティブに含める必要がある場合がある。 
 *注釈は、計算機処理れきる「変更」情報を伝達するために使用されるべきではない*。 （ユーザの行動を強制することはほとんど不可能であるため、これはSHOULDとする）。</t>
   </si>
   <si>
@@ -1469,11 +1436,10 @@
     <t>Procedure.focalDevice</t>
   </si>
   <si>
-    <t>Manipulated, implanted, or removed device. このプロシジャーの際に操作、埋め込み、または削除されたデバイス</t>
-  </si>
-  <si>
-    <t>A device that is implanted, removed or otherwise manipulated (calibration, battery replacement, fitting a prosthesis, attaching a wound-vac, etc.) as a focal portion of the Procedure.
-Procedureが行われる局所に、あるいは、そこから、埋め込まれる、取り外される、またはその他の操作（キャリブレーション、バッテリー交換、プロテーゼの装着、陰圧ドレインバックの装着など）が行われるデバイス。</t>
+    <t>このプロシジャーの際に操作、埋め込み、または削除されたデバイス</t>
+  </si>
+  <si>
+    <t>Procedureが行われる局所に、あるいは、そこから、埋め込まれる、取り外される、またはその他の操作（キャリブレーション、バッテリー交換、プロテーゼの装着、陰圧ドレインバックの装着など）が行われるデバイス。</t>
   </si>
   <si>
     <t>.participation[typeCode=DEV].role[classCode=MANU]</t>
@@ -1526,15 +1492,13 @@
 </t>
   </si>
   <si>
-    <t>Items used during procedure. プロシジャー中に使用されるアイテム</t>
-  </si>
-  <si>
-    <t>Identifies medications, devices and any other substance used as part of the procedure.
-プロシジャーの一部として使用される薬剤、機器およびその他の物質を特定する。</t>
-  </si>
-  <si>
-    <t>For devices actually implanted or removed, use Procedure.device.
-実際に埋め込まれた、または取り外されたデバイスについては、Procedure.deviceを使用すること。</t>
+    <t>プロシジャー中に使用されるアイテム</t>
+  </si>
+  <si>
+    <t>プロシジャーの一部として使用される薬剤、機器およびその他の物質を特定する。</t>
+  </si>
+  <si>
+    <t>実際に埋め込まれた、または取り外されたデバイスについては、Procedure.deviceを使用すること。</t>
   </si>
   <si>
     <t>汚染などの追跡に使用されます。 / Used for tracking contamination, etc.</t>
@@ -1547,15 +1511,10 @@
     <t>Procedure.usedCode</t>
   </si>
   <si>
-    <t>Coded items used during the procedure. プロシジャー中に使用したアイテムのコード</t>
-  </si>
-  <si>
-    <t>Identifies coded items that were used as part of the procedure.
-Procedureの一部として使用されたコード化されたアイテムを識別する。</t>
-  </si>
-  <si>
-    <t>For devices actually implanted or removed, use Procedure.device.
-実際に埋め込まれた、または取り外されたデバイスについては、Procedure.deviceを使用すること。</t>
+    <t>プロシジャー中に使用したアイテムのコード</t>
+  </si>
+  <si>
+    <t>Procedureの一部として使用されたコード化されたアイテムを識別する。</t>
   </si>
   <si>
     <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ProcedureDeviceKind_VS</t>
@@ -1899,7 +1858,7 @@
     <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="9.6640625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="59.70703125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="69.609375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="66.18359375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="14.46484375" customWidth="true" bestFit="true"/>
@@ -11311,9 +11270,7 @@
       <c r="M83" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="N83" t="s" s="2">
-        <v>441</v>
-      </c>
+      <c r="N83" s="2"/>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>38</v>
@@ -11342,7 +11299,7 @@
       </c>
       <c r="Y83" s="2"/>
       <c r="Z83" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>38</v>
@@ -11378,7 +11335,7 @@
         <v>38</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>38</v>
@@ -11389,10 +11346,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11415,16 +11372,16 @@
         <v>38</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="L84" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="L84" t="s" s="2">
+      <c r="M84" t="s" s="2">
         <v>446</v>
       </c>
-      <c r="M84" t="s" s="2">
+      <c r="N84" t="s" s="2">
         <v>447</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>448</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -11474,7 +11431,7 @@
         <v>38</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>39</v>
@@ -11489,24 +11446,24 @@
         <v>60</v>
       </c>
       <c r="AK84" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="AL84" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="AL84" t="s" s="2">
+      <c r="AM84" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN84" t="s" s="2">
         <v>450</v>
-      </c>
-      <c r="AM84" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN84" t="s" s="2">
-        <v>451</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11532,10 +11489,10 @@
         <v>349</v>
       </c>
       <c r="L85" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="M85" t="s" s="2">
         <v>453</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>454</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -11586,7 +11543,7 @@
         <v>38</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>39</v>
@@ -11604,7 +11561,7 @@
         <v>38</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>38</v>
@@ -11615,10 +11572,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11727,10 +11684,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -11841,10 +11798,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -11957,10 +11914,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -11986,10 +11943,10 @@
         <v>154</v>
       </c>
       <c r="L89" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="M89" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -12020,7 +11977,7 @@
       </c>
       <c r="Y89" s="2"/>
       <c r="Z89" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>38</v>
@@ -12038,7 +11995,7 @@
         <v>38</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>39</v>
@@ -12056,7 +12013,7 @@
         <v>38</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>38</v>
@@ -12067,10 +12024,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12093,13 +12050,13 @@
         <v>38</v>
       </c>
       <c r="K90" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="L90" t="s" s="2">
         <v>465</v>
       </c>
-      <c r="L90" t="s" s="2">
+      <c r="M90" t="s" s="2">
         <v>466</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>467</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -12150,7 +12107,7 @@
         <v>38</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>48</v>
@@ -12168,7 +12125,7 @@
         <v>38</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>38</v>
@@ -12179,10 +12136,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12205,19 +12162,19 @@
         <v>38</v>
       </c>
       <c r="K91" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="L91" t="s" s="2">
         <v>470</v>
       </c>
-      <c r="L91" t="s" s="2">
+      <c r="M91" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="M91" t="s" s="2">
+      <c r="N91" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="N91" t="s" s="2">
+      <c r="O91" t="s" s="2">
         <v>473</v>
-      </c>
-      <c r="O91" t="s" s="2">
-        <v>474</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>38</v>
@@ -12266,7 +12223,7 @@
         <v>38</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>39</v>
@@ -12284,7 +12241,7 @@
         <v>38</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>38</v>
@@ -12295,10 +12252,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12324,13 +12281,13 @@
         <v>154</v>
       </c>
       <c r="L92" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="M92" t="s" s="2">
         <v>477</v>
       </c>
-      <c r="M92" t="s" s="2">
-        <v>478</v>
-      </c>
       <c r="N92" t="s" s="2">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
@@ -12360,7 +12317,7 @@
       </c>
       <c r="Y92" s="2"/>
       <c r="Z92" t="s" s="2">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>38</v>
@@ -12378,7 +12335,7 @@
         <v>38</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>39</v>
@@ -12396,7 +12353,7 @@
         <v>38</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>38</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-procedure.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-procedure.xlsx
@@ -428,7 +428,7 @@
     <t>このプロシージャの依頼情報の詳細を含むリソースへの参照。</t>
   </si>
   <si>
-    <t>参照は、実際のFHIRリソースへの参照であり、解決可能でなければならない（アクセス制御、一時的な利用不能などを可能にする）。解決には、URLからの検索、またはリソースタイプによって該当する場合は、絶対参照を正規のURLとして扱い、ローカルレジストリ/リポジトリで検索することができる。 
+    <t>参照は、実際のFHIRリソースへの参照であり、解決可能でなければならない（アクセス制御、一時的な利用不能などを可能にする）。解決には、URLからの検索、またはリソースタイプによって該当する場合は、絶対参照を正規のURLとして扱い、ローカルレジストリ/リポジトリで検索することができる。   
 【JP Core仕様】Observation_LabResultにならい、任意。</t>
   </si>
   <si>
@@ -455,8 +455,8 @@
     <t>【JP Core仕様】https://www.hl7.org/fhir/R4/procedure.htmlを参照</t>
   </si>
   <si>
-    <t>MedicationAdministrationリソースにはProcedureへのpartOf参照があるが、これは循環参照ではない。たとえば、麻酔MedicationAdministrationは外科的処置の一部である（MedicationAdministration.partOf = Procedure）。
-また、たとえば、IV投薬管理用にIVポートを挿入する手順は、投薬管理の一部である（Procedure.partOf = MedicationAdministration）。
+    <t>MedicationAdministrationリソースにはProcedureへのpartOf参照があるが、これは循環参照ではない。たとえば、麻酔MedicationAdministrationは外科的処置の一部である（MedicationAdministration.partOf = Procedure）。  
+また、たとえば、IV投薬管理用にIVポートを挿入する手順は、投薬管理の一部である（Procedure.partOf = MedicationAdministration）。  
 【JP Core仕様】Observation_LabResultにならい、任意。</t>
   </si>
   <si>
@@ -475,7 +475,7 @@
     <t>プロシージャの状態を指定するコードである。一般的には、進行中または完了した状態になる。【JP Core仕様】http://hl7.org/fhir/us/core/STU3.1/StructureDefinition-us-core-procedure.htmlを参照</t>
   </si>
   <si>
-    <t>「不明な」コードは、他のステータスを伝えるために使用されるべきではない。ステータスの1つが当てはまる場合、「不明」コードを使用する必要があるが、オーサリングシステムはプロシージャの現在の状態を認識していない。
+    <t>「不明な」コードは、他のステータスを伝えるために使用されるべきではない。ステータスの1つが当てはまる場合、「不明」コードを使用する必要があるが、オーサリングシステムはプロシージャの現在の状態を認識していない。  
 ステータスにリソースを現在無効としてマークするコードが含まれているため、この要素は修飾子としてラベル付けされる。</t>
   </si>
   <si>
@@ -1046,8 +1046,8 @@
     <t>Procedureが行われた推定または実際の日付、日時、期間、または年齢。複数の日付にまたがる複雑なProcedureをサポートするために期間を許可し、Procedureの長さを把握することも可能。</t>
   </si>
   <si>
-    <t>年齢は一般的に、患者が手技が行われた年齢を報告するときに使用される。
-範囲は、一般的に、患者が手順が実行されたときに年齢範囲を報告する場合に使用される。たとえば、20〜25歳の間など。
+    <t>年齢は一般的に、患者が手技が行われた年齢を報告するときに使用される。  
+範囲は、一般的に、患者が手順が実行されたときに年齢範囲を報告する場合に使用される。たとえば、20〜25歳の間など。  
 dateTimeは、ミリ秒の精度を持たない可能性がある過去の手順として報告される一部の手順と、Encounterの期間において実施され文書化された他の手順が、タイムゾーンでより正確なUTCタイムスタンプを持つ可能性があるため、さまざまな精度をサポートする。</t>
   </si>
   <si>
@@ -1152,7 +1152,7 @@
     <t>プロシジャーへの実施者の関与のタイプを区別する。たとえば、外科医、麻酔科医、内視鏡医。</t>
   </si>
   <si>
-    <t>すべての用語の使用がこの一般的なパターンに当てはまるわけではない。場合によっては、モデルはCodeableConceptを使用せず、Codingを直接使用し、テキスト、コーディング、翻訳、要素間の関係や事前・事後の調整を管理するための独自の構造を提供するべきである。
+    <t>すべての用語の使用がこの一般的なパターンに当てはまるわけではない。場合によっては、モデルはCodeableConceptを使用せず、Codingを直接使用し、テキスト、コーディング、翻訳、要素間の関係や事前・事後の調整を管理するための独自の構造を提供するべきである。  
  【JP Core仕様】当面利用しない。</t>
   </si>
   <si>
@@ -1234,7 +1234,7 @@
     <t>このプロシジャーが実施された場所</t>
   </si>
   <si>
-    <t>プロシジャーが実施された場所。
+    <t>プロシジャーが実施された場所。  
 例:自宅での出生、レストランで気管切開など。</t>
   </si>
   <si>
@@ -1253,14 +1253,14 @@
     <t>このプロシジャーが実施された理由コード</t>
   </si>
   <si>
-    <t>処置が行われたコード化された理由。
+    <t>処置が行われたコード化された理由。  
 これはある種のコード化された実体であるかもしれないし、単にテキストとして存在するかもしれない。</t>
   </si>
   <si>
-    <t>ひとつのコードが理由を十分に説明している場合は、Procedure.reasonCodeを使用する。
-リソースを参照する場合は、Procedure.reasonReferenceを使用する。これにより、開始日など、より多くの情報を伝達できる。
-Procedure.reasonCodeとProcedure.reasonReferenceは、重複することを意図したものではない。単一の理由で、Procedure.reasonCodeまたはProcedure.reasonReferenceのいずれかだけを使用できる。
- Procedure.reasonCodeは要約コードの場合もあれば、Procedure.reasonReferenceを使用して、Condition | Observation | Procedure | DiagnosticReport | DocumentReference のいずれかにより、非常に精緻な理由の定義を参照することもできる。
+    <t>ひとつのコードが理由を十分に説明している場合は、Procedure.reasonCodeを使用する。  
+リソースを参照する場合は、Procedure.reasonReferenceを使用する。これにより、開始日など、より多くの情報を伝達できる。  
+Procedure.reasonCodeとProcedure.reasonReferenceは、重複することを意図したものではない。単一の理由で、Procedure.reasonCodeまたはProcedure.reasonReferenceのいずれかだけを使用できる。  
+Procedure.reasonCodeは要約コードの場合もあれば、Procedure.reasonReferenceを使用して、Condition | Observation | Procedure | DiagnosticReport | DocumentReference のいずれかにより、非常に精緻な理由の定義を参照することもできる。  
 もしプロシージャの異なる理由を説明しているのであれば、Procedure.reasonCodeとProcedure.reasonReferenceの両方を使用できる。</t>
   </si>
   <si>
@@ -1289,11 +1289,11 @@
     <t>なぜそのようなProcedureを行ったのか、その正当性を示す。</t>
   </si>
   <si>
-    <t>ある手順が別の手順（硬膜外など）の理由（帝王切開など）になる可能性がある。他の例には、拡張および生検（診断および治療用途の組み合わせ）のための内視鏡検査が含まれる。
-コードが理由を十分に説明している場合は、Procedure.reasonCodeを使用する。
-リソースを参照する場合は、Procedure.reasonReferenceを使用する。これにより、開始日など、より多くの情報を伝達できる。
-Procedure.reasonCodeとProcedure.reasonReferenceは、重複することを意図したものではない。単一の理由で、Procedure.reasonCodeまたはProcedure.reasonReferenceのいずれかだけを使用できる。
- Procedure.reasonCodeは要約コードの場合もあれば、Procedure.reasonReferenceを使用して、Condition | Observation | Procedure | DiagnosticReport | DocumentReference</t>
+    <t>ある手順が別の手順（硬膜外など）の理由（帝王切開など）になる可能性がある。他の例には、拡張および生検（診断および治療用途の組み合わせ）のための内視鏡検査が含まれる。  
+コードが理由を十分に説明している場合は、Procedure.reasonCodeを使用する。  
+リソースを参照する場合は、Procedure.reasonReferenceを使用する。これにより、開始日など、より多くの情報を伝達できる。  
+Procedure.reasonCodeとProcedure.reasonReferenceは、重複することを意図したものではない。単一の理由で、Procedure.reasonCodeまたはProcedure.reasonReferenceのいずれかだけを使用できる。  
+Procedure.reasonReferenceを使用して、Condition | Observation | Procedure | DiagnosticReport | DocumentReference等のリソースを利用することも可能である。</t>
   </si>
   <si>
     <t>Event.reasonReference</t>
@@ -1351,8 +1351,8 @@
     <t>これは、組織学的結果、病理学的報告書、手術報告書などであろう。</t>
   </si>
   <si>
-    <t>複数のレポートが存在する可能性がある
--例：これが複数の生検を行ったプロシジャーであって、いくつもの解剖病理学報告が得られた場合。</t>
+    <t>複数のレポートが存在する可能性がある  
+例：これが複数の生検を行ったプロシジャーであって、いくつもの解剖病理学報告が得られた場合。</t>
   </si>
   <si>
     <t>.inboundRelationship[typeCode=SUBJ].source[classCode=OBS, moodCode=EVN]</t>
@@ -1420,7 +1420,7 @@
     <t>このプロシジャーに関する注意点やコメントなど。</t>
   </si>
   <si>
-    <t>構造化された注釈（アノテーション）を持たないシステムの場合、作成者や時間なしで単一の注釈を簡単に伝達できる。情報を変更する可能性があるため、この要素をナラティブに含める必要がある場合がある。 
+    <t>構造化された注釈（アノテーション）を持たないシステムの場合、作成者や時間なしで単一の注釈を簡単に伝達できる。情報を変更する可能性があるため、この要素をナラティブに含める必要がある場合がある。   
 *注釈は、計算機処理れきる「変更」情報を伝達するために使用されるべきではない*。 （ユーザの行動を強制することはほとんど不可能であるため、これはSHOULDとする）。</t>
   </si>
   <si>

--- a/jpcore-r4/develop/StructureDefinition-jp-procedure.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-procedure.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2-dev</t>
+    <t>1.1.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-procedure.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-procedure.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-26</t>
+    <t>2023-10-31</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-procedure.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-procedure.xlsx
@@ -690,7 +690,7 @@
     <t>シンボルの定義のソースについて明確である必要があります。 / Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/core/CodeSystem/JP_ProcedureCodesMedical_CS</t>
+    <t>http://jpfhir.jp/fhir/core/mhlw/CodeSystem/masterS-medicalProcedure</t>
   </si>
   <si>
     <t>Coding.system</t>
@@ -862,7 +862,7 @@
     <t>Procedure.code.coding:dental.system</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/core/CodeSystem/JP_ProcedureCodesDental_CS</t>
+    <t>http://jpfhir.jp/fhir/core/mhlw/CodeSystem/masterH-dentalProcedure</t>
   </si>
   <si>
     <t>Procedure.code.coding:dental.version</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-procedure.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-procedure.xlsx
@@ -269,7 +269,7 @@
   </si>
   <si>
     <t>dom-2:リソースが別のリソースに含まれている場合、ネストされたリソースを含めてはなりません / If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidまたはmeta.lastupdatedを持たないものとします / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}</t>
+dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidもmeta.lastupdatedも持ってはならない。 / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-procedure.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-procedure.xlsx
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) (http://jpfhir.jp, office@hlfhir.jp)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-procedure.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-procedure.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2-dev</t>
+    <t>1.2.0-dev</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-procedure.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-procedure.xlsx
@@ -269,7 +269,7 @@
   </si>
   <si>
     <t>dom-2:リソースが別のリソースに含まれている場合、ネストされたリソースを含めてはなりません / If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidもmeta.lastupdatedも持ってはならない。 / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}</t>
+dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidまたはmeta.lastupdatedを持たないものとします / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -473,7 +473,7 @@
 </t>
   </si>
   <si>
-    <t>このプロシジャー（処置等）の外部識別子 / External Identifiers for this procedure</t>
+    <t>この手順の外部識別子 / External Identifiers for this procedure</t>
   </si>
   <si>
     <t>これは、ビジネスプロセスによって定義され、リソース自体への直接のURL参照が適切でない場合に参照するために使用される、このProcedureに関連する識別子を記録する。</t>
@@ -482,7 +482,7 @@
     <t>これはビジネス識別子であり、リソース識別子ではない（議論参照）。識別子は1つのリソースインスタンスにのみ表示されることがベストだが、ビジネス上の慣習により、同じ識別子を持つ複数のリソースインスタンスが存在することがあるかもしれない。例えば、複数のPatientとPersonリソースインスタンスが同じ社会保険番号を共有しているかもしれない。</t>
   </si>
   <si>
-    <t>さまざまな参加システムで知られており、サーバー全体で一貫性のある方法で知られているプロシジャー（処置等）を識別できます。 / Allows identification of the procedure as it is known by various participating systems and in a way that remains consistent across servers.</t>
+    <t>さまざまな参加システムで知られており、サーバー全体で一貫性のある方法で知られている手順を識別できます。 / Allows identification of the procedure as it is known by various participating systems and in a way that remains consistent across servers.</t>
   </si>
   <si>
     <t>Event.identifier</t>
@@ -602,7 +602,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>プロシジャー（処置等）の状態を指定するコード。 / A code specifying the state of the procedure.</t>
+    <t>手順の状態を指定するコード。 / A code specifying the state of the procedure.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/event-status|4.0.1</t>
@@ -655,7 +655,7 @@
     <t>このプロシジャーの分類カテゴリ</t>
   </si>
   <si>
-    <t>検索、並べ替え、表示のプロシジャー（処置等）を分類するコード（「外科的処置」など）。 / A code that classifies the procedure for searching, sorting and display purposes (e.g. "Surgical Procedure").</t>
+    <t>検索、並べ替え、表示の手順を分類するコード（「外科的処置」など）。 / A code that classifies the procedure for searching, sorting and display purposes (e.g. "Surgical Procedure").</t>
   </si>
   <si>
     <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ProcedureCategory_VS</t>
@@ -1358,7 +1358,7 @@
 例:自宅での出生、レストランで気管切開など。</t>
   </si>
   <si>
-    <t>記録が保持される可能性が高い場所にプロシジャー（処置等）を結びます。 / Ties a procedure to where the records are likely kept.</t>
+    <t>記録が保持される可能性が高い場所に手順を結びます。 / Ties a procedure to where the records are likely kept.</t>
   </si>
   <si>
     <t>.participation[typeCode=LOC].role[classCode=SDLOC]</t>
@@ -1518,7 +1518,7 @@
     <t>今後の処置が特別なフォローアップを必要とする場合（例：抜糸）、フォローアップはシンプルなnote として表現してもよいが、より複雑になる可能性もあり、その場合はケアプランリソースを使用することができる。</t>
   </si>
   <si>
-    <t>プロシジャー（処置等）で特定のフォローアップが必要な場合 - 例えば縫合の除去。フォローアップは、単純なメモとして表されるか、潜在的により複雑になる可能性があります。その場合、カレプランリソースを使用できます。 / If the procedure required specific follow up - e.g. removal of sutures. The follow up may be represented as a simple note or could potentially be more complex, in which case the CarePlan resource can be used.</t>
+    <t>手順で特定のフォローアップが必要な場合 - 例えば縫合の除去。フォローアップは、単純なメモとして表されるか、潜在的により複雑になる可能性があります。その場合、カレプランリソースを使用できます。 / If the procedure required specific follow up - e.g. removal of sutures. The follow up may be represented as a simple note or could potentially be more complex, in which case the CarePlan resource can be used.</t>
   </si>
   <si>
     <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ProcedureFollowUp_VS</t>
@@ -1980,7 +1980,7 @@
     <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="69.609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="59.70703125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="66.18359375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
